--- a/DATA/chanel_junk_valid_new.xlsx
+++ b/DATA/chanel_junk_valid_new.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
   <si>
     <t>text</t>
   </si>
@@ -19,24 +19,458 @@
     <t>is_junk</t>
   </si>
   <si>
-    <t>Smiley piercings😍😍
+    <t>The camelia - a long time symbol of Chanel and favorite flower of Gabrielle Chanel herself. 
+Find this stunning Chanel WOC adorned with camelias at Rouge now 🖤
+.
+.
+.
+#Rouge #palmademallorca #mallorca #majorca #majorque #majorka #spain #baleares #islasbaleares #ibiza #luxury #luxuryshopping #luxuryhandbags #luxuryfashion #investmentbag #classy #switzerland #luxembourg #sweden #germany #london #nederlands #benelux #chanel #chanelwoc #camelia</t>
+  </si>
+  <si>
+    <t>Wknds are my happy place 🤍 even if they do include multiple toddler tantrums 🫠
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+#fashion #photooftheday #potd #fashionblogger #ootd #fblogger #styleinspiration #beautiful #love #outfitoftheday #interiordesign #photooftheday #outfitideas #london #blogger #trend #interiorinspo #zaraoutfit #styleblogger #style #like4like #londonlife #baby #londonstreetstyle #mummybloggeruk #londonlife #byrotationofficial #happy #byrotation #chanel</t>
+  </si>
+  <si>
+    <t>Used Card holder XL 24999.-
+Line: 244xfzmn</t>
+  </si>
+  <si>
+    <t>My love for a chanelofficial classic flap 😌| #chanelbags #luxuryhandbags #whattobuy #handbagcollection #chanel #fashionbloggeruk #inspirational</t>
+  </si>
+  <si>
+    <t>HAPPY BIRTHDAY KING KUMA
+JENNIE #SOLO STAGE
+#YouandMe #iloveyouandme #Jennierubyjane 
+#JENNIE #BornPinkJENNIE #JENNIEKIM #제니 #JENNIESOLO #Solo #Chanel #Tamburins #Hera #FirstSoju #Soonhari #JentleGarden #JentleHome #Chumchurum #GentleMonster #rapperjennie</t>
+  </si>
+  <si>
+    <t>𝘾𝙝𝙖𝙣𝙚𝙡 𝙚𝙖𝙧𝙧𝙞𝙣𝙜𝙨 
+❤️100% real shots from the manufacturer or shopkeeper｜👜Luxury Fullset Free Shipping
+❤️Have its own factory advanced custom production line
+❤️Welcome to map quotation inquiry｜All styles are in stock
+❤️No bargaining, no refunds, no closer to perfection! Welcome anytime 📱DM
+❤️WeChat: YJVTG1
+❤️WhatsApp: +852 51340060
+Disclaimer:yjacc4 has nothing to do with any brand, and does not hold any copyright in the pictures. All trademarks and copyrights belong to the brand trademark holders in the picture, this post is only for sharing.</t>
+  </si>
+  <si>
+    <t>Just in. The perfect daily and travel tote 😍this is going everywhere with me.</t>
+  </si>
+  <si>
+    <t>𝐌𝐨𝐧𝐝𝐚𝐲 𝐛𝐞 𝐤𝐢𝐧𝐝 𝐭𝐨 𝐮𝐬🖤✨
+•
+•
+•
+•
+•
+•
+#designer #luxe #bags #handbags #crossbody #crossbodybag #chanelbag #chaneladdicted #chanellove #crossbodybags #chanellover #chanel #mini #miniflap #minirectangular #black #caviar #minibag #chaneladdict #fy #fyp #fypage #foryou #fypシ #foryourpage #explore #explorepage #discoverunder5k #discoverunder1k #discoverunder500
+All images and items belong to me, 
+Authentic and not for sale. 
+For my personal</t>
+  </si>
+  <si>
+    <t>Saint Laurent Paris 💛Matelasse Monogram Chain Bag💛get for 7xxx, Styled with Off White Tee for 7xx and Chanel Tweed Skirt for 8xxx. Use code to save more on site.</t>
+  </si>
+  <si>
+    <t>Estou numa vibe em que só vivia dentro de fatos! Acho que são looks imprescindíveis no nosso armário e versáteis!🖤
+Suit e.g.o_store 
+#outfit #outfitinspiration #outfitoftheday #instafashion #instadaily #inspiration #fashionblogger #fashionstyle #fashionstyle #suitstyle #suit #look #blacklove #foxy #makeup #chanel #strass #elegance #lux #goals #gooutside #shopping</t>
+  </si>
+  <si>
+    <t>What’s behind Door #4?… Who else but Legendary CHANEL🖤🤍🖤
+Coco Chanel is widely regarded as one of the most influential fashion designers of the 20th century, revolutionizing women's fashion with her innovative designs that were both comfortable and elegant. Chanel's style was characterized by simplicity, practicality, and a timeless appeal that continues to inspire fashion today.
+Chanel's impact on fashion is still felt today, with her designs continuing to inspire fashion designers and enthusiasts around the world. Her legacy as a fashion icon is secure, and she will always be remembered as a true pioneer in the industry.
+Check out our selection of Chanel clothing, handbags, jewelry and shoes at affordable prices only at Renaissance! 🖤🤍🖤
+#chanel #legancy #fashionicon #cocochanel</t>
+  </si>
+  <si>
+    <t>Yes or No ? 🧡🧡👉👉kimberly.chanel.closet ​
+Double-tap if you love ❤️‍​
+Tag your friends 👇 👇Rate it 1-10..!! 😍​
+-⠀​
+▶ Follow us now for daily trending fashion!​
+▶ Follow us​
+.​
+..​
+.​
+.</t>
+  </si>
+  <si>
+    <t>Yasmeen Ghauri in sequins look with a tiny purse.✨
+CHANEL Haute Couture f/w 1991. 
+Designed by Karl Lagerfeld.
+Images via Getty Images &amp; ArianaVSCouture 
+#yasmeenghauri #chanel #hautecouture</t>
+  </si>
+  <si>
+    <t>Rate this outfit from 1-10✔
+emilisindlev 💜💫 cphfw
+📸1,2 despi_naka
+3 edward.berthelot gettyimages
+6 moeez
+.
+.
+.
+#CPHFW #SS23 #CHANEL #trendalert #bag #denim #oversize #furjacket #trendy #juliannawilde #streetstyle #fashion #streetfashion #streetshic #fashionstyle #fashionable #stylish #chic #inspiration #fashionista #fashionlover  #fashiondetails #topfashiontrends #bestlook #bestfashion #bestfashiontrends #fashioninspiration #bestfashionoutfit  #beststreetvibes #ootd</t>
+  </si>
+  <si>
+    <t>Baby cousins finally meeting each other 💙👶🏻👶🏻</t>
+  </si>
+  <si>
+    <t>If you need my products, please add my whatsapp: +8618950702971 consultation, we accept PayPal and MoneyGram, free shipping worldwide, here are the cheapest prices and best quality</t>
+  </si>
+  <si>
+    <t>Your best supplier! Dropshipping around the world. Add my whatsapp: +852 65839975. We have all the products you want. Looking forward to working with you.</t>
+  </si>
+  <si>
+    <t>Time to pack for the beach… #vacationessentials #jfhoops #jenniferfisher</t>
+  </si>
+  <si>
+    <t>《ファミリーお花見🌸🇮🇹》
+今年は東京ミッドタウンの【ナプレ】のテラスで夜桜花見🌸ナプレはお友達のタカミホールディングス、高見社長のレストラン🇮🇹テラスでお食事しながらお花見ができるので毎年きます。超おススメ🌸
+最高の天気✨着こんできたけど暖かくて良かった。今年もファミリー皆んなで集まって花見イタリアンをエンジョイ🇮🇹このクアトロフォルマッジピザは本当に美味🍕美味しかった&amp;楽しかった💓
+《Family cherry blossom viewing🌸🇮🇹》
+This year, cherry blossom viewing at night on the terrace of "Napule" in Midtown Tokyo🌸Napule is my friend Mr Takami, CEO of Takami Holdings’s restaurant. Highly recommend as viewing Cherry Blossom with Italian food🌸It was nice and warm night. Also, the whole family gathered together and enjoyed Italian food🍕🇮🇹 It was delicious and fun💓
+#tokyo #japan #cherryblossom #hanami #tokyomidtown #napule #family #italian #pizza #chanel #fur #royalchie</t>
+  </si>
+  <si>
+    <t>This account is 3 years old today!🥳🎂
+Premiere of "On the Road" in New York (13/12/2012)</t>
+  </si>
+  <si>
+    <t>Effortless 
+#illustration #drawing #procreate #ipaddrawing #아이패드드로잉 #드로잉 #일러스트 #그림 #그림스타그램 #샤넬 #fashionillustration #chanel</t>
+  </si>
+  <si>
+    <t>🔥近期搶到癲🔥
+出門必備的Wallet on chain 
+放電話，Passport 都冇問題👍🏻👍🏻👍🏻
+Size :19.2x12.3x3.5cm
+📲 Inbox查詢
+➖➖➖➖➖➖➖➖➖➖➖➖➖➖
+📱落訂留貨（門市自取/順豐到付）
+💰付款方法
+- Cash/FPS/Payme/銀行轉數（BOC / HS）
+- EPS +1% （門市使用）
+- Visa / Master /Union Pay +2.5% (門市使用）
+⚠️條款細則
+過數為準，不設口頭協議
+訂單一經確認
+不設退貨/退款/換貨/轉售服務
+由於電腦螢幕和相機與實物
+可能有色差，一切以實物顏色為準
+本店與任何品牌無關，所有版權及商標屬於品牌所有
+#Chanel #Chanel代購 #Chanel包包 #Chanel袋 #名牌代購 #代購 #香港代購 #歐洲代購 #全球代購 #Hermes #Hermes代購 #Goyard #Goyard代購 #SaintLouis #fashion #hkgirl #Hongkong #ChanelSLG #chanelclassic #chanellove #Prada #chanellover #Rolex #hkstyle #ChanelFashion #Purchasing #Tbt #ootd</t>
+  </si>
+  <si>
+    <t>Cute 🐱
+#ootd #ootdfashion #style #styleinspiration #outfit #outfitoftheday #aesthetic #chanel #chanelslingback #chanelshoes #massimodutti</t>
+  </si>
+  <si>
+    <t>Details 🤍
+chanelofficial 
+.
+.
+#ａｅｓｔｈｅｔｉｃ 
+#beauty
+#chanel 
+#aesthetically</t>
+  </si>
+  <si>
+    <t>Happy Sunday 🖤🤍🖤🤍. These classics are so elegant, love them. I don’t have much planned for today, hubby is throwing out some old furniture at the dump and my daughter is working. I’m feeling much better. Wishing you an awesome day 🤍🖤🤍🖤. 
+.
+.
+#louisvuitton #louisvuittonlover #lvoe #louisvuittonaddict #louisvuittonaddicted #lvaddict #lvaddicted #lvcollection #louisvuittoncommunity #louisvuittoncollection #lvlover #lvcommunity #lvoejunkie #bagaddict #instagood #instagram #instafashion #louisvuittonfans #jerushaaddict #botd #lvpochette #lvwallet #wallet #chanel #chanelwallet #chanelclassic #pochette #lvempreinte #empreinte #cardholder</t>
+  </si>
+  <si>
+    <t>Ad💕Something good is coming!
+So excited to share these snaps I did with chanelofficial to celebrate the upcoming launch of the Oslo Boutique. Finally!
+📸 themisspopo 
+#Scandistyle #outfit #style #colorfulfashion #chanel #chanelbag #chanelclassic</t>
+  </si>
+  <si>
+    <t>Forever chanel.beauty ❤️
+thecococraving welovecoco #chanel #gucci #dior #fashion #louisvuitton #chanelbag #hermes #prada #chanelclassic #lv #chanellover #luxury #fendi #style #love #ysl #versace #balenciaga #bag #makeup #chaneladdict #valentino #chanelboy #ootd #chanelvintage #beauty #givenchy #fashionblogger #chanelmini #burberry</t>
+  </si>
+  <si>
+    <t>Pretty in pink 💕
+.
+.
+.
+#chanelclassic #chanelflap #chanelmini #chanelsmall #chanelbag #flapbag #newarrival #luxury #chanel #unboxing #chanellover #pink #barbie #cc #crossbody #resellercommunity #luxurylifestyle #luxuryreseller #love #luxuryinreach
+____________________________________________ 
+𝗗𝗜𝗦𝗖𝗟𝗔𝗜𝗠𝗘𝗥: 𝟭𝟬𝟬% 𝗔𝗨𝗧𝗛𝗘𝗡𝗧𝗜𝗖 𝗢𝗥 𝗬𝗢𝗨𝗥 𝗠𝗢𝗡𝗘𝗬 𝗕𝗔𝗖𝗞- 𝗟𝗨𝗫𝗨𝗥𝗬 𝗜𝗡 𝗥𝗘𝗔𝗖𝗛 𝗟𝗟𝗖 𝗜𝗦 𝗡𝗢𝗧 𝗔𝗙𝗙𝗜𝗟𝗜𝗔𝗧𝗘𝗗 𝗪𝗜𝗧𝗛 𝗧𝗛𝗘 𝗕𝗥𝗔𝗡𝗗. 𝗔𝗟𝗟 𝗖𝗢𝗣𝗬𝗥𝗜𝗚𝗛𝗧𝗦 𝗔𝗥𝗘 𝗥𝗘𝗦𝗘𝗥𝗩𝗘𝗗 𝗕𝗬 𝗧𝗛𝗘 𝗢𝗥𝗜𝗚𝗜𝗡𝗔𝗟 𝗕𝗥𝗔𝗡𝗗 𝗢𝗪𝗡𝗘𝗥</t>
+  </si>
+  <si>
+    <t>Photography by #GuyBourdin for #VogueParis 1983
+Clothes #HirokoKoshino
+Makeup #HeidiMorawetz for #Chanel
+Hair #Madeleine for #Bruno
+#photographer #photography #fashion #mode
+#vogue #fashionphotography #ファッション
+#japanesefashion #japanesestyle #tweede
+#knitwear #knits #fashion #france #japon
+#grass #archive #paris #voguemagazine
+#voguefrance #80s #1980s #1983</t>
+  </si>
+  <si>
+    <t>⚜️
+•
+•
+•
+#girl #travel #instagram #travelgram #photography #photooftheday #travelphotography #happy #picoftheday #nature #fashion #travel #beautiful #style #photo #wanderlust  #summer  #art #travelblogger #aesthetic #insta #trip #germany #instagood #italy #milano #dior #chanel #prada #vittorioemanuele #louisvuitton</t>
+  </si>
+  <si>
+    <t>BLACKPINK Jisoo 的巴黎時裝週之旅又有新美照！
+｜#Wazaiii觀察｜Jeremy Scott 卸任 Moschino 創意總監｜BLACKPINK Jisoo 助陣 Dior 成巴黎時裝週最有媒體影響力品牌，超車 CHANEL 香奈兒、Louis Vuitton｜
+不用五分鐘，一起了解這週時尚娛樂圈發生什麼大事：
+➡️ 消息太突然！Jeremy Scott 擔任 Moschino 創意總監十年，日前宣布離開品牌！他幽默和創意為品牌成功翻新，一起來回顧他的經典作品！
+➡️ 根據時尚數據平台 Launchmetrics 報告，Dior 成為2023秋冬巴黎時裝週媒體影響力最高的品牌，流量關鍵就是品牌大使 BLACKPINK Jisoo。韓流持續在時尚圈發燒，來看看現在品牌最愛的韓星是誰！
+#小編最喜歡Moschino麥當勞包包
+#拜託閨女們再來台灣
+現在就 Follow Wazaiii 的 Instagram：wazaiii
+加入 Wazaiii 成為 Line@好友搜尋ID：wazaiii
+#Wazaiii #觀點 #fashion #時尚 #Moschino #JeremyScott #Dior #BLACKPINK #Jisoo #chanel #LouisVuitton #Gucci #Prada #韓星 moschino jeremyscott dior sooyaaa__</t>
+  </si>
+  <si>
+    <t>Our Spring Sale is still on! Shop our favorite trending styles at the link in our bio or in stores until March 31st!</t>
+  </si>
+  <si>
+    <t>Bbangsaz too close 💖🫠
+#MINJI #민지 #NEWJEANS
+——
+[230327] newjeans_official update
+——
+#OMG #Ditto #HypeBoy #Attention #Cookie #Hurt
+#Hanni #Haerin #Hyein #DanielleMarsh 
+#Bunnies #Tokki #pouting #wink 
+#bbangsaz #catnipz 
+#NEWJEANS #newjeansminji
+#adornewjeans #뉴진스 
+#chanel #chanelbeauty 
+#kpop</t>
+  </si>
+  <si>
+    <t>Here are some of my current most used slgs in my collection. 
+Switching it up a bit with one of these flat lays that you need geometric patterns to get just right. 😅 inspired by thebagblogs with my own touches. 
+Happy Monogram Monday 🤎🖤💫
+.
+.
+.
+.
+.
+#monogrammonday #louisvuitton 
+#flatlay #lvslg #lvcardholder #lvmonogram #lvempriente #lvminipochette #lvbicolor #6keyholder #lvwallet #lvzippycoinpurse #lvcles #chanel #chanelcardholder #lvdamier #rectoverso #lvrectoverso #lvreversemonogram #lvfragrance #discoverunder10k #discoverunder20k #lvmonogram #pictureoftheday #blackgirlluxury #blackgirlbloggers #lvattrapereves</t>
+  </si>
+  <si>
+    <t>#JISOO FIRST SINGLE ALBUM " ME "
+ TRACKLIST POSTER sooyaaa__ 
+2023.03.31
+12AM(EDT) &amp;1PM(KST) 
+#blackpink #rosé #jennie #jisoo #lisa #blackpinkistherevolution  #blackpinkinyourarea #blink #explore #jenniekim #rosépark #jisookim #lisamanoban #blackpink #bp #explore #followme #pinkvenom #shutdown #bornpink #ysl #sulhasoo #chanel #gucci #dior #fashion #model #blackpink #blink #lisa #jisoo #rosé #jennie #blinks #yg #bp #bptg #solojisoo ♡</t>
+  </si>
+  <si>
+    <t>Hello friend, there are many products you need🎁
+High-end quality, global DHL federal free shipping
+Paypal remittance is acceptable
+Fast delivery after payment, ✈7-12 days arrival
+Welcome your consultation. My contact information is 📞WhatsApp8615105927220</t>
+  </si>
+  <si>
+    <t>The energy that feeds my soul today…</t>
+  </si>
+  <si>
+    <t>🤍
+.
+メロンといちごずっと気になってて食べに行けました🤤🍓
+.
+この日は寒かった&amp;風が強かったのでカジュアルめでまとめてみました😌
+.
+knit: meltthelady 
+necklace: swarovski 
+earrings: chanelofficial 
+rings: chaumetofficial joueteofficial 
+.
+#ootd
+#fashion
+#cocotd
+#cafe
+#swarovski 
+#meltthelady 
+#chanel
+#chaumet 
+#jouete 
+#iphoto
+#iphotography 
+#iphonography 
+#shotoniphone 
+#model 
+#モデル 
+#parlornoon 
+#目黒 
+#目黒カフェ 
+#夜カフェ</t>
+  </si>
+  <si>
+    <t>J. Golden Photography 
+Birthday Session 
+Shot By Jo H Golden
+www.jgoldenphotography.com 
+Call Us Today 713-548-3414
+#burberry #workout #business #txmodels #instagood #gym #health #muscles #photooftheday #photography #realestate #realtor #fitnessmotivation #picoftheday #mensfashion #birthdayphotoshoot #Houstonphotography #likeforlike #pharmacist #capandgown #school  #chanel #law #retoucher  #doctor #flowerwall</t>
+  </si>
+  <si>
+    <t>💄💋
+#chanellerougepopup #chanel #lerougechanel #sored #throwback #lfl</t>
+  </si>
+  <si>
+    <t>Something beautiful 🖤
+#somethingbeautiful #ａｅｓｔｈｅｔｉｃ #postfortheaesthetic #radom #radomianka #warszawa #newbag #lambskin #chanelclassicflapbag #valentinesgifts #pinterestaesthetic #chanelclassicflap #chanel #chanelbag #aesthetically #aestheticposts #dreamspace #beautifulplacestovisit #inspofinds #chanelunboxing #unbox #chanellove #chaneladdict #chanelofficial</t>
+  </si>
+  <si>
+    <t>#Y #Y_ISSUE09 #Y_EDITORIAL
+Y LIST
+&lt;Y&gt; 에디터들의 눈과 마음을 사로잡은 '잇' 위시 리스트를 소개합니다. 더 많은 이야기는 &lt;Y&gt; 매거진 09호에서 확인하세요.
+🎀겔랑(guerlain)
+- 라르 &amp; 라 마티에르 컬렉션 자스민 보누르
+🎀티파니앤코(tiffanyandco)
+- 티파니 락 뱅글
+🎀아미나 무아디(aminamuaddiofficial)
+- 로지 크리스탈 엠벨리쉬드 실크 새틴 펌프스
+🎀샤넬(chanelofficial)
+- 22 핸드백
+🎀딥티크(diptyque)
+- ‘심플 심플’ 컬렉션 캔들 홀더
+🎀디온 리(dionlee)
+- 2023 S/S Ready-to-Wear #Look 46
+#editor_JHR
+#Ymagazine #와이매거진 #YLIST #위시리스트 #guerlain #tiffanyandco #aminamuaddi #chanel #diptyque #dionlee</t>
+  </si>
+  <si>
+    <t>Grey outside means cosy inside.</t>
+  </si>
+  <si>
+    <t>Belly piercings🥹😍
 (My post)
 (Follow cocoafeedz for more💌)
-#piercings #piercing #smileypiercing #rings #explorepage #fyp #y2k #y2kaesthetic #melaninpoppin #melanin #aesthetic #aesthetics #lashes #eyebrows #girlboss #girlblogger #vintage #vogue #dior #chanel #lanadelrey #relatable #femcel #darkfeminine #coquette #darkcoquette #bohostyle #lilyrosedepp #taylorswift #pinterest</t>
-  </si>
-  <si>
-    <t>If you are interested in my products, please add my contact  whatsapp+8618950702971. The best quality, the best service, the lowest price, we wholesale and retail shoes, bags, clothes, glasses, etc.</t>
-  </si>
-  <si>
-    <t>#ZZ20230321074 #Chanel #白色图案刺绣圆领T恤 #SML #suit #garment #shirt #tshirt #coat #downjacket #jeans #dress #skirt #styleinspo #bloggerfashion #onsale #prettygirls #ootd</t>
+#bellypiercing #piercing #piercings #aesthetic #waistbeads #waistbeadsqueen👑 #aesthetics #melanin #beauty #explorepage #fyp #pinterest #vogue #vintage #acubi #moodboard #moodboards #dior #chanel #jewelry #melaninpoppin #taylorswift #lanadelrey #y2k #y2kaesthetic #cyber #y2kfashion #bellypiercings #pink #pinterestinspired</t>
   </si>
   <si>
     <t>We have been engaged in the wholesale and retail of all kinds of brand shoes and bags for many years. Our goods are of high quality. The payment method is PayPal and bank transfer. The transportation methods are (FedEx, DHL, China Post). If you want to know the price, please Add my WHATSAPP+8618950702971</t>
   </si>
   <si>
-    <t>NMACC opens in Mumbai this week, Beyoncé meets Balmain, Jeremy Scott’s Moschino exit, H&amp;M X Mugler and more updates from the week. Link in bio.
-nmacc.india manishmalhotra05 manishmalhotraworld hamishbowles behno_official katrinakaif shivampunjya vamuseum chanelofficial beyonce balmain olivier_rousteing weareivypark hm muglerofficial cadwallader jeremyscott moschino vidhi_singhania levis levis_in 
-#theweekinfashion #twif #fashionnews #fashionhighlights #fashiondesigner #globalfashion #globalfashionnews #nitaambani #nitamukeshambaniculturalcentre #fashionexhibition #dior #chanel #hm #behno</t>
+    <t>#likeallmypics #moscowcity #moscow #russian #molodezhka #tajikistan #uzbekistan #kazakhstan #kirgizistan #azerbayçan #azerbaycan #moldova #piter #ekaterinburg #followｍe #blackpink #chanel #city #my #bag #instagramanet #instalikes #life #mybag #likeme #lovemylife #story #makhajkala</t>
+  </si>
+  <si>
+    <t>The rule for Roberto Cavalli is GO BIG OR GO HOME! And going home was not an option for me! 😆 this was my look for the Roberto Cavalli show! 
+Also it’s the day I met in person the new ROAR bag! Put a gay man in contact with anything that has a reference to Katy Perry and it’s an immediate success. 
+roberto_cavalli faustopuglisi 
+Photographers: alena.milan.photo and ludovicarceroph and daan_sachdev</t>
+  </si>
+  <si>
+    <t>an old-fashioned global trotter 🌍 
+it’s indisputably a privilege to be able to travel so frequently — to explore the world, to savor the food, to experience different cultures, and to connect with people you never imagined you would meet. 
+so here’s a little photo tribute to the status quo🥂
+搬到紐約後，慢慢習慣來來去去——
+身邊朋友的遞嬗、生活環境的更迭、巷口店家的消長，習慣了變動是常態的日常。
+我以為，人會因為環境而改變，但終究，我們都帶著過往的自己上路。
+還是喜歡湯湯水水的亞洲食物，而且在國外待得越久，選擇亞洲食物的頻率越高；
+還是習慣喝煮沸過後的溫熱水，儘管歐洲硬水與礦物質會形成厚厚的水垢，於是開始尋找加熱後最不會形成水垢的品牌（Volvic 是加熱後喝起來最沒有水垢最好喝的）；
+洗完頭還是習慣把頭髮吹乾而不是自然乾；進家門一定要脫鞋，穿出去外面的鞋子怎麼可以進家裡？
+過了這麼多年，雖然很多東西都變了，但你還是原來的那個自己。</t>
+  </si>
+  <si>
+    <t>This Chanel Jacket 💐 Vous aimez ? 
+Gilet Chanel • SOLD OUT 
+#chanel #chanelvintage #chanellover #chaneladdict #vintage #chaneljacket #closet2closet #fashion #cc #depotvente #depotventeluxe #paris</t>
+  </si>
+  <si>
+    <t>I’m just saying though💎 #happyfriday #chanel #iamkietta #beautifulkietta #beautifulbosschic #msmayweather #realtalkwithkietta #iamaunicorn #magicalbeauty #naturallybeautiful #cherokeeandethiopianmix</t>
+  </si>
+  <si>
+    <t>〻👧🏻🦄🛍️🎀
+Ｍy loｖes‥🥨
+．
+．
+．
+#myfav
+#maisonmargiela 
+#Aesop
+#SHIRO
+#three 
+#CHANEL</t>
+  </si>
+  <si>
+    <t>#outfitinspiration #pinterest #look #art #streetstyle #chanel  #y2kstyle #styleinspiration #inspiration #instalike #instafashion #ootd #fashionweek #stylefashion 
+#lookoftheday #pinkoutfit  #y2k #greenoutfit #grey #beachvibes #love_fashion #explorepage #altgirl #aesthetics #virtuals tylist #virtual #photography #vintageclothing</t>
+  </si>
+  <si>
+    <t>Friday OOTD 🖤✨
+Product ID:
+Tweed Dress: 11544076
+Tweed Blazer : 11544069
+✨Use my code sofrench15 for an extra 15% off any purchase on shein site. 
+#SHEINforAll #SHEINpartner 
+#blackoutfit #ootd #ootn #sofrenchbynaty</t>
+  </si>
+  <si>
+    <t>Bottega veneta ❤️‍🔥
+secondchanceistheway 
+#bottegaveneta #bags #originalbags #luxury #authenticluxury #gucci #prada #chanel #bottegavenetabags #reseller #secondchanceistheway #vestiairecollective #depop #resellercommunity #secondhandbag #prelovedbags #brandnewbags</t>
+  </si>
+  <si>
+    <t>Timeless chanelofficial 💙 #chacha #chanel #timeless #timelessbag #fashion #fashionlover #baglover #bagaddict</t>
+  </si>
+  <si>
+    <t>When you choose peace, it comes with a lot of goodbyes. | 
+.
+.
+#vibeout #goodvibes #Sundayvibes #fabmom #dolcegabbana #chanel #slides #miami #ichoosepeace 
+#happy #fabflyy #weekendVibes #miamibeach #cookoutvibes #grillmaster</t>
+  </si>
+  <si>
+    <t>Crêpes &amp; Saint Tropez 🙌😋#memories#holidays#sainttroepz#cotedazur#cotedazurfrance#january#january2023#brown#walk#lunch#ermannoscervino#hermès#hermesbag#louisevuitton#dolcegabbana#dior#diorsunglasses#chanel#chanelearrings</t>
+  </si>
+  <si>
+    <t>It’s blue and chanelly and yes you know what it smells like but arguably it’s one of my guilty pleasures. Oh and by the way. The next episode of lesoderants is out shortly and yes… it’s on guilty pleasures. WHAT A COINCIDENCE. 
+Also. I’ve decided it’s time to put some positive energy out into the universe and so I’m going to start wishing everyone a great day. At some stage. BUT NOT TODAY. 
+#bleu #blue #chanel #flat #guilty #pleasure  #Perfume #perfumecollection #perfumes #duft #perfumeaddict #perfumelover  #fragrance #fragrancecollection #fragrancelover #fragrancearmy #fragranceoftheday #fragranceaddict #fragrances #fragrancecollector  #nicheperfumes #nicheperfume #growdeparfum  #sotd #scentoftheday #fragrance #artofperfumery #fragrance_weirdo #mensgrooming  #perfumeoftheday</t>
+  </si>
+  <si>
+    <t>moon_yyoung
+#comedymemes #memes #funnymemes#fyp #fypシ #pinterestgirl #music #travel #girlbloggeraesthetic #girlblogger #girlboss #vintage  #vogue #stargirl #styleblogger #fashion #cottagecore #explorepage #indianmemes #lilyrosedepp #femmafatale #viral #explorepage #explore #dior #chanel#bellahadid #lanadelrey #selenagomez #taylorswift #whispers</t>
+  </si>
+  <si>
+    <t>The most gorgeous girl 🖤 
+•
+•
+tags;
+#margotrobbie #margotrobbieedit #margot #robbie #nellielaroy #babylonmovie #suicidesquad #itonya #focusmovie #oscars #goldenglobes #followtrain #followｍe #explorepage✨ #foryou #followforfollowback #gaintrains #discover #grammys #metgala #barbiemovie2023 #barbiethemovie #onceuponatimeinhollywood #follow #harleyquinn #metgala #wolfofwallstreet #chanel</t>
   </si>
   <si>
     <t>THIS is called Organic engagement🤭 
@@ -46,41 +480,135 @@
 #JENNIE #BornPinkJENNIE #JENNIEKIM #제니 #JENNIESOLO #Solo #Chanel #Tamburins #Hera #FirstSoju #Soonhari #JentleGarden #JentleHome #Chumchurum #GentleMonster #rapperjennie</t>
   </si>
   <si>
-    <t>Hello, I'm wholesaler of bags, shoes, purses, watches, clothes, 🎁
-Delivery time ✈ 7-12 days
-Express: Federal, DHL,UPS
-Support Western Union, paypal payments
-📞 WhatsApp+8618059932287</t>
-  </si>
-  <si>
-    <t>We are engaged in the wholesale and retail of all kinds of luxury brands (clothes, shoes, bags, glasses, belts, etc.) all-day customer service online, top quality goods, free shipping/Paypal collection (FedEx/DHL/China Post) If you are interested in products or want To understand the price, please add my contact information WHATSAPP+8618950702971</t>
-  </si>
-  <si>
-    <t>Happy Monday! ☀️🤍
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-#style #styleblogger #styleblog #chic #chicstyle #outfitsdaily #outfitinspo #outfitdiary #outfitdiaries #sandro #tweedjacket #chanel #chanelsquaremini #chanelcamellia #chanelribbonstyle #levis #tamarisshoes #celine #fashiondiaries #moda #instalike #fashionshow #fashionstyle #fashion</t>
-  </si>
-  <si>
-    <t>🧿😍
-#amor #abonnezvous ⬆️#tbt #amazing #amor #accessories #algerienne🇩🇿 #instagood #istanbul #instalove #instagram #italy #instagood #instalove #tunisie🇹🇳 #türkiye💜 #tiktok #travel #españa #couple #cake #cat #cool #chanel #zara #beautiful #birthday #bienveillance #dz #japan #kids #reels 😍✨</t>
+    <t>🌸 x 🌺
+💞💞💞
+-
+-
+-
+#nigo #humanmade #levisvintageclothing #needles #chanel #kenzo</t>
+  </si>
+  <si>
+    <t>Chanel's boxers ain't pulling no punches 🥊💎
+. 
+📸: reginaanikiy</t>
+  </si>
+  <si>
+    <t>Collection Of Kish Cars Part #3 
+▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎
+audi audiofficial 
+chevrolet chevroletperformance 
+dodgeofficial ford bmw bmwm hermesrapgod 
+▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎
+Hashtags : 
+#audi #audisport #chevrolet 
+#chevroletcamaro #dodge #dodgesuv #ford #fordtaurus #bmw 
+#bmwm #bmwm3 #kish #kishisland 
+#paradise #gangsterparadise #chanelwatches #chanel #361shoes 
+#gang #carcollection #cars #hermesrapgod #sportcars</t>
+  </si>
+  <si>
+    <t>Smiley piercings😍😍
+(My post)
+(Follow cocoafeedz for more💌)
+#piercings #piercing #smileypiercing #rings #explorepage #fyp #y2k #y2kaesthetic #melaninpoppin #melanin #aesthetic #aesthetics #lashes #eyebrows #girlboss #girlblogger #vintage #vogue #dior #chanel #lanadelrey #relatable #femcel #darkfeminine #coquette #darkcoquette #bohostyle #lilyrosedepp #taylorswift #pinterest</t>
+  </si>
+  <si>
+    <t>We are a product wholesaler, we sell a lot of products, shoes, bags, clothes and so on, if you are interested in my products, please add my WhatsApp: +8613514055482, high quality and fast shipping</t>
+  </si>
+  <si>
+    <t>🖤☠️
+.
+.
+..
+.
+.
+.
+.
+#trend #instagram #viral #2009 #explorepage #fyp #trendingreels #style #style #maroc #marocaine🇲🇦 #2009#challenge #chanel #change #instagood #style #trend #trendingreels #reels #reelsinstagram #video #videos #marocaine🇲🇦 #boystyle #bigboy #trendy #viralvideos #memestagram #tendance #partager_max_svp #supportsmallbusinesses#algerienne🇩🇿 #algeria #style</t>
+  </si>
+  <si>
+    <t>声明：mariiafilimonova88888跟任何品牌无关！没有持有图中任何版权，所有商标版权均属图中品牌商标持有人，此贴只做分享用途！
+Disclaimer: mariiafilimonova88888 has nothing to do with any brand! Not holding any copyright in the picture, all trademark copyrights belong to the brand trademark holders in the picture, and this post is only for sharing!</t>
+  </si>
+  <si>
+    <t>I love art and fashion because they are friends.</t>
+  </si>
+  <si>
+    <t>Will be wearing this denim jacket on repeat this spring frame #ItsFRAME #FRAMEfit #FRAMEdenim 🫶✨ hope you all had a nice weekend!!
+Outfit details:
+Jacket - frame 
+Shirt &amp; skort - zara 
+Boots - marc.fisher 
+Jewels - astridandmiyu 
+•
+•
+•
+#preppystyle #parisianfashion #parisianchic #miniskirt #headband #jeanjacket #denimjacket #laparisienne #preppygirl #gossipgirl #emilyinparis #schoolgirlstyle #howtobeparisian #darkacademia #springoutfitideas #springoutfit #chanel #chanelflapbag
+Preppy style, faux fur, spring outfit, spring fashion, spring fashion inspo, parisian style, parisian chic, paris, denim jacket, mini skirt, school girl style, coffee lover</t>
+  </si>
+  <si>
+    <t>#lovemylvoe #fashionablebags #fashionista #fashionable #ootdfashion #fashionnova #ootdstyle #fashionblogger #louisvuittoninternational #chanel #diorrefined #louisvuitton #virgilabloh #Authentic Louis Vuitton #ForSale #Available #LV#LVBags #LVBagsForSale #AuthenticLV #louisvuittonaddicted #monogram #damierebene #damierazur #orangeboxes #designer #fashion #luxury #bagaddict #lvaddicted always</t>
+  </si>
+  <si>
+    <t>Inspired by the new chanel.beauty SS23 collection — Bold red hues and flushed cheeks from the Les 4 Rouges Yeux et Joues palette with a touch of Noir Allure mascara in the shade Rouge grenat and Le Vernis in shade Rouge Cuir on my nails #chanelbeauty
+*gifted</t>
+  </si>
+  <si>
+    <t>這個短項鍊太可愛
+有黑、白、粉三色
+但只有白色帶了不規則的珠光紋路
+手又不小心滑了一下🙃
+/
+/
+#chanel #chanelbag #luxurylifestyle #lifestyle #chanellover #bag #shopping #picoftheday #brand #yellow #furry #instagood #style #mylife #paris #bag #chanelclassic #vouge #luxury #designer #instragram #cocochanel #yellow #limited #limitededition #seasonal #chanelnecklace #necklace</t>
+  </si>
+  <si>
+    <t>CHANEL ~ Haute Couture Fall/ Winter 1994-1995. Show in July 1994 in Paris, France. 
+Catwalk full of Supermodels.
+(Pt. 1).
+.
+#90s #90sfashion #chanel #90schanel #karllagerfeld #90sstyle #90sfashionmodellook #90ssupermodels #supermodels90s #naomicampbell #lindaevangelista #carlabruni #claudiaschiffer #stephanieseymour #nadegedubospertus #christyturlington #ninabrosh #brandiquinones #katemoss #yasmeenghauri #nadjaauermann #karenmulder #kirstyhume #helenachristensen #debbiedietering #shalomharlow #olgapantushenkova #ayakokawahara #trishgoff #kristenmcmenamy</t>
+  </si>
+  <si>
+    <t>Wow!! Just wow! 
+#lovemylvoe  #fashionablebags #fashionista #fashionable #ootdfashion #fashionnova #ootdstyle #fashionblogger #louisvuittoninternational #chanel #diorrefined #louisvuitton  #virgilabloh #AuthenticLouisVuitton #ForSale #Available #LV#LVBags #LVBagsForSale #AuthenticLV #louisvuittonaddicted  #monogram #damierebene #damierazur #orangeboxes #designer #fashion #luxury #bagaddict #lvaddictedalways</t>
+  </si>
+  <si>
+    <t>Back to school with kristenstewartx #happymonday #inbox #hollywood #bitchplease #actress #chanel #kristenstewart #smoking</t>
+  </si>
+  <si>
+    <t>呢個湖水綠好復古
+低調又有個性👍🏻
+小小點綴 成個look出哂黎😏😏
+Size: 17.5x16.5x10cm 
+📲 Inbox查詢
+➖➖➖➖➖➖➖➖➖➖➖➖➖➖
+📱落訂留貨（門市自取/順豐到付）
+💰付款方法
+- Cash/FPS/Payme/銀行轉數（BOC / HS）
+- EPS +1% （門市使用）
+- Visa / Master /Union Pay +2.5%（門市使用）
+⚠️條款細則
+過數為準，不設口頭協議
+訂單一經確認
+不設退貨/退款/換貨/轉售服務
+由於電腦螢幕和相機與實物
+可能有色差，一切以實物顏色為準
+本店與任何品牌無關，所有版權及商標屬於品牌所有
+#Chanel #Chanel代購 #Chanel包包 #Chanel袋 #名牌代購 #代購 #香港代購 #歐洲代購 #全球代購 #Hermes #Hermes代購 #Goyard #Goyard代購 #SaintLouis #fashion #hkgirl #Hongkong #ChanelSLG #chanelclassic #chanellove #Prada #chanellover #Rolex #hkstyle #ChanelFashion #Purchasing #Tbt #ootd</t>
+  </si>
+  <si>
+    <t>I’m crushing on you 🫶🏻💘 #chanel #chanelcococrush #happymonday</t>
+  </si>
+  <si>
+    <t>💖 Customer picture of her gorgeous Paris pillows and her lovely green YSL tote, Message me to order 💖 #Pillows #Twillys #Handbaghook #Handmade #Classy #Oriental #Bees #Florals #Chanel #Gucci #Hermes #Louisvuitton #Mulberry #YSL #Balenciaga #Dior #Givenchy #Prada #Purseaddict #Baglover #Bagaddict #Botd #classyandfabulous #Chanelclassic #Bagoftheday #Chanellover #Chaneladdicted #Neverwithoutmychanel #Woc #Handbag</t>
   </si>
   <si>
     <t>❄️Available☃️
-Authentic Preloved Gibecieve PM, minor cracking at folds 
+Authentic Preloved Zippy Wallet, Black multicolor Noir mono, 8 card slot, three pockets, one coin
 ✔️Very Good Condition
 ✔️ 100% Authentic, w Certificate of Authenticity
-✔️$599
+✔️$475
  🇺🇸Free Standard Shipping USA🇺🇸
 ✔️Payment plan friendly
 🔘8 week payment plan with LVvintageCloset
@@ -101,59 +629,253 @@
 #louisvuitton #gucci #chanel #fendi #lvvintagecloset #damierebene #monogram #christiandior</t>
   </si>
   <si>
-    <t>Timeless chanelofficial 💙 #chacha #chanel #timeless #timelessbag #fashion #fashionlover #baglover #bagaddict</t>
-  </si>
-  <si>
-    <t>With all these Chanel price increases I have become even more appreciative of the their vintage pieces and that long lasting quality. Purchased this vintage bag last year for less than a new woc. Would you consider buying vintage or does only new have your heart? 💕🥰
-💕. #chanel #vintagechanel #chaneltimeless #chanelshoulderbag #chanelvintage #chanelbag #chanelcc #cartierlove #cartierloveweddingband</t>
-  </si>
-  <si>
-    <t>Jennie 111,824 takipçi ile son 24 saatte en çok takipçi kazanan 3. Kpop hesabı oldu.
-[ENG]
-Jennie became the 3th Kpop account to gain the most followers in the last 24 hours with 111,824 followers.</t>
+    <t>90s Chanel Barbie needed a coffee break☔️💕
+Pink | Spring outfits | Spring trends | how to wear | workwear | Neutrals | neutral fashion | style tips | how to style | classic fashion | capsule wardrobe | wardrobe essentials | fashion | minimal style | minimal fashion | casual fashion | simple styling | monochrome | vintage Chanel | 90s Chanel | 
+#outfitoftheday #lookoftheday #outfitinspo #fashioninspo #whowhatwear #aesthetic #ootdsubmit #neutralstyle #tailoring #pink #springfashion #neutrals #minimalstyle #outfitinspo #workwear #classicstyle #minimalstyle #pretty #parisianstyle #alittlebeautyeveryday #fashionreel #luxury #inspiremyinstagram #pinterest #nowdiscovering #midsizefashion #chanel #90s #luxury #gossipgirl</t>
+  </si>
+  <si>
+    <t>For orders and enquiries 
+Whatsapp 7904084645 or join the link from bio for more collections 
+#fashion #fashionstyle #watches #watch #cool #explorepage #explore #explorepage✨ #exploremore #aesthetic #classy #black #style #stylish #chennai #bangalore #mumbai #pune #maharashtra #hyderabad #india #girls #girl#chanel</t>
+  </si>
+  <si>
+    <t>Busy Monday 💪🏼
+#simplicity #seekthesimplicity #toteme #totême #totemestudio  #chanel #chanelballerina #hermes #black #allblack #whatiamwearing #investmentpieces #mystyle #neutralstyle #minimaliststyle #capsulewardrobe #minimalistwardrobe #minimalist #ａｅｓｔｈｅｔｉｃ #myminimalaesthetics</t>
+  </si>
+  <si>
+    <t>Cultivating elegant style is the essence of this platform. There are certain principles, however it can be whatever it means for you and your lifestyle. 
+Chanel will always be one of the most influential ambassadors of style. What does it mean to you? .
+.
+.
+.
+.
+.
+.
+.
+#theartoftheelegantwoman #elegantwomanstyle #elegance #style #styleinspiration #chanel #classic #classicchanel #cocochanel #femininewoman #femininestyle #highvaluegoddess #goddessenergy #levelup #levelingup #leveluplifestyle #jetset #jetsetbabe #affluentwomen #affluentlifestyle</t>
   </si>
   <si>
     <t>Essentials #chanellove #chanel #chanellover #beautifuldestinations #beautyobsessed #black #cream #beauties #details #rings #beautyritual #minimalism #artbeauty #goldblack</t>
   </si>
   <si>
-    <t>SPRING IN PARIS 
-#ChanelHauteCouture Fall/Winter 2016/17 #CHANEL  #ArcdeTriomphe #ChampsElysees #Paris
-#ArturoElena_files 2016
-.
-.
-#fashionillustration #fashionillustrations #fashionillustrator #fashionsketch #fashionsketches #ArturoElena</t>
-  </si>
-  <si>
-    <t>Io c’ero 😍😝🥳 figa sta cosa 🙋🏼‍♀️.
-.
-.
-veganpowerteam 💚
-.
-runrome_themarathon 
-.
-.
- #intimissimi #intimo #victoriasecrets #ragazza #blondegirl #tattoogirls #tattooideas #instalike #instagram #instagood #instalove #instaphoto #instamoda #makeup #suicidegirlsbr #onlyfansgirl #babe #lifestyle #life #girlsnight #girls #girlpower #modellife #model #dolcegabbana #chanel #photo #massaggiatrice #vegangirl #joma</t>
-  </si>
-  <si>
-    <t>this song destroys me 
-.
-.
-.
-.
-#taylorswift #lanadelrey #gaslight #gatekeep #girlboss #girlblog #90smodels #paris #itgirl #bellahadid #chanel #lipstickstain #whisper #missdior #coffee #lizzygrant #katemoss #dior #messyfrenchgirl #model #lilyrosedepp #coquetteaesthetic #feminine #feminism #versace #dollette #coquette #mentalhealthawareness #femmefatale #discoverunder5k</t>
-  </si>
-  <si>
-    <t>Chanel Caviar Grey Small Le Boy 
-Microchipped
-Condition 9.9/10
-Include Dust bag and Box
-#Chanel #chanelbag #chanelboybag</t>
-  </si>
-  <si>
-    <t>.
-.
-.
-#luxe #luxelife #luxeinyou #love #loveislove #loveinyou #beauty  #2023 #newyear #aesthetic #aesthetics #ae #black #style #stylish #цитаты #цитата #white #chanel #girl #gothgirl #girlpower #hotgirl #model #modellife #gucci</t>
+    <t>NEW ARRIVALS
+- 
+Chanel Vintage WHITE
+Coco Classic Flap 23cm Handbag
+白色金釦 小號CF2.55 23公分 肩背/斜背
+-
+最最最經典23cm 白色金釦CF
+白雪公主CF 好久沒跟大家見面了
+這顆包況美翻，原況算美了
+保存20幾年的白色能這樣這樣很厲害
+大家都知道CF一直都是熱門到不行
+市售行情也已經漲破天際💫
+以後再買絕對不會更便宜啊啊啊
+只會越來越貴🔥
+反正就是很值得投資啦
+——— ——— ——— ——— ———
+詢價一律私訊小盒子我們😬😬👍🏻
+In box for us 📩📩
+🚢Free shipping Worldwide 🌍
+📩DM for more information 📩
+💳Online Payment 💳
+Wechat微信：Jeffrey5168
+官方LINE:boxroom
+——
+Box Room Vintage
+🈺️14:00-20:00
+☎️（02）2568-2536
+📍台北市中山北路二段39巷14號2F
+-
+#chanelvintage 
+#chanelcocoflapbag 
+#chanelvintagecoco 
+#chanelvintageclassic 
+#vintagechanel 
+#chanelbackpack 
+#chanellacrememain 
+#boxroomvintage
+#chanelwallet
+#chanel
+#chanelcoco
+#chanelbiglogo 
+#chanelbeltbag 
+#chanelvintagebeltbag
+#chanelfannypack
+#rarechanel 
+#chanelrare
+#vintagechanelbeltbag 
+#chanelvintagefannypack</t>
+  </si>
+  <si>
+    <t>🤍✨
+#healing #selflove #selfcare #girlboss #lifestyle #fashionblogger #fyp #girlblogger #femmineenergy #lanadelrey #fashionstyle #adrianalima #fashionaddict #confidence #bellahadid #darkfeminine #333 #888 #wizardliz #lanadelrey #moodboard #séduction #femmalefatale #coquettegirl #dior #chanel #explorepage #bellahadid #prada #thatgirlaesthetic #foryoupage #viralpost</t>
+  </si>
+  <si>
+    <t>1,2 or 3? . . .  #paris #parisfrance #tomandjerry #adayinparis #cityoflove #winterfashion #fashionblogger #chanel #loveyourself #lifestyle #travelblogger #travel #travelgram #fashinista #instaphoto #fyp #middleeast #france #green #vacation</t>
+  </si>
+  <si>
+    <t>Congratulations Shani 🐚🤍
+.
+.
+.
+#makeup #love #hairstyles #hairstyle #eyeliner #lifestyle #fashion #modeling #dior #chanel #hermes #lashes #eyelashes #brows #wedding #weddingday #loveislove #houtecouture #diamonds #weddingdress #lace #happiness #mood</t>
+  </si>
+  <si>
+    <t>BOTTLES•AND•BOOTS•UP•🧡🥂👢
+RoundTop, TEXAS never disappoints and my swanky boutiques are no exception!  OhMyGoodness!… always a swanky par-tay!🧡🥂🍾
+:
+It was an early start at my Henkel Square fort with mimosas and shopping and then the fun photo ops came!… OfC!
+:
+And OhMyGoodness the fun ensued at our Rolland Square block party!  Lordy have mercy!  Thank you lesliekristenrttx for ALL of your hard work to make the night SO MUCH FUN!  I love you friend!
+:
+Y’all, THE best part of my job is meeting new people, catching up with my clients and friends, seeing them giddy over their purchases and experiencing magical Round Top, TX together at Spring Show! 
+:
+Thank you to all of my dear clients for supporting my fancy ‘lil biz!  My goodness y’all have exquisite taste!
+:
+We’re back at it at 10am!😅
+:
+modernMARLA Luxe Boutique
+303 South White Street
+&amp;
+186 Henkel Square
+: 
+Y’all come see me and my curated treasure trove and let’s toast 
+MAGICAL RTTX!✨🤩💫
+:
+#roundtoptexas 
+#roundtop 
+#luxury 
+#luxe 
+#boutiqueshopping 
+#luxuryforless 
+#recycledfashion 
+#shoppingexperience 
+#oneofakind 
+#treasurehunt 
+#chanel 
+#louisvuitton 
+#gucci 
+#oscardelarenta 
+#swoon 
+#fancy 
+#texasgirl 
+#workinghard and apparently 
+#playinghard 
+#gratefuleveryday 
+#modernmarla 
+#cheersyall 
+#gratitudeismystyle</t>
+  </si>
+  <si>
+    <t>✨✨✨
+King and Queen
+Please ❤️💬☑️💌
+1⃣0⃣2⃣2⃣
+_________________ 
+#이민호 #leeminho #김고은 #KimGoEun
+#더킹 #TheKingEternalMonarch #더킹영원의 
+#LeeMinHo  #TheKing #JeongTaeEul #pachinko#yummy #mingocouple #yumicells #pachinko #littlewoman #askthestars #mingocouple #mineuncouple #fendi #chanel #chanelfinejewelry</t>
+  </si>
+  <si>
+    <t>Fofura pura ...
+#sabedoria #bomdia #gratidaosempre 
+#instagood #closet #chanel #karl #AS
+#guardaroupainteligente #natureza 
+#fashion #kids #fofurice #style #city 
+#homedecor #humildade #simplicidade 
+#healthylifestyle 🌎🤳🙏🌄🌹😘</t>
+  </si>
+  <si>
+    <t>If you missed today unboxing here it is in a nutshell!! 
+Lots of Eyecandy 
+#lovemylvoe  #fashionablebags #fashionista #fashionable #ootdfashion #fashionnova #ootdstyle #fashionblogger #louisvuittoninternational #chanel #diorrefined #louisvuitton  #virgilabloh #AuthenticLouisVuitton #ForSale #Available #LV#LVBags #LVBagsForSale #AuthenticLV #louisvuittonaddicted  #monogram #damierebene #damierazur #orangeboxes #designer #fashion #luxury #bagaddict #lvaddictedalways</t>
+  </si>
+  <si>
+    <t>Prefer larger wallets? This will be a perfect match if you prefer to go out with only your cards and bills to bring. ✨ 
+〰️ Other designs available on-hand
+〰️ Open for pre - orders
+〰️ Lowest Downpayment 
+〰️ Money back guarantee 
+〰️ Accepts Cash on delivery within Metro Manila
+📌DM us for orders / inquiries! 
+Disclaimer: The Authentique PH is not affiliated with the brands we sell. All trademarks and/or copyrights belong to the respective owners.
+#authentic #authenticity #luxury #luxurylifestyle #luxurybrand #bags #bagsforsale #gucci #bagsforsalemanila #bagsonlineshop #onlineshopbags #louisvuitton #yvessaintlaurent #dior #chanel #luxuryliving #toryburch #marcjacobs #bagsph #bagsofinstagram #collection #luxurycollection #prime #luxurybags</t>
+  </si>
+  <si>
+    <t>24-hour online service</t>
+  </si>
+  <si>
+    <t>Um sábado de sol
+ ☀️ #angra #rj #dior #look #fashion #chanel #thaysantana #fasano</t>
+  </si>
+  <si>
+    <t>臨近春夏，牛仔絕對是時尚中不可或缺的一大元素❤️
+#01Fashion #牛仔手袋 #Chanel #BV #Dior #YSL</t>
+  </si>
+  <si>
+    <t>We are mainly engaged in various brands of shoes, clothes, bags, glasses, etc., top quality of goods, high-quality customer service. We have many years of luxury wholesale and retail experience, we accept PayPal payment, free shipping, if you want to resell or consult the price, please add My contact information +8618950702971</t>
+  </si>
+  <si>
+    <t>Panorama The Woods Collection - erkaklar va ayollar uchun moʻljallangan parfyumdir.
+Yuqori notalari: sitrus va amber;
+O'rta notalari: Greypfrut, yog'ochli notalar va Ambroksan; 
+Asosiy notalari: Ambergris.
+Turlanishi: Parfyum 
+Hajmi: 100 ml
+_____________________
+Panorama The Woods Collection — это аромат для мужчин и женщин. 
+Верхние ноты: Цитрусы и Амбра; 
+Средние ноты: Грейпфрут, Древесные ноты и Ambroxan; Базовые ноты: Серая амбра.
+Классификация: Парфюмированная вода 
+Объем:100мл
+_________________________
+Узбекистан, Коканд, ул Истиклол 27
+Ориентир:  BBQ burger
+Тел+998907590007
+__________________________
+#parfumsdemarly #fragrance #fragrances #perfume #cologne#jomalone#tomford#chanel#woodcollection# #JoeSCENTMe#dear Polly #finefragrance #fragrancereviews #perfumeenthusiast #perfumecollector #perfumecollection #smellgood #scent #aroma #smell #fragrancecounter #shopping #eauparfyum#lanvinenbleu#merryme#lanvin#tous#tousparfum#Jomaloneperfume#jomalonebeuty#</t>
+  </si>
+  <si>
+    <t>This bag was a gift I received
+When I heard the name Chanel, I knew it was a very good product.Thank you to my friend for the gift. Thank you very much dearest friend for choosing the color I like and the design I like .I wish you more success in business. I wish we could work together again. Friends, I will try to do better with you
+#bag 
+#gift 
+#received 
+#chanel 
+#product 
+#friend 
+#friendship 
+#dearest
+#choosing 
+#color 
+#success 
+#business</t>
+  </si>
+  <si>
+    <t>sneakers👟, own factory, export wholesale worldwide🔥, free shipping✈, top quality😊
+Accept face-to-face video to see quality👌
+☎Contact our manager: whatsapp: +8613062299152
+Line: noke9090</t>
+  </si>
+  <si>
+    <t>Hi friend, I'm a wholesaler of bags, clothes, watches, 🎁
+I have high quality goods and high quality services that you need,
+Express: Federal and DHL Express
+Remittance: paypal and Western Union
+The arrival of the goods: ✈ 7-12 days
+Please contact me at 📞WhatsApp+8618059932287</t>
+  </si>
+  <si>
+    <t>Yellow obsession 
+#yellow #mood #chanel</t>
+  </si>
+  <si>
+    <t>Letting the accessories do the talking. 
+toteme Belt
+chanelofficial Slingback Flats
+deandavidson Sol Huggie Hoops 
+#toteme #chanel #luxuryfashion</t>
   </si>
   <si>
     <t>-I have no time. I’m booked all day. I have hair appointment and I’m returning a vibrator.
@@ -162,145 +884,231 @@
 #wallpaper #art #flyart #pinterest #carriebradshaw #samanthajones #sexandcityquotes #sexandcity #fashion #duvarkağıdı #vogue #dior #chanel #charlotte #miranda #followforfollowback #sexandthecityquotes #sexandthecitymemes #mood #quarantine #satc #reklam #reklamver #reklamyayını #advertising #advertisement</t>
   </si>
   <si>
-    <t>Went to buy my hubby a present, left with something for myself too. Typical Mikey. I told my best friend I “just want to look” at the new beautiful light pink chanelofficial has this season. Next thing you know….. I convinced myself to get it because it’s my birthday in a few weeks 🤪. Can you guess which bag I got?! 🥰 #chanel #queerfashion #transisbeautiful #handbagaddict</t>
-  </si>
-  <si>
-    <t>If you want to know the price, add my contact information WHATSAPP+8618950702971, we wholesale and retail all kinds of luxury brands (shoes, clothes, hats, belts, etc.) the lowest wholesale price, the best quality of goods, support free shipping, paypal payment, yes Interest can contact me</t>
+    <t>G-DRAGON x Harper’s Bazaar April Issue ❤️‍🔥❤️‍🔥
+.
+.
+.
+.
+.
+.
+.
+.
+.
+. 
+. 
+. Cr C-Oli (Weibo)
+. 
+.
+🌼 🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼
+#GD #kwonjiyong #jiyong #peaceminusone #bigbang #권지용 #지드래곤 #gdragon #빅뱅 #xxxibgdrgn #chanel #fashionista</t>
+  </si>
+  <si>
+    <t>#리그램 - harpersbazaarkorea 
+#제작비지원 #TheIrreplaceableMan 
+그 어떤 수식어보다 지드래곤(G-DRAGON), 이름만으로도 큰 존재감을 드러내는 그의 진심(盡心)과 오라에 휩싸인 순간. &lt;바자&gt; 4월호를 여는 얼굴은 아티스트 #권지용 입니다.
+샤넬의 글로벌 앰배서더 #GDragon 의 화보와 인터뷰를 담은 풀 스토리는 &lt;바자&gt; 4월호와 웹사이트에서 만나볼 수 있습니다. 
+Chanelofficial xxxibgdrgn
+Editor 서동범
+Photo 김희준 ‧ Heejune KIM
+Stylist 지은
+Hair 김태현
+Makeup 임해경
+Nail 박은경(UNISTELLA)
+Set Design 이나경, 김시천(CALLA7)
+Assistant 신예림
+#Chanel #CHANELSpringSummer #ChanelSS23 #샤넬</t>
+  </si>
+  <si>
+    <t>Less to carry, less to care about! 💖 What is a micro bag for? Let me hear your thoughts 😆💭 
+#microbag #minibag #hermesconstance #chanel #ootdfashion #outfitideas #xiaomapicks #casuallook #casualchic #boots</t>
+  </si>
+  <si>
+    <t>"My parents instilled in me a belief in such things: you have to work hard to achieve what you want in life… This word is a commitment, you have to do what you say and keep your promises." - #MelaniaTrump 🤍</t>
+  </si>
+  <si>
+    <t>In the heat of the moment chanelofficial 
+.
+.
+.
+#chanel #moda #dior #luxury #beauty</t>
+  </si>
+  <si>
+    <t>Currently planning our vacay wardrobe because this cardi belongs C-side 🌊🌴🐬
+⠀⠀⠀⠀⠀⠀⠀⠀⠀</t>
+  </si>
+  <si>
+    <t>Chanel Pre-Spring Summer 2023 23P Ready to Wear Video 6! Try On and Review! Channeling Luxury with ~~Dani B 
+This will be my last video for 23P - a very short impromptu video with just a couple of pieces to finalize my 23P videos! Trying on a black C silk top, and a terrible pair of Bermuda shorts with the sweater so many of you wanted to see. Recorded by my beautiful daughter! :) Looking forward to your comments! 
+#chanel #chanelrtw #chanel23p 
+Watch the video here: 
+https://youtu.be/KwV_XJShsnQ
+Unboxing, reviews of handbags &amp; purses, watches, and ready to wear - Chanel, Hermes, Louis Vuitton, David Yurman, Hublot, Rolex, Patek and more! I will unveil new designs, try on clothes as collections come out and share the ins and outs of bags from a unique perspective - someone without an unlimited budget who really wants to wear their purchases! 
+If you are like most of us and do not have an endless supply of cash to fund your passion, this channel is for you! 
+Subscribe for more Channeling Luxury!</t>
+  </si>
+  <si>
+    <t>The lowest wholesale price, the best quality of goods, support free shipping, Paypal payment, if you want to know the price, add my contact information WHATSAPP+8618950702971, we wholesale and retail all kinds of luxury brands (shoes, clothes, hats, belts, etc.) Yes Interest can contact me</t>
+  </si>
+  <si>
+    <t>White gold love 🤍💎 
+📸 asafetypin 
+#212fairy #share #look #style #ring
+#vca #whitegold #diamonds #vancleef 
+#pretty #jewels #diamondring #cute #it
+#fashionista #chanel #chanelbag #likes
+#chanel20k #chanel23s #chanel23p #c
+#classicchanel #flapbag #white #spring
+#tennisbracelet #luxury #march #cuties</t>
+  </si>
+  <si>
+    <t>Hello friend, we sell shoes, bags, clothes, belts, hats,
+watches and many other products.
+It has the best service and quality.
+Look forward to hearing from 👜👓👞👠WhatsApp8618596966633</t>
+  </si>
+  <si>
+    <t>🔥Calvin Klein shorts 50€
+•Posta falas, porosia vjen per 5-10 dite
+#blerjeonline #blerje #shitjeonline #shitje #marka #shqiperia #produkte #produkteorigjinale #veshje #veshjeorigjinale #clickonuk #tirana #victoriasecrets #northface #meluizin #pinkvictoriasecret #victoriasecretperfume #victoriasecretangel #lingerie #gucci #prada #balenciaga #balmain #versace #dior #chanel #hermes #ugg #followforfollowback #lovemoschino 
+We are not affiliated, associated, authorized, endorsed by, or in any way officially connected with the brands we illustrate, and those listed on our page.</t>
+  </si>
+  <si>
+    <t>Pink sound in dress.thebrand 
+.
+.
+.
+#dressthebrand #pinkoutfit #outfitinspiration #ootd #outfit #outfitinspo #inpiracionlook #gucci #valentino #bag #ganni #miumiu #chanel #fendi #milano #paris #madrid #barcellona #berlino #fashionstyle</t>
+  </si>
+  <si>
+    <t>هاني حطيتولكم منشور كيما قوتولي باه تقدرو تخبيو لي فوطو و تشريو كيما هذو الكؤوس😍❤️
+#goodevening #goodeveningpost #evening #coffee #coffeetime #chanel #chanellover #lovechanel #explore #explorer #explorepage #gym #foodphotography #foodblogger #foodie #foodgram #foodinspiration #instagood #instagram #instagramfood #recipes #قاطو_بريستيج #حلويات #سهيلة_بن_لشهب #اكلات #اكلات_سريعه #حلويات_العيد #الجزائر #جزائرية #اكسبلور_فولو</t>
+  </si>
+  <si>
+    <t>Birthday Brunch temperancesociety 🎈🎂🥞☕️
+I ordered The Parisian - such yummy french toast and beautifully presented 😍🤤 My sweet tooth was definitely satisfied. YASSS!! Can highly recommend! 🍓🥝🍌🥭🍫 Mum had the Craboulade, which is crab cakes w/poached eggs, quite interesting dish 🦀🍳🥦
+This brunch place is less than 5mins from Chaddy, it’s the perfect pit stop before or after shopping 😛 we went to Hermes after and picked up a few things 🍊🍊 swipe to the end to see!
+👉 My Chanel 23S shopping vlog is now up on my YouTube channel! Link in description 🛍💖 ready for my thoughts on the new collection? 🤔
+P.S. did you notice my shoe change? 🤣👠 because I was already way too overdressed for brunch in my Balmain dress &amp; Birkin 25 😅 I was very surprised my SA actually knew the heels are machandmach and he loves them 🤭🎀
+Oh and mum got color transfer on her Mini Evelyn 😅😅 Shouldn’t be surprised given what she was wearing!!! 🤦🏻‍♀️ but luckily it came out super easily. You can check out my shoe care video if you want to know how to remove color transfer like a pro! 🤍
+Happy weekend!! 😘 
+__________________
+#brunching #melbourneeats #melbournefoodie #melbournebrunch 
+#birkin25 #hermeslover #hermesbirkin #balmain #balmaindress #chanelespadrilles #chanelshoes #chanel23s #shoppingaddict #luxuryshopping #chanel #machandmach #hermesevelyne #hermesrodeo</t>
+  </si>
+  <si>
+    <t>Glowing Flowers: Chanel No5 Springs up 🌼🌼🌼 #stilllife #stilllifephotography #productphotography #perfume #scent #fragrance #chanel #chanelno5 chanel.beauty #chanelbeauty #chanelperfume</t>
+  </si>
+  <si>
+    <t>COCO CHANNEL Ballet production — literally when ballet and fashion intertwine 🤌😍 
+I can’t express how much I miss dancing ballet on stage. Thank you so much hongkongballet septimewebre for this production that not only took me back to my ballerina days, but also portrayed how Chanel overcame so many challenges through an artistic, beautiful way. She truly is ✨iconic✨for her determination and her unbeatable style &lt;3
+photo creds: memoriesinmidnights 
+#cocochanel #hongkongballet #hkballet #chanel #fashion #ballet #pointe #xix #caitlinyang #楊秉頤 #XiX #septimewebre #chanelfashion</t>
+  </si>
+  <si>
+    <t>Last night🍹
+Netværks aften🙌🏻
+Selvom det handler lidt om forretningen så var det sjovt😍
+Bowling - 1 sejr til mig ud af de 2 runder🙌🏻
+Mad - 🍔
+Drink - 🍹
+Alt i alt smilet er stort🤩
+Hvad stod din fredag aften på?💗😎
+#friday#weekend#saturday#lovely#networking#follow#followers#rainbow#cute#pic#picoftheday#day#chill#chanel#gucci#style#fashion#selfie#selfiequeen#glam#glitter#energy#kiss#awesome#photography#photooftheday#photo#instagram#fashion#odense#odensecity</t>
+  </si>
+  <si>
+    <t>Look at me on a blue day
+#blueday #chanel #photoshot</t>
+  </si>
+  <si>
+    <t>Spent my Sunday doing some R&amp;R with CHANEL Le Lift 🖤 Swipe to see who else wanted in on the experience</t>
+  </si>
+  <si>
+    <t>📍Ünvan: Əhmədli - Sarayevo küçəsi.28
+📞 Əlaqə nömrəsi: 070-566-60-06
+✅Şifarişlərinizi Direct ve Whatsappdan verə bilərsiz.
+📱Whatsapp nömrəsi 070-566-60-06
+#shopping #shop #boutique #fashionboutique #style #lifestyle #fashion #baku #azerbaijan #photosession #photoshoot #stayhome #delivery #chanel #louisvuitton #style #white #shoes👠 #bag #hermes #pencek #blogger #koynek #yupka #salvar #bakushopping</t>
+  </si>
+  <si>
+    <t>من أروع التحليات لي درتهم لحد الأن😍بطبقة مقرمشة تقرميش و كريمة خفيفة بدون كريمة سائلة❌️الوصفة على قناتنا Samouha mouha😍❤️
+#goodevening #goodeveningpost #evenin
+ #coffee #coffeetime #chanel #chanellover #lovechanel #explore #explorer #explorepage #gym #foodphotography #foodblogger #foodie #foodgram #foodinspiration #instagood #instagram #instagramfood #recipes #قاطو_بريستيج #حلويات #سهيلة_بن_لشهب #اكلات #اكلات_سريعه #حلويات_العيد #الجزائر #جزائرية #اكسبلور</t>
+  </si>
+  <si>
+    <t>#Fendibag#Bag#Guccibag#Chanel#Pradabag#femalebag#streetstyle#Diorbag#Mexico#LosAngeles#lifestyle#Italy#Chanelbag#NewYork#Paris#armani#Clothes#California#LouisVuitton#Australia#USA#Francia#italia#chile#Dior#colombia#gucci#shoes#Fendi#</t>
+  </si>
+  <si>
+    <t>ladygaga as harley quinn during filming of “joker: folie à deux”.
+.
+.
+.
+.
+.
+#ladygaga #stefanigermanotta #harleyquinn #jokerfolieadeux #fashion #womenswear #rtw #runway #movie #film #details</t>
+  </si>
+  <si>
+    <t>#香奈儿#爱马仕#lv #迪奥#古驰#birkin #gucci #hongkong #hermes #kelly #lasvegas #宝格丽#louisvuitton #天津#街拍达人#constance #chanel #留校生高奢侈品#塞琳#巴黎#北京#潮流#卡地亚#铂金包#fendi #恶搞#usa #奢侈品#guccishoes</t>
+  </si>
+  <si>
+    <t>We are a wholesaler, here has the best price, fastest shipping and most professional service, if you are interested in my products, please contact my WhatsApp: +86 15080190129</t>
+  </si>
+  <si>
+    <t>lastest makeup favs
+#makeuplover #makeupproducts #pinkaesthetic #cozyaesthetic #pinterestaesthetic #pinterestinspired #pinterestideas #chanel #chanelmakeup #parisianamour #parisianvibes #thecoldsoul #estbysol #estetvisual #aestbyheart #theglamory #thenoisetier #nooart #llemerci #aesthetics #myaesthetic</t>
+  </si>
+  <si>
+    <t>Hello, Scented Ones!
+— Scents of the Week —
+Be sure to check my Instagram feed each day this week to hear my thoughts on each of my scents of the day this week!
+😊Words of Encouragement😊
+I hope you’re having a great day! Be sure to take a moment today to remember how beautiful you are. Find a mirror and tell yourself that you’re beautiful. I hope it makes you smile. It should, because it’s true! I hope you have an incredible rest of your day!
+Love yourself, love one another, and love how you smell!
+(Pictured fragrances were purchased by me and were not gifted.)
+#fragrances #fragrance #fragrancereview #reviews #selfcare #selfbeauty #encouragement #loveyourself #fraghead #fragranceaddict #fragrancejunkie #fragrancefanatic #mrcologne76 #mrcologne76perfumeblog #fragrancearmy #fragrancelover #collage #fragrancecollection #fragrantica #fragcomm #fragcom #perfume #parfum #calvinklein #christiandior #creedfragrances #dolcegabbana #chanel #aaronterencehughes #antoniopuig</t>
+  </si>
+  <si>
+    <t>Fresh Look , Fresh Frag. 🌞 
+#sotd Chanel Allure Homme
+His allure, or pace, is determined, but lightsome. #chanel
+#fragrancecollections #smellinggood #feelinggood #fragrancelovers #designerfragrances #wearwhatyouwant #beyourself mikeysbarbershopla ✂️</t>
+  </si>
+  <si>
+    <t>Hermes 現貨
+🐎Rodeo小羊皮手工馬兒吊飾
+PM小尺寸，為您的愛包增添一點可愛的元素😍
+馬鞍內部刻印、三拼色，細節精細展現極致的手工品味，送禮自用都很適合，各位養馬人快私訊我們吧🥰
+NTD.18000
+#代購 
+#chanel #chanel代購 #香奈兒 
+#hermes #愛馬仕 #愛馬仕代購 
+#poph #項鍊 #rodeo #hermesrodeo #charm #飾品 #womenstyle 
+#女生穿搭 
+#精品代購 #精品 
+#勞力士 
+#lv代購 #lv #louisvuitton #louisvuittonbag 
+www.ginkgold.app</t>
   </si>
   <si>
     <t>#lv #gucci #YvesSaintLaurent  #Chanel #luxury #luxurybags #shoes #clothes #bag #eyeglasses #Belt #cap #jewellery #Balenciaga #off #table #Men'sshoes #Women</t>
   </si>
   <si>
-    <t>Yay or Nay for this CHANEL? 😘😘 ​
-Double-tap if you love thi❤️‍​
-Rate it 1-10..!! 😍​
--⠀​
-▶ Follow us now for daily trending DIOR!​
-▶ Follow us​
-.​
-.​
-.​
-.​
-.</t>
-  </si>
-  <si>
-    <t>Back in Monaco…und 8 Kilo leichter 😍😍
-Endlich passt auch Chanel wieder 😜
-Bon week end et bisous à tous! 
-#monaco #montecarlo #monacolife #monacolifestyle #monacomoments #montecarlomonaco #monacomedium #frenchriviera #back #classic #style #styleoftheday #elegant #chic #chanel #chanelclassic #chanellover #weekend #happyweekend #blonde #blondehair #slim #fit #spring #eathealthy #luxury #luxurylifestyle #sunny #irawolff #irawolff_official</t>
-  </si>
-  <si>
-    <t>Wholesale (shoes, clothes, hats, belts, etc.) support Paypal/bank transfer, free shipping (FedEx/DHL/China Post) If you want to know the price and quality of the goods, please add my contact information +8618950702971</t>
-  </si>
-  <si>
-    <t>• #ElizabethOlsen at a chanelofficial fashion show during the Paris Fashion Week in France – 24/01/2012
-—
-Lizzie was wearing:
-- {Jacket} a chanelofficial #Chanel SS12 CC Blue Cotton Blend Double Breasted jacket ($3,950 at ebay)
-- {Shoes} the louboutinworld #ChristianLouboutin Figurina Studded Platform ankle boots in Black Suede (were $900 at poshmark)</t>
-  </si>
-  <si>
-    <t>Fashion brand Gucci has announced the opening a new store in New York City. The retail space in the bustling Meatpacking District of Manhattan has been created following green energy principles. 
-The two-level retail space totals more than 9,000 square feet. The Outlet reflects the Italian brand's signature aesthetic, featuring entire collections of men's and women's clothing, accessories, handbags, luggage and a cosmetics line.
-#gucci #fashion #chanel #louisvuitton #dior #prada #nike #style #fendi #balenciaga #versace #lv #adidas #guccibag #hermes #love #luxury #yeezy #like #supreme #guccishoes #jordan #burberry #shoes #newyork #Manhattan #valentino #givenchyl #follow #offwhite</t>
-  </si>
-  <si>
-    <t>Do you like this one? 💖💖‍👉👉i.eva.chanel ​
-Double-tap if you love this! ❤️‍​
-Tag your friends 👇 👇​
--⠀​
-▶ Follow us now for daily trending fashion!​
-▶ Follow us​
-.​
-.​
-.​
-.​
-.</t>
-  </si>
-  <si>
-    <t>Happy FRIDAY Everyone! Xxx</t>
-  </si>
-  <si>
-    <t>so excited for easter &amp; spring! 🐣🌸🌷🍨☀️🎀🧼
-#pinkaesthetic #pink #soft #feminine #femme #couqette #chanel #babydoll #Bambi #girly #gabidemartino #arianagrande #audreyhepburn #makeup</t>
-  </si>
-  <si>
-    <t>Feliz viernes 🤎
-Hoy os dejo otro look con la famosa camisa vaquera de zara. ¿Qué os parece? 🫶🏽
-#capsulewardrobe #armariocapsula #ootd #outfitideas #looks #streetstyle #streetstyleinspo #capsulecloset  #look #instagood #instalook #look #lookdodia #outfits #outfitinspiration #outfitoftheday  #ootd #louisvuitton #outfits #outfitinspiration #outfitoftheday #lookoftheday #looks #lookinspiração  #picoftheday #instagood #lookinspiration #zara #lookdujour #chanel #converse #inspo #inspofashion #inspolook  #gucci  #newbalance990 #newbalance990v5</t>
-  </si>
-  <si>
-    <t>Completed this weeks ago but forgot to post these photos😆
-Chanel inspired, originally Dress Shop 1995
-SOLD
-#pollypocket #pollypockets #vintagepollypockets #pollypocketvintage #toys #handmade #diy #clay #claycraft #makeover #pollypocketclubindonesia #pollypocketindonesia #pollypocketlovers #pollypocketcollectors #bluebirdpollypocket #90s #nostaligia #90stoys #vintage #vintagetoys #diy #handmade #makeover #toys #toy #classic #chanel #fashion #blackandwhite #monochrome</t>
-  </si>
-  <si>
-    <t>Penélope Cruz new muse of the J12 “It’s all about seconds” Chanel campaign.
-#penelopecruz
-#chanel #chanelj12
-#penélopecruz</t>
-  </si>
-  <si>
-    <t>😎😵‍💫😙 #outfitoftheday #ootd zara #style #styleoftheday #springfashion #crochet #femmebot #monochrome #stylediary #fashion #model #coordinate #fitnessgirl #photography #fashioninspo #pretty  #chanel #lookbook #ukinfluencer #mixedgirl #hair #naturalbeauty #boots #Coventry #spring #girlygirl #styleinspo #hypnotic</t>
-  </si>
-  <si>
-    <t>𝓑𝓮𝓵𝓲𝓮𝓿𝓮 𝓲𝓷 𝔂𝓸𝓾𝓻𝓼𝓮𝓵𝓯 𝓪𝓷𝓭 𝓭𝓸𝓷'𝓽 𝓬𝓪𝓻𝓮 𝓪𝓫𝓸𝓾𝓽 𝓱𝓪𝓽𝓮𝓻𝓼✖️———————————————————————— #instamood #motivation #goodvibes #positivevibes #like #happy #chanel #dsquared2 #fashionblogger #style #balenciaga #egypt #instagram #instalike #instamood #neverdone #staystrong #chromehearts #nightvibes #positivevibes #whiteandblack #starbucks #coffee #coffeelover #photooftheday #art #followme #repost #instadaily #selfie #smile</t>
-  </si>
-  <si>
-    <t>〻👧🏻🦄🛍️🎀
-Ｍy loｖes‥🥨
-．
-．
-．
-#myfav
-#maisonmargiela 
-#Aesop
-#SHIRO
-#three 
-#CHANEL</t>
-  </si>
-  <si>
-    <t>Chanel's boxers ain't pulling no punches 🥊💎
-. 
-📸: reginaanikiy</t>
-  </si>
-  <si>
-    <t>#lunch 😋
-#fashion #fashionblogger #fashionista #fashionstyle #fashionable #fashionphotography #fashiongram #fashionnova #fashionlover #fashionpost #fashioninspo #ootd #ootdfashion #outfitoftheday #outfit #outfits #zara #chanel #chihuahua #chihuahualife #dog #チワワ#チワワ大好き #ちわわ #ちわすたぐらむ #ファッション #ファッションコーデ #ザラ#ザラ購入品</t>
-  </si>
-  <si>
-    <t>💖 Customer picture of her gorgeous Paris pillows and her lovely green YSL tote, Message me to order 💖 #Pillows #Twillys #Handbaghook #Handmade #Classy #Oriental #Bees #Florals #Chanel #Gucci #Hermes #Louisvuitton #Mulberry #YSL #Balenciaga #Dior #Givenchy #Prada #Purseaddict #Baglover #Bagaddict #Botd #classyandfabulous #Chanelclassic #Bagoftheday #Chanellover #Chaneladdicted #Neverwithoutmychanel #Woc #Handbag</t>
-  </si>
-  <si>
-    <t>病緊影相真係好呆😶但呢個女人成功影到我小清新系列🫡🫡😳
-Photographer: _lam.lokyin_ 
-ukiyo_hk 
-#ukiyo #hkig #hkgirl #hongkong #hkmodel #yendoll #model #直播主 #hairstyle #haircolor #hairmodel #小清新 #lifestyle #chill #hkcafe #文青cafe #日系餐廳 #木系cafe #尖沙咀美食 #尖沙咀 #tsimshatsui #photography #人像攝影 #photoshooting #fashionstyle #casualstyle #ootd #ootdhk #男友視角  #chanel</t>
-  </si>
-  <si>
-    <t>Le weekend, finallyyy. It’s been such a busy week, I didn’t have time to post my regular outfits</t>
-  </si>
-  <si>
-    <t>The lowest wholesale price, the best quality of goods, support free shipping, Paypal payment, if you want to know the price, add my contact information WHATSAPP+8618950702971, we wholesale and retail all kinds of luxury brands (shoes, clothes, hats, belts, etc.) Yes Interest can contact me</t>
-  </si>
-  <si>
-    <t>🤍✨
-#healing #selflove #selfcare #girlboss #lifestyle #fashionblogger #fyp #girlblogger #femmineenergy #lanadelrey #fashionstyle #adrianalima #fashionaddict #confidence #bellahadid #darkfeminine #333 #888 #wizardliz #lanadelrey #moodboard #séduction #femmalefatale #coquettegirl #dior #chanel #explorepage #bellahadid #prada #thatgirlaesthetic #foryoupage #viralpost</t>
-  </si>
-  <si>
-    <t>Happy Sunday. Sunglasses #gucci Slippers #bottegaveneta Dress made in Senegal 🇸🇳 Handbag #chanel was #neimanmarcus</t>
-  </si>
-  <si>
-    <t>We accept Paypal/Bank transfer/MoneyGram. We have been engaged in retail and wholesale for many years. We have high-quality clothes, shoes, bags, glasses, etc. Support free shipping, (FedEx, DHL, China Post) If you want to buy or consult or resell, please add my whatsapp+8618950702971</t>
-  </si>
-  <si>
-    <t>🌸 x 🌺
-💞💞💞
--
--
--
-#nigo #humanmade #levisvintageclothing #needles #chanel #kenzo</t>
+    <t>🔥 Design art by oxanagoralczyk 
+#fashionart #fashiondesign #artwork #aestheticfashion #aesthetic #vestidonegro #chanel #altamoda #altacostura #hautecouture #pleateddress #avantgarde #victorianfashion #tailoring #sewing #coutureart</t>
+  </si>
+  <si>
+    <t>zara jillstuart.jp ferragamo chanelofficial beams_official 
+#ootd #zara #jillstuart #ferragamo #ferragamobag #ferragamoheadband #chanel #chanelearrings #chanelnecklace #beams 
+cafe_michelangelo #michelangelo 
+#daikanyama ㅤ
+ㅤ
+ㅤ
+#tweedjacket #ツイードジャケット #parisfashion #ジャケットコーデ #デニムコーデ #カチューシャ #zarawoman #zaraoutfit #zarastyle #ジルスチュアート #きれいめカジュアル #大人コーデ #きれいめコーデ #海外ファッション #春コーデ #春服 #ミケランジェロ #代官山カフェ</t>
+  </si>
+  <si>
+    <t>CHANEL Spring-Summer 2023 Ready-to-Wear Campaign - behind the scenes ❤️
+📸:smagazineofficial , hairbyadir 
+"Kristen Stewart is the person who reminds me most of Gabrielle Chanel,” says Virginie Viard, “she is also an actress who is very loyal to CHANEL, she has a very special relationship with the House. When I first met her in 2013, it was instant. I’ve always been fascinated by her face, her attitude… And she understands CHANEL clothing so well.” 
+Authentic connection is important to Virginie Viard and Kristen Stewart’s relationship with the Maison and inspired a fresh interpretation of the classic house references. “Whether it’s her, or the other women I dress, I need to feel that they like the clothes anyway. But, of the people around me, she is the closest to Gabrielle Chanel, at least to my idea of her. She understands CHANEL, its clothes. And with her, it becomes even more modern. This collection, it’s also her,” said Viard.</t>
   </si>
   <si>
     <t>😎
@@ -333,34 +1141,80 @@
 #美しい #小松菜奈</t>
   </si>
   <si>
-    <t>The reason why you should buy me Chanel.
-#chanel #love #lovelife #oldmoney #fiftyshades #tied #ribborn #cocochanel #beauty #sheisbeautysheisgrace #xoxo #gossipgirl #bdsmcommunity #bdsmslave</t>
-  </si>
-  <si>
-    <t>✨✨✨
-King and Queen
-🌼🌼🖤🖤
-Please ❤️💬☑️💌
-_________________ 
-#이민호 #leeminho #김고은 #KimGoEun
-#더킹 #TheKingEternalMonarch #더킹영원의 
-#LeeMinHo  #TheKing #JeongTaeEul #pachinko#yummy #mingocouple #yumicells #pachinko #littlewoman #askthestars #mingocouple #mineuncouple #fendi #chanel #chanelfinejewelry</t>
-  </si>
-  <si>
-    <t>We are a wholesaler, here has the best price, fastest shipping and most professional service, if you are interested in my products, please contact my WhatsApp: +86 15080190129</t>
-  </si>
-  <si>
-    <t>#outfitinspiration #pinterest #look #art #streetstyle #chanel  #y2kstyle #styleinspiration #inspiration #instalike #instafashion #ootd #fashionweek #stylefashion 
-#lookoftheday #pinkoutfit  #y2k #greenoutfit #grey #beachvibes #love_fashion #explorepage #altgirl #aesthetics #virtuals tylist #virtual #photography #vintageclothing</t>
-  </si>
-  <si>
-    <t>Fofura pura ...
-#sabedoria #bomdia #gratidaosempre 
-#instagood #closet #chanel #karl #AS
-#guardaroupainteligente #natureza 
-#fashion #kids #fofurice #style #city 
-#homedecor #humildade #simplicidade 
-#healthylifestyle 🌎🤳🙏🌄🌹😘</t>
+    <t>STILL LIFE EXPLORATION 0004
+#artdirection #stillifephotography #portrait #photography #studiolight #gold #makeup #chanel #chanelmakeup</t>
+  </si>
+  <si>
+    <t>#decisions 🤔#fendi #miumiu #thefrankieshop #chanel #jacquemus  #fashionaddict #ootd #outfit #outfitoftheday #picoftheday #potd #look #lotd #lookoftheday #wuerzburg #vintageclothing #vintagestyle #vintagefashion mainstylevintage #würzburg #love #hettstadt #outfitinspiration #outfitinspo #outfitstyle #style #instagood #happy #fashionblogger</t>
+  </si>
+  <si>
+    <t>I might take break from posting all the negative comments are kinda taking a drag on me 
+-
+-
+-
+-
+-
+-
+-
+#girlblogger #lanadelrey
+#lilyrosedepp #femalefatale #malsdiary #femalemanipulator #whispermeme #coquette #aesthetic #pinterest #malxoo #relatable #dior #softcore #dollette #explore #explorepage #coquetteaesthetic  #coquettegirl #pinterestgirl #chanel #444 #222 #messyfrenchgir #discoverunder100k #discoverunder50k  #coquettecore #oldmoney #girlbloggeraesthetic #coquettedoll</t>
+  </si>
+  <si>
+    <t>makeup = therapy 
+.
+.
+.
+#makeup #makeupoftheday #beauty #charlottetilbury #dior #fentibeauty #rarebeauty #chanel #makeupproducts</t>
+  </si>
+  <si>
+    <t>S U N D A Y  M O O D  mit schönstem couchtisch ✨🐊 
+📷 9er_art 
+#KROKO #couchtable #iconic #shopwellmakeitlast #stayartsy #minimalism #willkommenimclub #artcanbreakyourheart #handmade #madeingermany #smalllabel #chanel #interiorinspo #solebich</t>
+  </si>
+  <si>
+    <t>Ouuu that's me 🙈😝🤭
+Comment your fav</t>
+  </si>
+  <si>
+    <t>Back to black🖤
+•
+•
+•
+#chanel #yslbeauty #darkfeminine #moodyaesthetic #aestheticpage</t>
+  </si>
+  <si>
+    <t>if you love this! ❤️Rate it 1-10..!! 
+• Follow us now for daily trending fashion!
+• Follow us</t>
+  </si>
+  <si>
+    <t>𝐀 𝐍𝐞𝐮𝐭𝐫𝐚𝐥 𝐀𝐫𝐞𝐚 𝐖𝐢𝐭𝐡 𝐂𝐫𝐞𝐦𝐞 𝐒𝐨𝐟𝐚 🤍
+.
+With a fluidity resembling the organic shapes of the finest whipped cream over a hot and delicious latte, the Crème Sofa has a distinctive wavy and continuous design. This sublime piece of upholstery is not only aesthetically pleasing to the eye but also a comfortable and indispensable item to a modern living room. A modern project designed by pascale_hakimeh.
+.
+Download For Free Our Neutral Modern Inspirations Book | Link in bio 🔗
+.
+#CaffeLatteHome #moderndesign #modernrealestate #Insplosion #chanel #cartier #millionairesdesign #germany #berlin #italianfurniture #livingroom #furniture #decoration #luxury #interiordecor #inspiration #furnituredesign #livingroom #livingroomdecor #livingroomdesign #sofa #luxurysofa #neutraldecor #modernhomedecor #interiordecorating #style #instagood #luxurylifestyle #luxuryhomes #pascalehakimeh</t>
+  </si>
+  <si>
+    <t>T-shirts 🛍️ SHOP
+CLICK🛑SHOP - www.QuestionLook.com 🇫🇷
+questionlook</t>
+  </si>
+  <si>
+    <t>Lifetime Magazine is at the WatchesandWonders 2023 event, where top brands are unveiling their latest creations. CHANEL presented a very sci-fi collection, intersecting with the brand’s code elements, in timepieces like the lovely Pique-Aiguille models from the Mademoiselle Privé collection, the Lion Collection, the J12 Interstellar and Cosmic with Super-Luminova dials, the Matrix-style design of J12 Hyper Cybernetic or the exquisite Premiere X-Ray, available in 10 pieces, with an innovative, surprising crystal, gold and diamonds bracelet and a white gold case. 
+Discover them all on LifetimeMagazine.co
+Photographer: Marius Michailov
+Lifetime Magazine is a European watch magazine, with top-quality, innovative content. Find us at press points across Germany, Austria, Switzerland and, in English, globally.
+#watchesandwonders #watchesandwonders2023 #IntheCity2023 #lifetimemagazine #lifetime_magazine #chanel #novelties #geneva #live #news #horologerie</t>
+  </si>
+  <si>
+    <t>true
+FOLLOW relatableshtx FOR MORE CONTENT LIKE THIS. 
+✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧ ✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧
+Pinterest, Pinterest inspiration, food, coquette, coquette aesthetic, aesthetic, cottage core, nature, Chanel, Dior, makeup, coquette, disty, girly, princess, fashion manifest, lifestyle, quotes , luxury lifestyle , dark feminine aesthetic, Paris , New York , spring , fit , ootd
+✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧ ✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧
+ #Girlblogger #lanadelrey #lilyrosedepp #femalefatale #sigmafemale #femalemanipulator #whispermeme #coquette #aesthetic #pinterest #femcel #relatable #dior #softcore #dollette #explore #explorepage #coquetteaesthetic #coquettegirl #pinterestgirl #chanel #blackcoquette #blackgir|magic #messyfrenchgirl #lizzygrant #coquettecore #oldmoney #coquettedoll #lanadelrey #lanadelreyquotes #reels</t>
   </si>
   <si>
     <t>🔗
@@ -370,31 +1224,73 @@
 #aesthetic #aestethically #details #pinterest #pinterestaesthetic #aestethicfeed #styleblogger #vsco #discoverrunder10k #chanel #creater #createrroom #journal</t>
   </si>
   <si>
-    <t>I am a brand wholesaler, DHL and Federal worldwide free shipping, if you need to purchase,
-Please contact me on 📞WhatsApp+8615105927220
-We have many products, such as shoes, bags and clothes🎁
-Paypal remittance is acceptable. You can receive your goods in ✈7-12 days.</t>
-  </si>
-  <si>
-    <t>Happy weekend ✨
-Now that the weather is slowly getting warmer it’s probably time to exchange my Maison Magriela by the fireplace for a lighter perfume. Do you change up your fragrance depending on the season? 
-[Anzeige da Verlinkung]
-#instabeauty #friyayfaves #ysl #saintlaurent #pinterestaesthetic  #oldmoney #tomford #beautyfavorites 
-#beautyobsessed #beautyessentials 
-#maisonmagriela  #pinterestinspired 
-#louisvuitton  #yslbeauty 
-#topshelfbeauty #makeupflatlay  #chanelmakeup  #diorbeauty  #makeupfanatic  #beautyaddicts  #lipsticklover  #ysllipstick  #dailyessentials  #aestheticbeauty #howtobeauty #skincareaddict #chanel #diorbeautylovers  #thatgirlaesthetic</t>
-  </si>
-  <si>
-    <t>Something beautiful 🖤
-#somethingbeautiful #ａｅｓｔｈｅｔｉｃ #postfortheaesthetic #radom #radomianka #warszawa #newbag #lambskin #chanelclassicflapbag #valentinesgifts #pinterestaesthetic #chanelclassicflap #chanel #chanelbag #aesthetically #aestheticposts #dreamspace #beautifulplacestovisit #inspofinds #chanelunboxing #unbox #chanellove #chaneladdict #chanelofficial</t>
-  </si>
-  <si>
-    <t>#lv #gucci #YvesSaintLaurent  #Chanel #luxury #luxurybags #shoes #clothes #bag #eyeglasses #Belt #cap #jewellery #Balenciaga #off #table #Men'sshoes #Women'sshoes #men</t>
-  </si>
-  <si>
-    <t>Forever chanel.beauty ❤️
-thecococraving welovecoco #chanel #gucci #dior #fashion #louisvuitton #chanelbag #hermes #prada #chanelclassic #lv #chanellover #luxury #fendi #style #love #ysl #versace #balenciaga #bag #makeup #chaneladdict #valentino #chanelboy #ootd #chanelvintage #beauty #givenchy #fashionblogger #chanelmini #burberry</t>
+    <t>We wholesale and retail clothes, shoes, bags, etc. Free shipping, (FedEx, DHL, China Post) If you want to buy or consult, please add my whatsapp+8618950702971</t>
+  </si>
+  <si>
+    <t>I still love the gate #5, how about you??? chanelofficial hirshleifers #chanel #chanelshoes</t>
+  </si>
+  <si>
+    <t>Because Wan Chai market is the best; even the stallholder’s checked shorts is a vibe 😀.
+Swipe for more rainy day street scenes #hongkong #wetmarket 
+#visithongkong #asiasworldcity 
+.
+.
+.
+.
+.
+#asianfood 
+#mystyle #chanel #chaneldenim #styleoftheday #currentlywearing #ootd #wiw  #styleinspiration #instastyle #fashiondaily #fashionable #fashiongram #stylegram #fashiondaily #holidaystyle #fashionblogger #instalook #currentlywearing #personalstyle #discoverunder30k #ighk #streetstyleluxe #styleupyourlife</t>
+  </si>
+  <si>
+    <t>👸🏻🌺
+#carolinademonaco #carolinedemonaco #gracekelly #monaco #montecarlo #beautiful #princess #royal #royalty #royalfamily #fashion #style #chanel #baldelarose</t>
+  </si>
+  <si>
+    <t>If you are interested in my products, please add my contact  whatsapp+8618950702971. The best quality, the best service, the lowest price, we wholesale and retail shoes, bags, clothes, glasses, etc.</t>
+  </si>
+  <si>
+    <t>#Pinterest #tiktok #Chanel #paris #France #music #lanadelrey #nyc #Dior #aesthetic #fashion #vintage #2000 #90s #whisper #models #influencers #style  #chic #mentathealthmatters #bellahadid #lilyrosedepp  #Prada #viral #explorepage #2022#classic #pink #girl-boss #music #coquette</t>
+  </si>
+  <si>
+    <t>Black On Yellow🐝🥷🏿 
+126333
+Unworn 2022 Yellow Gold Datejust 41MM With A Black Dial!😍</t>
+  </si>
+  <si>
+    <t>Spring is coming 🌸🌸🌸 #chanel#chanelmakeup#chanelbag#chanelclassic #chaneladdicted #シャネル#シャネルコスメ #シャネル好き #オシャレ#fashion#写真好きな人と繋がりたい chanel_we_love chanelinternational chanellover chanel_community iiheartchanel@chanelfrenchboy@boyswearchanel #chanellover #chanelinternational #iiheartchanel#boychanel#whatsinyourvanity #vanitycase #insidechanel#chanelgabrielle#白#fleurflower#white#beauty#life#写真好きな人と繋がりたい #insposwl#chanelwelove#chanelfrenchboy#chaneljacket</t>
+  </si>
+  <si>
+    <t>Blazer massimodutti 
+Pants &amp; Boots zara 
+Bag coperni 
+Shades averciniofficial 
+#Paris #Parisoutfit #Parisoutfitinspo #minimalisticstyle #oldmoney #parisian #parisstreetstyle #parisstyle #Majeparis #Scandinivian #blond #blondgirl #scandiniviangirl #feathershirt #featheroutfit #blackjacket #chanel #chaneloutfit #Dysonairwrap #fashioninspo #streetstyle #parisianstreetstyle #massimodutti #zara #zarastyle</t>
+  </si>
+  <si>
+    <t>24 hours customer service reply, we wholesale and retail high-quality clothes, shoes, bags, etc. Free shipping, (FedEx, DHL, China Post) If you want to buy or consult or resell, please add my whatsapp+8618950702971 chat</t>
+  </si>
+  <si>
+    <t>i'm a headless heartless creature
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+#blackswan #heroinechic #katemoss #chanel #dior #lilyrosedepp #buffalo66 #bellahadid #coquette #dollette #maneater #itgirl #meganfox #lanadelrey #parishilton #frenchchic #paris #alanachampion #fashionshow #nfr #pfw #whispers</t>
+  </si>
+  <si>
+    <t>We want you to get the bag wherever you are, so we rounded up the most popular designer purses in cities around the world — in case you have travel plans coming up. 👛 Swipe to see our selections, and shop them at our 🔗 in bio.</t>
   </si>
   <si>
     <t>If you want to buy something, my contact information is WhatsApp8613799007557
@@ -404,308 +1300,71 @@
 I am your best choice, I am very happy to do business with you, and look forward to your consultation</t>
   </si>
   <si>
-    <t>🔸Chanel Black cardholder 🔸
-Chanel 黑金 立體愛心 ㄇ型 拉鍊零錢包 AP3294 ➡️100%new
-Please DM me for price$ 📩 價格$請私訊
-Phone : 886 (02) 8771 - 9465 
-Address : 台北市敦化南路一段190巷20號
-#chanel#chanelbag#chanelbags #coincase #chanelcoinpurse #chanelcaviar #chanelboy #chanel2023 #chaneltaiwan  #chanelcoinpurse #chanelcoin #chanelcardholder #botd#fashionblogger #ootd #ootdfashion #名牌包包 #名牌代購 #精品代購 #名品寶庫#香奈兒 #香奈兒代購 #香奈兒零錢包#chanel卡包</t>
-  </si>
-  <si>
-    <t>Hi friend, I'm a wholesaler of bags, clothes, watches, 🎁
-I have high quality goods and high quality services that you need,
-Express: Federal and DHL Express
-Remittance: paypal and Western Union
-The arrival of the goods: ✈ 7-12 days
-Please contact me at 📞WhatsApp+8618059932287</t>
-  </si>
-  <si>
-    <t>春🌸🌸
-#grl #chanel #shein #グレイル</t>
-  </si>
-  <si>
-    <t>EUPHORIA BYS PALETTE 
-✅Eye shadow palette
-✅12 vibrant shades
-✅Ultra blend-able
-✅Includes two applicators and a mirror
-✅DM for details
-.
-.
-.
-.
-.
-.
-.
-#makeupturorial #makeupgoals #makeupidea #makeuplove #glammakeup #mua #makeuppro #makeuptransformation #makeuptime #makeuptutorial #makeuppakistan #makeuplover #buyonline #makeuporiginal #bloggerspakistan #influencerspakistan #mac #twofacedcosmetics #nars #tommyhilfiger #hugoboss #chanel #dior</t>
-  </si>
-  <si>
-    <t>BMW
-.
-Follow thats_my_car_007 
-Follow thats_my_car_007 
-.
-.
-#gucci #fashion #chanel #louisvuitton #dior #prada #nike #style #fendi #balenciaga #versace #lv #adidas #guccibag #hermes #love #luxury #yeezy #like #supreme #guccishoes #jordan #burberry #shoes #ootd #valentino #givenchy #ysl #follow #offwhite</t>
-  </si>
-  <si>
-    <t>“One’s destination is never a place, but a new way to seeing things!” Henry Miller
-.
-.
-La propria destinazione non è mai un luogo ma il modo nuovo di vedere le cose! Henry Miller
-.
-.
-#florence #firenze #event #publitalia80 #mediaset #eventdecor #interior #greatbeauty #rinascimentoitaliano #chanel #chaneljacket #chanelparis #chaneltweed #lifestyle #lifestylesmile #jolandamosca #style #styleinspiration #stregisflorence</t>
-  </si>
-  <si>
-    <t>Side by side skin test.
-Which would you choose? Vote in stories.
-💫 Shalimar Eau de Cologne Guerlain
-💫 Chanel No 5 L'Eau by Chanel
-Shalimar Eau de Cologne was first launched in 1925. Some feel it is too old fashioned, others love it for its classic vintage vibe.
-Top notes are Bergamot, Lemon, Mandarin Orange and Cedar; middle notes are Iris, Vetiver, Patchouli, Jasmine and Rose; base notes are Leather, Vanilla, Incense, Opoponax, Benzoin, Sandalwood, Civet, Peru Balsam and Musk.
-Chanel No 5 L'Eau by Chanel was introduced in 2005. Touted as a more modern, easy to wear version of the original classic. 
-Top notes are Aldehydes, Lemon, Neroli, Mandarin Orange, Orange, Bergamot and Lime; middle notes are Ylang-Ylang, Jasmine and May Rose; base notes are White Musk, Orris Root, Cedar and Vanila.
-What about you. Which would you choose?
-chanelofficial chanel.beauty guerlain 
-#perfume #eaudecologne #fragrance #no5 #chanelno5 #chanel #leau #guerlain #guerlaincollection #shalimar #classic #vintage #vintagestyle #sidebyside #skintest #smellgood #smell #scent</t>
-  </si>
-  <si>
-    <t>manurios for voguehongkong man (april 2023). photographed by javier_biosca and styled by marcforne.
-.
-.
-.
-.
-.
-#voguehongkong #voguehongkongman #manurios #marcforne #javierbiosca #ss23 #fashion #menswear #rtw #runway #magazine #editorial #details</t>
-  </si>
-  <si>
-    <t>It’s all about the internal! 🫶🏻
-Everything starts from within, weather you make it or break it it all comes from what is happening inside. We need to prioritize joy, and true joy comes from the Lord. So what is the answer? 
-Prioritize Him, and all shall follow! 🤍
-fashion #style #love #instagood #like #photography #beautiful #photooftheday #grace #instagram #picoftheday #model #bhfyp #faith #beauty #instadaily #me #likeforlikes #smile #ootd#model#fashionblogger #happy #cute #instalike#chanel#fashionstyle #picoftheday#fashionista</t>
-  </si>
-  <si>
-    <t>Chanel F/W 2018
-#chanel #kaiagerber #birgitkos #graceelizabeth #carataylor #yasminwijnaldum #meghanroche #saradijkink #ineneefs #laurendegraaf #abbychampion #ninamarker #hecong #hoyeonjung #vittoriaceretti #irinadjuranovic #saragracewallerstedt #ratner #olarudnicka #hannahsprehe #kikiwillems #leajulian #lunabijl #yevapodurian #mariamiguel #alinaegorova #krisgrikaite #annaewers #riannevanrompaey</t>
-  </si>
-  <si>
-    <t>Back to school with kristenstewartx #happymonday #inbox #hollywood #bitchplease #actress #chanel #kristenstewart #smoking</t>
-  </si>
-  <si>
-    <t>#DesignerBagRomance
-#tashuren #handtashuren
-#hurenishetnieuwehebben
-#designertashuren #fashiontashuren
-#eveningbag #loveit #luxurydesignerbag #designerhandbaghire #luxuryhandbag
-#BottegaVeneta #Chanel #Chloé
-#Dior #Furla #Giorgioarmani 
-#Louisvuitton  #Prada #Jacquemus
-#Karllagerfeld #Yvessaintlaurent #ysl</t>
-  </si>
-  <si>
-    <t>#MelaniaTrump welcome South Korean President Moon Jae-in to the White House in Washington, DC - April 11, 2019 💖
-Coat: #LouisVuitton - $4,750.00</t>
-  </si>
-  <si>
-    <t>☕️
-#chanel#chanelbag#chanelbeauty#coco#シャネル#シャネルバッグ#moska#アフタヌーンティー#東京カフェ#日本#일본#japan#東京#表参道#tokyo#도쿄#福岡#博多#天神#中洲#후쿠오카#fukuoka#팔로우#팔로우미#좋아요#좋아요반사#맞팔#셀카#followforfollowback#followingnbc10boston</t>
-  </si>
-  <si>
-    <t>Hello friend, we sell shoes, bags, clothes, belts, hats,
-watches and many other products.
-It has the best service and quality.
-Look forward to hearing from 👜👓👞👠WhatsApp8613860942593</t>
-  </si>
-  <si>
-    <t>Nothing but Classic #louisvuitton #vintagestyle #newstyle #guccibag #dior #fendi #chanel #versace 
-Visit us surrealluxuryllc 
-41720 Winchester road Temecula CA 92590</t>
-  </si>
-  <si>
-    <t>Chanel Watches &amp; Wonders 2023 #chanel #watchesandwonders2023</t>
-  </si>
-  <si>
-    <t>MUA: zbeauty.sg
-.
-.
-#esteelauder #chanel #ysl #tartecosmetics #zynnmakeupartist #zbeauty #zbeautysg #muasg #makeupartist #weddingmakeupartist #weddvingwire #greenweddingshoes #theweddingscope #bridemakeup #weddinghairstyling #sgmakeupartist #weddingmakeartist #muasg #sgbrides #sgmua #sgweddings #sgbridalmakeup #singaporebride #singaporebrides #singaporebrideswedding</t>
-  </si>
-  <si>
-    <t>🔥Calvin Klein shorts 50€
-•Posta falas, porosia vjen per 5-10 dite
-#blerjeonline #blerje #shitjeonline #shitje #marka #shqiperia #produkte #produkteorigjinale #veshje #veshjeorigjinale #clickonuk #tirana #victoriasecrets #northface #meluizin #pinkvictoriasecret #victoriasecretperfume #victoriasecretangel #lingerie #gucci #prada #balenciaga #balmain #versace #dior #chanel #hermes #ugg #followforfollowback #lovemoschino 
-We are not affiliated, associated, authorized, endorsed by, or in any way officially connected with the brands we illustrate, and those listed on our page.</t>
-  </si>
-  <si>
-    <t>Kim Cattrall photographed for InStyle Magazine (2005)
-Photo credit : georgeholzofficial</t>
-  </si>
-  <si>
-    <t>If you need my products, please add my whatsapp: +8618950702971 consultation, we accept PayPal and MoneyGram, free shipping worldwide, here are the cheapest prices and best quality</t>
-  </si>
-  <si>
-    <t>🙎‍♂️Gift for him (customizable) 
-📩 DM for orders
-#gift #gifts #lebanon #giftsforhim #lebanongiftshop
-#lebanongifts #customized #customizedgifts #dior #diorsauvage #chanel #giftideas #red #heart #roses</t>
-  </si>
-  <si>
-    <t>Do you want to be treated like royalty? That is certainly doable with this wonderful bedroom by wise_interiors_! This bedroom, which features our Fantasy Air Balloon as the main character and is coordinated with our wonderful pieces, will transport your child to a magical world! ✨
-.
-.
-.
-𝑪𝒍𝒊𝒄𝒌 𝒐𝒏 𝒐𝒖𝒓 𝒃𝒊𝒐 𝒇𝒐𝒓 𝒎𝒐𝒓𝒆 𝒎𝒂𝒈𝒊𝒄𝒂𝒍 𝒊𝒏𝒔𝒑𝒊𝒓𝒂𝒕𝒊𝒐𝒏𝒔 👉 circu_magical_furniture
-.
-.
-.
-#circumagicalfurniture #covethouse #kidsfurniture #girlbedroom #girlsroominspo #kidsdecor #kidsroom #kidsroominspo #kidsinteriors #luxurykids #babygirl #babygirlroom #babyroomdecoration #nurserydecor #kidsbed #pinkdecor #pinkdecoration #luxuryinteriors #luxuryinteriordesign #bedroomdecor #bedroomdesign #dreamhome #girlsroom #girlsbedroomdecor #billionaireshouses #billionairelifestyle #chanel #prada #delhidesigner #delhiinteriors</t>
-  </si>
-  <si>
-    <t>Elle France 2018 par Tiago Banderaa 🥰🥰🥰 Amazing Picture😍
-#vanessaparadis #chanel #france #chanteuse #singer #actress #model #doll #paris 
-#ellefr #magazine #photography #beauty #fashion #style #tiagobanderaa</t>
-  </si>
-  <si>
-    <t>24-hour online service</t>
-  </si>
-  <si>
-    <t>Chanel Beauty x AnOther Magazine Spring/Summer 2023
-Photographed by ChieskaFortuneSmith 
-Styled by MollyShillingford 
-Hair by MariMariLondon 
-Makeup by Siobhan_Furlong 
-Manicure by ChristieHuseyin 
-Casting by MollieDendle 
-#Nails #Manicurist #Manicure #Chanel chanelofficial chanel.beauty #ChanelLeVernis #Chanel967 #ChanelLeVernisWatermelon anothermagazine #AnotherMagazineSS23 #FordModelsParis #ChanelBeauty</t>
-  </si>
-  <si>
-    <t>#whispers #whispermemes #pinterestgirl
-#girlbloggeraesthetic #girlblogger #girlboss #vintage
-#dior #chanel #vogue #90s #styleblogger #fashion
-#fairycore #softcore #cottagecore #rockstargirlfriend
-#alexademie #explorepage #ldr #lilyrosedepp #femmefatale
-#viral #explorepage #explore #bellahadid #lanadelrey
-#lanastan #lanaaesthetic #taylorswift</t>
-  </si>
-  <si>
-    <t>#lovemylvoe #fashionablebags #fashionista #fashionable #ootdfashion #fashionnova #ootdstyle #fashionblogger #louisvuittoninternational #chanel #diorrefined #louisvuitton #virgilabloh #Authentic Louis Vuitton #ForSale #Available #LV#LVBags #LVBagsForSale #AuthenticLV #louisvuittonaddicted #monogram #damierebene #damierazur #orangeboxes #designer #fashion #luxury #bagaddict #lvaddicted always</t>
-  </si>
-  <si>
-    <t>พร้อมส่งคะ  699฿ Skinnydip Case iphone 13pro ลายเจ้าหญิงกีสนีย์ น่ารักมากกก สวยมากๆคะ จากญี่ปุ่น  #rilakkumathailand #sretsis #disneyjapan #stellalouthailand #kittythailand #airpodsthailand #gentlemonsterthailand #unibearsitythailand #barbapapathailand #preorderjapan #chanel #topshop #dollthailand #sbn #cannonthailand #bapethailand #shiseidothailand #starbucksthailand #thaistreetwear #monchhichithailand  #siambrandname #ajoliethailand #dhcthailand #toythailand #japanpreorder #fuchiko #moominthailand #sonnyangel #sonnyangelthailand #rementthailand</t>
-  </si>
-  <si>
-    <t>Make up by Araks #
-#makeup 
-#makeupartist 
-#makeupbyme #makeuparaks #makeupforever #mekupartist #ofracosmetics #chanel #dior #guerlain #loceancosmetics #benefitcosmetics #hudabeauty #klepachpro #nyxcosmetics #makeuptutorial #makeupateler #esteelauder</t>
-  </si>
-  <si>
-    <t>I find myself quite introverted this year, maybe it’s maturity or lack of available time out of work and studying… Anyways I hope it will be different since the summer is around the corner and as it usually happens girls bloom like flowers in the spring 🌷
-.
-.
-#model#fashion#style#toronto#torontomodel#chanel#chanelbeautyambassador#photoshoot#celebration#event#outfit#outfitoftheday#styletip#photoshootideas#hotel#beauty#beautiful#love#power#selflove#inspiration#aesthetics#inspirational</t>
-  </si>
-  <si>
-    <t>Congratulations 🎉👏🏻🎊💯❤️
-Mr. &amp; Ms. Intramurals STI 2023🔥
-1st Runner Up 
-💐 Best In Sporty Casual Wear 
-Ms.Allyssah Bahala💜
-Book me now for your hairstyling and make up needs.I will help you to look the very best version of youself on your most memorable day💯🥰
-💄Hair And Make Up/ Handler By;Keith Marcial
-🏢Studio.by. KeithMarcial
-👩🏻Assisted By;Bhela Cuasay
-#batangasmakeupartist #proffesionalmakeupartist
-#makeupartist #makeupartistph #makeupartistphilippines #makeupideas #skinmakeup #bridalmakeup #prenupmakeup #weddingmakeup #intimatewedding #photoshoot #nomakeup #freshmakeup #glowingmakeup #philippineweddings #weddingphilippines #weddingmakeupph #makeupartistmanila #nomakeuplook
-#tagaytaymakeupartist #highdefinitionmakeup #hdmakeup #HD #airbrushmakeup #dior #chanel #tomford 
-🌈WE OFFER INTIMATE TRADITIONAL AND AIRBRUSH HAIR AND MAKEUP for Bridal, Debut, Prenuptial, Photoshoot, Birthday, Etc.
-💋FOR MAKEUP BOOKINGS AND INQUIRIES KINDLY PM, TEXT OR CALL.
-📞 09159416927 
-☎️ 726 - 9640
-GLORY IS ALL HIS</t>
-  </si>
-  <si>
-    <t>We are a product wholesaler, we sell a lot of products, shoes, bags, clothes and so on, if you are interested in my products, please add my WhatsApp: +8613514055482</t>
-  </si>
-  <si>
-    <t>ขอบคุณของขวัญจากชาแนล #thanks #Chanel #chanalcocomademoiselle</t>
-  </si>
-  <si>
-    <t>Thank you for Looking my Page, we sell a lot of products, shoes, bags, clothes, belts, hats and so on. If you are interested in my products, please add my WhatsApp: +8613514055482, you will be satisfied with the quality of our products</t>
-  </si>
-  <si>
-    <t>I am a wholesaler of brand products, if you need to buy, please contact me WhatsApp8618596966633
-(here the quality is the best, the price is the cheapest),
-I have a lot of products, such as shoes, bags, clothes, belts, watches, etc.
-Please contact my whatsapp, free delivery via DHL, 7-12 days to arrive,
-Thank you for your support.👜👓👞👠.</t>
-  </si>
-  <si>
-    <t>This is a silhouette I am very much looking forward to for spring/summer this year which I wore to dinner the other night: a lace slip (gifted by coutillelingerie) paired with very old ysl pumps and a secondhand chanelofficial leather jacket from webuydesigner from a year ago. 
-Try wearing a cropped leather bomber with a slip dress and some heels as your next dinner look. The lace plus leather will create so much diversity in your wardrobe. 
-#buywellnotoften #slip #ysl #chanel #chanellover #chanelclassic #chanellove #saintlaurent #bomberjacket 
-#fashionstyle #style #fashioninspo #ootd #outfitinspo #styleinspiration #minimalstyle #lotd #momstyle #effortlesschic #styleoftheday #neutralstyle #currentlywearing #ootdmagazine #minimalfashion #wiw #ootdstyle #lawyer #workingmom #momfashion #dailylook</t>
-  </si>
-  <si>
-    <t>Life lately 🫶🏻
-#lifemum #inlove #son #myboy #10monthsold #lifestyle #fashion #chanel #mood #brunette #italian #spring #coffee #fashionbagaddicted #rimini</t>
-  </si>
-  <si>
-    <t>My happy place✨
-An amazing view and the best sea food platters🦪🦀🦞🦐
-#yerseke #dutchcoast #ootd #ootdshare #fashion #fashioninspiration #celine #celinepanier #celinewomen #celinewoman #chanel #chanelsunnies #rosaeparis #rosaegirls #streetstyle #parisianstyle #minimalstyle #lookdujour #tenuedujour #outfitdujour #celineaddict</t>
+    <t>𝓜𝔂 𝓶𝓸𝓼𝓽 𝓮𝔁𝓹𝓮𝓷𝓼𝓲𝓿𝓮 𝓬𝓱𝓪𝓷𝓮𝓵 𝓶𝓪𝓴𝓮𝓾𝓹 💄
+~934 €
+#chanel #chanelbeauty #beautytesting #highendmakeup #beautyaddict #makeuponfleek</t>
+  </si>
+  <si>
+    <t>昨日の雨の日コーデ☔️
+デニムが使いやすくて白も追加しちゃった🐻‍❄️🤍
+Jacket/blouse _bluelea_ 
+pants maisonmargiela 
+bag chanel
+shoes gianvitorossi</t>
+  </si>
+  <si>
+    <t>If you want to know the price, add my contact information WHATSAPP+8618950702971, we wholesale and retail all kinds of luxury brands (shoes, clothes, hats, belts, etc.) the lowest wholesale price, the best quality of goods, support free shipping, paypal payment, yes Interest can contact me</t>
+  </si>
+  <si>
+    <t>¿MORTALIDADE?
+#SLOWLIVING #AFRIQUEDUSUD #LUJO #GUCCI #CHANEL #FOTOGRAFIA #ART #DISENOGRAFICO #AFRICANA #PHOTOGRAPHY #INSTAGRAM #SLOWLIFE #DESIGN #GRAPHICDESIGN #CREATIVE #ARTISTIC #FILM #BLACK #BLACKANDWHITE #GALLERY #LIFE #CONTEMPORARY #CAPETOWN #BLOEMFONTEIN #SOUTHAFRICA #JOHANNESBURG #DURBAN #PRETORIA</t>
+  </si>
+  <si>
+    <t>All hail the “Renaissance”, by SzilveszterMako for Numéro! TaraHalliwell is styled by LisaJarvis_Stylist in DelCoreOfficial (picture 1), AlexanderMcQueen (picture 2), ChanelOfficial and MaisonMargiela (picture 3) and Moschino (picture 4). 
+Hair: MassimoDiStefanoHair
+Make-Up: Vanessa.Icareg
+Set Design: Edith.DiMonda
+Photography Assistant: GianlucaMalavolta
+Fashion Assistant: Vania.Monteiro
+Full story in Numéro 237, available on newsstands. Link in bio to get your digital copy. 
+#TaraHalliwell #SzilveszterMako #LisaJarvis #DelCore #AlexanderMcQueen #Chanel #MaisonMargiela #Moschino</t>
+  </si>
+  <si>
+    <t>#lv #gucci #YvesSaintLaurent  #Chanel #luxury #luxurybags #shoes #clothes #bag #eyeglasses #Belt #cap #jewellery #Balenciaga #off #table #Men'sshoes #Women'sshoes #men</t>
+  </si>
+  <si>
+    <t>If you want to buy something, my contact information is WhatsApp8615860017277
+please contact me. We retail and wholesale all kinds of luxury brands,
+clothes, glasses, belts, bags, etc. 100% integrity management,
+free delivery of goods to all over the world, PayPal secure transaction,
+I am your best choice, I am very happy to do business with you, and look forward to your consultation</t>
+  </si>
+  <si>
+    <t>like russian girl 💕_binema
+#russian #russiangirlmodel #russianmakeup #sephora #sephora #dior #diormakeup #diorproducts #chanel #chanelmakeup #toofaced #mac #maccosmetics #maclipstick #nars #narscosmetics #narsfoundation #anastasiabeverlyhills #abh #inglot #inglotcosmetics #lip #lipgloss #charlotetilbury #blush #highlifter #beccacosmetics #fentybeauty</t>
+  </si>
+  <si>
+    <t>I am a wholesaler of brand products, if you need to buy, please add my whatsapp+8618100591850 (the best quality here, the cheapest price) consultation, I have many products, such as bags, shoes, clothes, belts , Watches, etc., please contact my whatsapp, we accept PayPal and Western Union payment, free shipping via DHL, 7-12 days to arrive, thank you for your support</t>
+  </si>
+  <si>
+    <t>Happy birthday to my Baby
+2years old 小黃baby 
+Love ❤️ you
+#2023 #tbt #selfie #like4likes #ootd #photooftheday #swag #wcw #followforfollowback #love #me #follow #tagforlikes #instagram #instagood #art #trivalley #girl #photo #photography #chanel #artist #cool #foddie #cat #catlover #garfield #加菲貓 #miumiu#yellowcat</t>
+  </si>
+  <si>
+    <t>The reason why you should buy me Chanel.
+#chanel #love #lovelife #oldmoney #fiftyshades #tied #ribborn #cocochanel #beauty #sheisbeautysheisgrace #xoxo #gossipgirl #bdsmcommunity #bdsmslave</t>
   </si>
   <si>
     <t>I look so good in Red 🥰 these photos need no further edits ✨ loves it! kyliemeowofficial #kyliemeow</t>
   </si>
   <si>
-    <t>⚠️聲明：aleksandr668855跟任何品牌無關，而且沒有持有圖中任何版權。所有商標及版權均屬於圖中品牌商標持有人，此貼只做分享用途
-⚠️Disclaimer: aleksandr668855 has nothing to do with any brand and does not hold any copyright in the picture. All trademarks and copyrights belong to the brand trademark holder in the picture. This post is for sharing only.</t>
-  </si>
-  <si>
-    <t>Hello friend, there are many products you need🎁
-High-end quality, global DHL federal free shipping
-Paypal remittance is acceptable
-Fast delivery after payment, ✈7-12 days arrival
-Welcome your consultation.  My contact information is 📞WhatsApp+8615860017277</t>
-  </si>
-  <si>
-    <t>natalia via Instagram 
-Wearing fashionnova Zip City Long Sleeve Top priced at $18 USD
-yankees cap priced at $35 USD
-chanelofficial hand bag priced at $5,600 USD (Retail price) 
-#nataliabarulich #nataliaoutfits #fashionova #yankees #chanel</t>
-  </si>
-  <si>
-    <t>Your best supplier! Dropshipping around the world. Add my whatsapp: +44 7763485501. We have all the products you want. Looking forward to working with you.</t>
-  </si>
-  <si>
-    <t>Looking in the mirror, the reflection that I see is the beauty in my mind, not the beauty outside of me farfetch 
-.
-.
-.
-.
-.
-#laquasmith #vogue #ysl #chanel #farfetch</t>
-  </si>
-  <si>
-    <t>Estou numa vibe em que só vivia dentro de fatos! Acho que são looks imprescindíveis no nosso armário e versáteis!🖤
-Suit e.g.o_store 
-#outfit #outfitinspiration #outfitoftheday #instafashion #instadaily #inspiration #fashionblogger #fashionstyle #fashionstyle #suitstyle #suit #look #blacklove #foxy #makeup #chanel #strass #elegance #lux #goals #gooutside #shopping</t>
-  </si>
-  <si>
-    <t>We have a professional customer service team, high-quality pre-sales/after-sales services, we wholesale and retail various brands of clothes, shoes, bags, etc., we accept PayPal/bank transfer, if you want to buy or resell or want to know the price, you can Add my WHATSAPP
-+8618950702971</t>
-  </si>
-  <si>
-    <t>#香奈儿 #爱马仕 #lv #birkin #gucci #hermes #kelly #lasvegas #louisvuitton #迪奥 #constance #chanel #巴黎 #宝格丽 #fashion #卡地亞 #铂金包 #fendi #天津 #usa #周杰倫 #北京 #guccishoes #劳力士 #vegas #伦敦 #lvshoes #深圳 #supreme #卡地亚</t>
-  </si>
-  <si>
-    <t>Hello dear, we are a professional product wholesaler, if you are interested in our products, please add my WhatsApp: +8613514055482, shipping to the world</t>
-  </si>
-  <si>
-    <t>We are mainly engaged in various brands of shoes, clothes, bags, glasses, etc., top quality of goods, high-quality customer service. We have many years of luxury wholesale and retail experience, we accept PayPal payment, free shipping, if you want to resell or consult the price, please add My contact information +8618950702971</t>
+    <t>Allure Homme Sport Eau Extreme is a flanker of the original Allure Homme Sport fragrance, and it is a more intense and powerful version of the 2004 release. While the original Allure Homme Sport is a fresh and sporty fragrance with citrus and aquatic notes, Allure Homme Sport Eau Extreme has a more complex and sophisticated composition, making it less of a summer office scent and, for me, more appropriate for the Spring.
+The opening of Allure Homme Sport Eau Extreme is a burst of fresh and zesty notes, absolutely reminiscent of AHS. The heart is where I think this diverges, adding more tonka and more woody notes. 
+Compared to the original Allure Homme Sport, Allure Homme Sport Eau Extreme is richer, more complex, and has a longer-lasting projection (although it’s not what I’d call a beast). The original Allure Homme Sport is more suitable for casual and daytime wear, while Allure Homme Sport Eau Extreme is better suited for formal and evening occasions.
+Overall, Allure Homme Sport Eau Extreme is a hall of famer a decade later. Always in my rotation in the Spring!
+#perfume #perfumes #perfumecollection #frag #fragrance #fragcomm #fraghead #fragrances #fragancias #fragfam #lux #luxe #parfum #perfumecollection #perfumelovers #scent #perfumeaddict #scentoftheday #perfumelover #eaudeparfum #fragrancelover #parfume #perfumeshop #fragrancecollection #perfumery #sotd #chanel</t>
   </si>
   <si>
     <t>tontawan so expensive rich girl 😍❤‍🔥
@@ -734,7 +1393,99 @@
 #tontawan #tontawantantivejakul #tontawan_t #ต้นตะวัน #ต้นตะวันต้นติเวชกุล #tutontawantantivejakul #intuyou #babymonster  #primchanikarn #newjeans #freenbecky #newjeans #primiily #dew_jsu  #dewjirawat #instadaily #dewjirawatsutivanisak #bbrightvc #brightvachirawit #winmetawin  #jennaortega #winmetawinopasiamkajorn  #fyp #trendpost #likeforlikes #likeforfollow #thailand🇹🇭 #followforfollowback #fashion</t>
   </si>
   <si>
-    <t>#香奈儿#爱马仕#lv #迪奥#古驰#birkin #gucci #hongkong #hermes #kelly #lasvegas #宝格丽#louisvuitton #天津#街拍达人#constance #chanel #留校生高奢侈品#塞琳#巴黎#北京#潮流#卡地亚#铂金包#fendi #恶搞#usa #奢侈品#guccishoes</t>
+    <t>⚪️⚪️⚪️🔘🔘
+#chanel #vintagechanel #chanelearrings #vintageearrings #vintageboutique</t>
+  </si>
+  <si>
+    <t>We have a professional customer service team, high-quality pre-sales/after-sales services, we wholesale and retail various brands of clothes, shoes, bags, etc., we accept PayPal/bank transfer, if you want to buy or resell or want to know the price, you can Add my WHATSAPP
++8618950702971</t>
+  </si>
+  <si>
+    <t>새로운 각도를 찾아봤어요 !! 🤭🐶
+어때요ㅎㅎ? 평소대로 찍을까요😆?
+#MINJI #민지 #NEWJEANS
+——
+[230323] NewJeans Twt
+——
+#OMG #Ditto #HypeBoy #Attention #Cookie #Hurt
+#Hanni #Haerin #Hyein #DanielleMarsh 
+#Bunnies #Tokki #pouting #wink 
+#bbangsaz #catnipz 
+#NEWJEANS #newjeansminji
+#adornewjeans #뉴진스 
+#chanel #chanelbeauty 
+#kpop</t>
+  </si>
+  <si>
+    <t>Happiest birthday lisayaaaa! 🥳 we love you so much keep shining✨may God bless you with lots of love and success and with good health 💗 you are the best maknae 😭 and love of everyone🫂 . 
+Have a nice day everyone ~ cuties 💗
+➖➖➖
+follow jenhanya ♡
+©︎ to owner 
+➖➖➖
+ #JENNIE #블랙핑크 #제니 #BLACKPINK #YG #jenniekim #lisa #jisoo #rosé #지수 #로제 #리사 #샤넬 #chanel #jenniexchanel  #jennie #blackpink #jennierubyjane  #jenchulichaeng #jennieblackpink #kimjisoo  #lalisamanoban #lisablackpink #parkchaeyoung  #blinks #kpop #jensoo #jenlisa #chaelisa  #chaennie</t>
+  </si>
+  <si>
+    <t>We are engaged in the wholesale and retail of all kinds of luxury brands (clothes, shoes, bags, glasses, belts, etc.) all-day customer service online, top quality goods, free shipping/Paypal collection (FedEx/DHL/China Post) If you are interested in products or want To understand the price, please add my contact information WHATSAPP+8618950702971</t>
+  </si>
+  <si>
+    <t>Hello dear, we are a professional product wholesaler, if you are interested in our products, please add my WhatsApp: +8613514055482, shipping to the world</t>
+  </si>
+  <si>
+    <t>Hello friend, there are many products you need🎁
+High-end quality, global DHL federal free shipping
+Paypal remittance is acceptable
+Fast delivery after payment, ✈7-12 days arrival
+Welcome your consultation.  My contact information is 📞WhatsApp+8613860942593</t>
+  </si>
+  <si>
+    <t>All black 🖤
+#streetstyleparis #ilovestreetstyle #trendingstyle #loverforfashion #fashionposts #fashiongoals #getstyled #daylook #looksgood #parisstreetstyle #stylishlook #americanstyle #fashionistastyle #fashionnow #ootdguide #stylegoals #dailyfashionupdate #hmxme #ootdmagazine #whowhatwear #dailylooks #focusathletixx #yeshm #chanel</t>
+  </si>
+  <si>
+    <t>Hello, I'm wholesaler of bags, shoes, purses, watches, clothes, 🎁
+Delivery time ✈ 7-12 days
+Express: Federal, DHL,UPS
+Support Western Union, paypal payments
+📞 WhatsApp+8618059932287</t>
+  </si>
+  <si>
+    <t>#DesignerBagRomance
+#tashuren #handtashuren
+#hurenishetnieuwehebben
+#designertashuren #fashiontashuren
+#eveningbag #loveit #luxurydesignerbag #designerhandbaghire #luxuryhandbag
+#BottegaVeneta #Chanel #Chloé
+#Dior #Furla #Giorgioarmani 
+#Louisvuitton  #Prada #Jacquemus
+#Karllagerfeld #Yvessaintlaurent #ysl</t>
+  </si>
+  <si>
+    <t>I am a brand wholesaler, DHL and Federal worldwide free shipping, if you need to purchase,
+Please contact me on 📞WhatsApp+8615105927220
+We have many products, such as shoes, bags and clothes🎁
+Paypal remittance is acceptable. You can receive your goods in ✈7-12 days.</t>
+  </si>
+  <si>
+    <t>#香奈儿 #爱马仕 #lv #birkin #gucci #hermes #kelly #lasvegas #louisvuitton #迪奥 #constance #chanel #巴黎 #宝格丽 #fashion #卡地亞 #铂金包 #fendi #天津 #usa #周杰倫 #北京 #guccishoes #劳力士 #vegas #伦敦 #lvshoes #深圳 #supreme #卡地亚</t>
+  </si>
+  <si>
+    <t>#chanel #chanelarchive #2008 #chaneldress #hautecouture #karllagerfeld #umathurman #2011 #amfar #amfarcannes #chanelontheredcarpet #redcarpetlook</t>
+  </si>
+  <si>
+    <t>Hello, what are you doing today ? Tell me ! Enjoy your life ❤️ . .
+.
+.
+.
+.
+.
+ #chanel by #catherinebparis 
+.
+.
+.  #chanelbag #chanelclassic #chanelvintage #chanellove #chanelbeauty #chaneladdict #chanelcollection #chaneltimeless #saintgermaindespres #pictureoftheday #saturday #placevendome</t>
+  </si>
+  <si>
+    <t>Ellas, siempre…🌸🍀❤️ #DayOff #DiaDePlaya #DoggieMom #Mora #Chanel #Summer2023</t>
   </si>
 </sst>
 </file>
@@ -768,9 +1519,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -991,7 +1745,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="269.38"/>
+    <col customWidth="1" min="2" max="2" width="266.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1010,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1043,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -1076,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1098,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -1131,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1139,7 +1893,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>0.0</v>
@@ -1150,10 +1904,10 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -1161,10 +1915,10 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -1172,7 +1926,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>0.0</v>
@@ -1183,7 +1937,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>1.0</v>
@@ -1194,7 +1948,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
@@ -1205,10 +1959,10 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -1216,7 +1970,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>1.0</v>
@@ -1227,10 +1981,10 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1252,7 +2006,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1285,7 +2039,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1362,7 +2116,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -1370,7 +2124,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
         <v>1.0</v>
@@ -1381,10 +2135,10 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1392,7 +2146,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
         <v>1.0</v>
@@ -1403,7 +2157,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
         <v>1.0</v>
@@ -1414,10 +2168,10 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -1425,7 +2179,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
         <v>1.0</v>
@@ -1436,7 +2190,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
         <v>1.0</v>
@@ -1447,10 +2201,10 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -1458,7 +2212,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
         <v>1.0</v>
@@ -1469,10 +2223,10 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C44" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -1538,7 +2292,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -1571,7 +2325,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -1648,7 +2402,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -1656,10 +2410,10 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C61" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
@@ -1667,10 +2421,10 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -1678,7 +2432,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1">
         <v>1.0</v>
@@ -1692,7 +2446,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -1725,7 +2479,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -1777,7 +2531,7 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1">
         <v>1.0</v>
@@ -1788,10 +2542,10 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -1799,7 +2553,7 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1">
         <v>1.0</v>
@@ -1810,7 +2564,7 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1">
         <v>1.0</v>
@@ -1821,10 +2575,10 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C76" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -1832,7 +2586,7 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1">
         <v>1.0</v>
@@ -1843,7 +2597,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C78" s="1">
         <v>1.0</v>
@@ -1854,7 +2608,7 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C79" s="1">
         <v>1.0</v>
@@ -1865,7 +2619,7 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1">
         <v>1.0</v>
@@ -1876,7 +2630,7 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1">
         <v>1.0</v>
@@ -1887,10 +2641,10 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -1898,10 +2652,10 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -1909,7 +2663,7 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C84" s="1">
         <v>1.0</v>
@@ -1920,10 +2674,10 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C85" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
@@ -1931,7 +2685,7 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C86" s="1">
         <v>1.0</v>
@@ -1942,7 +2696,7 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C87" s="1">
         <v>1.0</v>
@@ -1953,7 +2707,7 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C88" s="1">
         <v>1.0</v>
@@ -1964,10 +2718,10 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C89" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +2729,7 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C90" s="1">
         <v>1.0</v>
@@ -1986,7 +2740,7 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1">
         <v>1.0</v>
@@ -1997,7 +2751,7 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C92" s="1">
         <v>1.0</v>
@@ -2008,7 +2762,7 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1">
         <v>1.0</v>
@@ -2019,7 +2773,7 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C94" s="1">
         <v>1.0</v>
@@ -2030,7 +2784,7 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>1.0</v>
@@ -2041,7 +2795,7 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1">
         <v>1.0</v>
@@ -2052,7 +2806,7 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C97" s="1">
         <v>1.0</v>
@@ -2063,7 +2817,7 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C98" s="1">
         <v>1.0</v>
@@ -2074,7 +2828,7 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C99" s="1">
         <v>1.0</v>
@@ -2085,7 +2839,7 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C100" s="1">
         <v>1.0</v>
@@ -2096,10 +2850,10 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C101" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="102">
@@ -2107,7 +2861,7 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C102" s="1">
         <v>1.0</v>
@@ -2118,7 +2872,7 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C103" s="1">
         <v>1.0</v>
@@ -2129,7 +2883,7 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C104" s="1">
         <v>1.0</v>
@@ -2140,10 +2894,10 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C105" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
@@ -2151,10 +2905,10 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C106" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
@@ -2162,10 +2916,10 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C107" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="108">
@@ -2173,7 +2927,7 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C108" s="1">
         <v>1.0</v>
@@ -2184,7 +2938,7 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C109" s="1">
         <v>1.0</v>
@@ -2195,7 +2949,7 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C110" s="1">
         <v>0.0</v>
@@ -2206,7 +2960,7 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C111" s="1">
         <v>1.0</v>
@@ -2217,7 +2971,7 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
@@ -2228,7 +2982,7 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C113" s="1">
         <v>1.0</v>
@@ -2239,10 +2993,10 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C114" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
@@ -2250,10 +3004,10 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C115" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
@@ -2261,10 +3015,10 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C116" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -2272,10 +3026,10 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C117" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
@@ -2283,7 +3037,7 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C118" s="1">
         <v>1.0</v>
@@ -2294,7 +3048,7 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C119" s="1">
         <v>1.0</v>
@@ -2305,7 +3059,7 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C120" s="1">
         <v>1.0</v>
@@ -2316,7 +3070,7 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C121" s="1">
         <v>1.0</v>
@@ -2327,7 +3081,7 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C122" s="1">
         <v>1.0</v>
@@ -2338,9 +3092,944 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C123" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>137.0</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>142.0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>144.0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>146.0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1">
+        <v>148.0</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1">
+        <v>149.0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1">
+        <v>152.0</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1">
+        <v>153.0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1">
+        <v>154.0</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1">
+        <v>156.0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1">
+        <v>158.0</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1">
+        <v>159.0</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1">
+        <v>161.0</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1">
+        <v>162.0</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1">
+        <v>163.0</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1">
+        <v>164.0</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1">
+        <v>166.0</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1">
+        <v>168.0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>169.0</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1">
+        <v>170.0</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1">
+        <v>172.0</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1">
+        <v>173.0</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1">
+        <v>176.0</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1">
+        <v>177.0</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1">
+        <v>178.0</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1">
+        <v>179.0</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1">
+        <v>181.0</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1">
+        <v>182.0</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1">
+        <v>183.0</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1">
+        <v>184.0</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1">
+        <v>185.0</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1">
+        <v>186.0</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C188" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1">
+        <v>187.0</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1">
+        <v>188.0</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1">
+        <v>189.0</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1">
+        <v>191.0</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>192.0</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>193.0</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>194.0</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>195.0</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>196.0</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>197.0</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>198.0</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>199.0</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>201.0</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>202.0</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C204" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>203.0</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>205.0</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>206.0</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C208" s="1">
         <v>1.0</v>
       </c>
     </row>

--- a/DATA/chanel_junk_valid_new.xlsx
+++ b/DATA/chanel_junk_valid_new.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="386">
   <si>
     <t>text</t>
   </si>
@@ -19,1358 +19,533 @@
     <t>is_junk</t>
   </si>
   <si>
-    <t>The camelia - a long time symbol of Chanel and favorite flower of Gabrielle Chanel herself. 
-Find this stunning Chanel WOC adorned with camelias at Rouge now 🖤
-.
-.
-.
-#Rouge #palmademallorca #mallorca #majorca #majorque #majorka #spain #baleares #islasbaleares #ibiza #luxury #luxuryshopping #luxuryhandbags #luxuryfashion #investmentbag #classy #switzerland #luxembourg #sweden #germany #london #nederlands #benelux #chanel #chanelwoc #camelia</t>
-  </si>
-  <si>
-    <t>Wknds are my happy place 🤍 even if they do include multiple toddler tantrums 🫠
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-#fashion #photooftheday #potd #fashionblogger #ootd #fblogger #styleinspiration #beautiful #love #outfitoftheday #interiordesign #photooftheday #outfitideas #london #blogger #trend #interiorinspo #zaraoutfit #styleblogger #style #like4like #londonlife #baby #londonstreetstyle #mummybloggeruk #londonlife #byrotationofficial #happy #byrotation #chanel</t>
-  </si>
-  <si>
-    <t>Used Card holder XL 24999.-
-Line: 244xfzmn</t>
-  </si>
-  <si>
-    <t>My love for a chanelofficial classic flap 😌| #chanelbags #luxuryhandbags #whattobuy #handbagcollection #chanel #fashionbloggeruk #inspirational</t>
-  </si>
-  <si>
-    <t>HAPPY BIRTHDAY KING KUMA
-JENNIE #SOLO STAGE
-#YouandMe #iloveyouandme #Jennierubyjane 
-#JENNIE #BornPinkJENNIE #JENNIEKIM #제니 #JENNIESOLO #Solo #Chanel #Tamburins #Hera #FirstSoju #Soonhari #JentleGarden #JentleHome #Chumchurum #GentleMonster #rapperjennie</t>
-  </si>
-  <si>
-    <t>𝘾𝙝𝙖𝙣𝙚𝙡 𝙚𝙖𝙧𝙧𝙞𝙣𝙜𝙨 
-❤️100% real shots from the manufacturer or shopkeeper｜👜Luxury Fullset Free Shipping
-❤️Have its own factory advanced custom production line
-❤️Welcome to map quotation inquiry｜All styles are in stock
-❤️No bargaining, no refunds, no closer to perfection! Welcome anytime 📱DM
-❤️WeChat: YJVTG1
-❤️WhatsApp: +852 51340060
-Disclaimer:yjacc4 has nothing to do with any brand, and does not hold any copyright in the pictures. All trademarks and copyrights belong to the brand trademark holders in the picture, this post is only for sharing.</t>
-  </si>
-  <si>
-    <t>Just in. The perfect daily and travel tote 😍this is going everywhere with me.</t>
-  </si>
-  <si>
-    <t>𝐌𝐨𝐧𝐝𝐚𝐲 𝐛𝐞 𝐤𝐢𝐧𝐝 𝐭𝐨 𝐮𝐬🖤✨
+    <t>Went to see sweeneytoddbway with joshgroban. It definitely surpassed my expectations! Dinner at lamasserianyc was amazing, we had the Chardonnay, burrata, short rib Ragu, and sea bream. I haven’t had seabream since the last time we went to the elaphiti_islands off the coast of experiencedubrovnik. Gelato was so cute as it was made in the shape of a rose. 
+I wore a bodysuit from express, split hem pants from aritzia, shoes from goodamerican, belt from chanelofficial, bag from celine</t>
+  </si>
+  <si>
+    <t>Citty strolling 💫📷</t>
+  </si>
+  <si>
+    <t>Chanel blue sandals for the summer💙</t>
+  </si>
+  <si>
+    <t>S O P H I E  L E  G E N D R E
+Photography sophie_le_gendre
+chanelofficial</t>
+  </si>
+  <si>
+    <t>She judges it fr</t>
+  </si>
+  <si>
+    <t>Get summer ready with us! Shop with us at CHANEL SS23 🖤
+📲 Contact us directly to secure via WhatsApp and telegram +372 5982 1592</t>
+  </si>
+  <si>
+    <t>PRADA Logo Moccasins Size 36 available in our shop!Link in bio
+📸 lottavolkova 
+.
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>got the iconic  fall 1993 dress, originally worn by  remade for the after party of her  💍</t>
+  </si>
+  <si>
+    <t>drinking champagne made of an angels tears and pain, now I feel celestial</t>
+  </si>
+  <si>
+    <t>Us forever sister 👯‍♀️ Rolls Royce Ghost 🤍</t>
+  </si>
+  <si>
+    <t>Candy you can wear 🍭⁠
+⁠</t>
+  </si>
+  <si>
+    <t>Just a chanel.beauty lover over here 🥚
+———
+{chanel cleanser. chanel hand cream. egg cream. coco chanel. face cleanser. chanel la crème main texture riche. chanel la mousse crème nettoyante anti-pollution cleansing cream to foam}</t>
+  </si>
+  <si>
+    <t>TRENDY EYE&amp;LİP COMBOS</t>
+  </si>
+  <si>
+    <t>When you’ve peeves over this bag for so long. Looked for so long to find the right one for you and then when you’ve stopped looking, the universe delivers. Say hello to my new Chanel crush, the vintage jumbo maxi 34, circa 1991-1994. So between 29 and 31 yrs old. Picture doesn’t do this bag justice, it’s absolutely beautiful.</t>
+  </si>
+  <si>
+    <t>Black tie (was not) optional.
+•••••••
+Last night’s celebration of Kaitlin &amp; Geoff 💕
+•••••••
+Hair: kromasalon hairbybianca_kromasalon 
+Makeup: me
+Dress: some random store at the mall near my house
+Shoes: louboutinworld 
+Purse: chanelofficial 
+Husband: mattheisz 
+Friends: laurkates niicoleable 
+Bride: kaitlin_hazen 
+Last song of the night: Don’t Stop Believing (called it)
+Vegan/Gluten-Free Meal: Cauliflower (called it)
+Enjoyment Level: 10/10
+•••••••
+🏷️</t>
+  </si>
+  <si>
+    <t>The lowest wholesale price, the best quality of goods, support free shipping, Paypal payment, if you want to know the price, add my contact information WHATSAPP+8618950702971, we wholesale and retail all kinds of luxury brands (shoes, clothes, hats, belts, etc.) Yes Interest can contact me</t>
+  </si>
+  <si>
+    <t>Organ selfie. I couldn't bear not to take a picture of myself with him. Do you think the picture was successful?:-)🤍🐾🐾 
+Orgona szelfi. Nem bírtam ki, hogy ne csináljak vele egy képet. Mit gondolsz róla? :-) 🤍🐾🐾
+       öpek</t>
+  </si>
+  <si>
+    <t>chanel23s</t>
+  </si>
+  <si>
+    <t>T-shirts 🛍️ SHOP 🔴
+CLICK🛑SHOP - www.QuestionLook.com 🇫🇷
+questionlook</t>
+  </si>
+  <si>
+    <t>Dino and Chanely went on an adventure today…..swipe to see their nonsense…although mostly Dino’s nonsense. He’s now got insomnia from too much coffee. Also the new World of Color is fantastic and you should see it. Just remember to bring more extra layers than I did because it gets chilly! Or a blanket. I should have just brought a blanket. 😂
+✨
+Dress &amp; Hat are Unique Vintage (although I have this dress in many colors but the fabric just isn’t holding up well), cardigan is Tracy Reese (that I’ve had since 2010), shoes are Christian Louboutin that I strassed in 6 stone colors, handbag is Chanel and of COURSE Dino is from Animal Kingdom.
+✨</t>
+  </si>
+  <si>
+    <t>A Journey into the Allure - such a treat to see the evolution of chanelofficial over the years and how timeless designs elements like the use of bows, feathers, play on masculinity and femininity are interpreted on almost a century old designs by Gabrielle Chanel herself, to pieces by Karl Lagerfeld, to the current collection by Virginie Viard. Truly a fashion lover’s dream 🖤🤍🖤</t>
+  </si>
+  <si>
+    <t>#🖤
+고맙고, 사랑해 내편🫶🏻</t>
+  </si>
+  <si>
+    <t>This Wedding was my Super Bowl💍 Beautiful sofiarichiegrainge &amp; elliotgrainge 
 •
 •
 •
 •
-•
-•
-#designer #luxe #bags #handbags #crossbody #crossbodybag #chanelbag #chaneladdicted #chanellove #crossbodybags #chanellover #chanel #mini #miniflap #minirectangular #black #caviar #minibag #chaneladdict #fy #fyp #fypage #foryou #fypシ #foryourpage #explore #explorepage #discoverunder5k #discoverunder1k #discoverunder500
-All images and items belong to me, 
-Authentic and not for sale. 
-For my personal</t>
-  </si>
-  <si>
-    <t>Saint Laurent Paris 💛Matelasse Monogram Chain Bag💛get for 7xxx, Styled with Off White Tee for 7xx and Chanel Tweed Skirt for 8xxx. Use code to save more on site.</t>
-  </si>
-  <si>
-    <t>Estou numa vibe em que só vivia dentro de fatos! Acho que são looks imprescindíveis no nosso armário e versáteis!🖤
-Suit e.g.o_store 
-#outfit #outfitinspiration #outfitoftheday #instafashion #instadaily #inspiration #fashionblogger #fashionstyle #fashionstyle #suitstyle #suit #look #blacklove #foxy #makeup #chanel #strass #elegance #lux #goals #gooutside #shopping</t>
-  </si>
-  <si>
-    <t>What’s behind Door #4?… Who else but Legendary CHANEL🖤🤍🖤
-Coco Chanel is widely regarded as one of the most influential fashion designers of the 20th century, revolutionizing women's fashion with her innovative designs that were both comfortable and elegant. Chanel's style was characterized by simplicity, practicality, and a timeless appeal that continues to inspire fashion today.
-Chanel's impact on fashion is still felt today, with her designs continuing to inspire fashion designers and enthusiasts around the world. Her legacy as a fashion icon is secure, and she will always be remembered as a true pioneer in the industry.
-Check out our selection of Chanel clothing, handbags, jewelry and shoes at affordable prices only at Renaissance! 🖤🤍🖤
-#chanel #legancy #fashionicon #cocochanel</t>
-  </si>
-  <si>
-    <t>Yes or No ? 🧡🧡👉👉kimberly.chanel.closet ​
-Double-tap if you love ❤️‍​
-Tag your friends 👇 👇Rate it 1-10..!! 😍​
--⠀​
-▶ Follow us now for daily trending fashion!​
-▶ Follow us​
-.​
-..​
-.​
+•</t>
+  </si>
+  <si>
+    <t>In vacanza in Italia🙌buona domenica</t>
+  </si>
+  <si>
+    <t>💕Welcome to my store, we sell all kinds of luxury brands (clothing, shoes, bags,glasses,belts, etc.) If you have any questions, please add my WhatsApp +8613386924492 to consult me,we have professionals to answer you.</t>
+  </si>
+  <si>
+    <t>Invictus 100ml
+Precio oferta 45.000 👏🏻👏🏻👏🏻</t>
+  </si>
+  <si>
+    <t>甜茶 TChalamet 以一身型格皮褸皮褲造型現身紐約街頭，為傳奇電影製作人  所執導的 Bleu de Chanel 香水廣告進行拍攝！🎬 
+繼Timothée在時尚界掀起不少波瀾後，今次再踩過美妝界，實在十分讓人期待他會為大家帶來的多面向！
+📸🎥 GettyImages 
+Follow us ElleMenHK
+             ée éechalamet    #甜茶</t>
+  </si>
+  <si>
+    <t>Images of  filming a commercial with . 🎥</t>
+  </si>
+  <si>
+    <t>I am a wholesaler of brand products, if you need to buy, please contact me WhatsApp8619359441469
+(here the quality is the best, the price is the cheapest),
+I have a lot of products, such as shoes, bags, clothes, belts, watches, etc.
+Please contact my whatsapp, free delivery via DHL, 7-12 days to arrive,
+Thank you for your support.👜👓👞👠.</t>
+  </si>
+  <si>
+    <t>Yes 
+girlbloggeraesthetic</t>
+  </si>
+  <si>
+    <t>Victoria's Secret New
+Victoria's Secret Fleur Elixir
+- mobile : 01121663072
+----------------------------------------
+                &amp;ROLF 
+  #</t>
+  </si>
+  <si>
+    <t>Ready to pack a punch? A Chanel campaign by Karl Lagerfeld photographed by Jean-Paul Goude, 1994.</t>
+  </si>
+  <si>
+    <t>After/Before
+Hairstylist Elina Martirosova
+▪️
+▪️
+▪️       #калифорнийскоемелирование</t>
+  </si>
+  <si>
+    <t>Kelly danse 珍珠灰金扣❤️evercolor
+難得有貨🌟
+未入WhatsApp群既朋友 快D Pm我們入群❤️
+香港及海外客戶查詢WhatsApp👇🏻
+📱 
+https://wa.me/message/XEE3BRJ2UJDGJ1
+台灣客戶查詢Line👇🏻
+https://line.me/ti/p/0SplPMINpm
+🇭🇰 香港註冊公司及設有門市
+⭐️正版正貨商戶
+💰接受FPS /Payme/ATM/支付寶/WeChat pay/信用卡或匯豐/渣打/Citibank/中信/AE 信用卡分期服務😊
+✈️可代寄中港澳台及海外
+國內客戶: 接受大陸支付寶
+台灣客戶: 接受銀行過賬/信用卡/信用卡分期/無卡分期（🌟提供面交服務 詳情請Line查詢）
+海外客戶： 接受PAYPAL
+**本店並沒持有任何品牌之版權;
+所有版權及商標均屬該品牌持有人;
+所有轉載只作分享用途!**
+——————————————————
+#歐洲代購          代購   飛馬   代購     #名牌代購 #名牌代購hk</t>
+  </si>
+  <si>
+    <t>Only they who fulfill their duties in everyday matters will fulfill them on great occasions.
 .</t>
   </si>
   <si>
-    <t>Yasmeen Ghauri in sequins look with a tiny purse.✨
-CHANEL Haute Couture f/w 1991. 
-Designed by Karl Lagerfeld.
-Images via Getty Images &amp; ArianaVSCouture 
-#yasmeenghauri #chanel #hautecouture</t>
-  </si>
-  <si>
-    <t>Rate this outfit from 1-10✔
-emilisindlev 💜💫 cphfw
-📸1,2 despi_naka
-3 edward.berthelot gettyimages
-6 moeez
-.
-.
-.
-#CPHFW #SS23 #CHANEL #trendalert #bag #denim #oversize #furjacket #trendy #juliannawilde #streetstyle #fashion #streetfashion #streetshic #fashionstyle #fashionable #stylish #chic #inspiration #fashionista #fashionlover  #fashiondetails #topfashiontrends #bestlook #bestfashion #bestfashiontrends #fashioninspiration #bestfashionoutfit  #beststreetvibes #ootd</t>
-  </si>
-  <si>
-    <t>Baby cousins finally meeting each other 💙👶🏻👶🏻</t>
-  </si>
-  <si>
-    <t>If you need my products, please add my whatsapp: +8618950702971 consultation, we accept PayPal and MoneyGram, free shipping worldwide, here are the cheapest prices and best quality</t>
-  </si>
-  <si>
-    <t>Your best supplier! Dropshipping around the world. Add my whatsapp: +852 65839975. We have all the products you want. Looking forward to working with you.</t>
-  </si>
-  <si>
-    <t>Time to pack for the beach… #vacationessentials #jfhoops #jenniferfisher</t>
-  </si>
-  <si>
-    <t>《ファミリーお花見🌸🇮🇹》
-今年は東京ミッドタウンの【ナプレ】のテラスで夜桜花見🌸ナプレはお友達のタカミホールディングス、高見社長のレストラン🇮🇹テラスでお食事しながらお花見ができるので毎年きます。超おススメ🌸
-最高の天気✨着こんできたけど暖かくて良かった。今年もファミリー皆んなで集まって花見イタリアンをエンジョイ🇮🇹このクアトロフォルマッジピザは本当に美味🍕美味しかった&amp;楽しかった💓
-《Family cherry blossom viewing🌸🇮🇹》
-This year, cherry blossom viewing at night on the terrace of "Napule" in Midtown Tokyo🌸Napule is my friend Mr Takami, CEO of Takami Holdings’s restaurant. Highly recommend as viewing Cherry Blossom with Italian food🌸It was nice and warm night. Also, the whole family gathered together and enjoyed Italian food🍕🇮🇹 It was delicious and fun💓
-#tokyo #japan #cherryblossom #hanami #tokyomidtown #napule #family #italian #pizza #chanel #fur #royalchie</t>
-  </si>
-  <si>
-    <t>This account is 3 years old today!🥳🎂
-Premiere of "On the Road" in New York (13/12/2012)</t>
-  </si>
-  <si>
-    <t>Effortless 
-#illustration #drawing #procreate #ipaddrawing #아이패드드로잉 #드로잉 #일러스트 #그림 #그림스타그램 #샤넬 #fashionillustration #chanel</t>
-  </si>
-  <si>
-    <t>🔥近期搶到癲🔥
-出門必備的Wallet on chain 
-放電話，Passport 都冇問題👍🏻👍🏻👍🏻
-Size :19.2x12.3x3.5cm
-📲 Inbox查詢
-➖➖➖➖➖➖➖➖➖➖➖➖➖➖
-📱落訂留貨（門市自取/順豐到付）
-💰付款方法
-- Cash/FPS/Payme/銀行轉數（BOC / HS）
-- EPS +1% （門市使用）
-- Visa / Master /Union Pay +2.5% (門市使用）
-⚠️條款細則
-過數為準，不設口頭協議
-訂單一經確認
-不設退貨/退款/換貨/轉售服務
-由於電腦螢幕和相機與實物
-可能有色差，一切以實物顏色為準
-本店與任何品牌無關，所有版權及商標屬於品牌所有
-#Chanel #Chanel代購 #Chanel包包 #Chanel袋 #名牌代購 #代購 #香港代購 #歐洲代購 #全球代購 #Hermes #Hermes代購 #Goyard #Goyard代購 #SaintLouis #fashion #hkgirl #Hongkong #ChanelSLG #chanelclassic #chanellove #Prada #chanellover #Rolex #hkstyle #ChanelFashion #Purchasing #Tbt #ootd</t>
-  </si>
-  <si>
-    <t>Cute 🐱
-#ootd #ootdfashion #style #styleinspiration #outfit #outfitoftheday #aesthetic #chanel #chanelslingback #chanelshoes #massimodutti</t>
-  </si>
-  <si>
-    <t>Details 🤍
-chanelofficial 
-.
-.
-#ａｅｓｔｈｅｔｉｃ 
-#beauty
-#chanel 
-#aesthetically</t>
-  </si>
-  <si>
-    <t>Happy Sunday 🖤🤍🖤🤍. These classics are so elegant, love them. I don’t have much planned for today, hubby is throwing out some old furniture at the dump and my daughter is working. I’m feeling much better. Wishing you an awesome day 🤍🖤🤍🖤. 
-.
-.
-#louisvuitton #louisvuittonlover #lvoe #louisvuittonaddict #louisvuittonaddicted #lvaddict #lvaddicted #lvcollection #louisvuittoncommunity #louisvuittoncollection #lvlover #lvcommunity #lvoejunkie #bagaddict #instagood #instagram #instafashion #louisvuittonfans #jerushaaddict #botd #lvpochette #lvwallet #wallet #chanel #chanelwallet #chanelclassic #pochette #lvempreinte #empreinte #cardholder</t>
-  </si>
-  <si>
-    <t>Ad💕Something good is coming!
-So excited to share these snaps I did with chanelofficial to celebrate the upcoming launch of the Oslo Boutique. Finally!
-📸 themisspopo 
-#Scandistyle #outfit #style #colorfulfashion #chanel #chanelbag #chanelclassic</t>
-  </si>
-  <si>
-    <t>Forever chanel.beauty ❤️
-thecococraving welovecoco #chanel #gucci #dior #fashion #louisvuitton #chanelbag #hermes #prada #chanelclassic #lv #chanellover #luxury #fendi #style #love #ysl #versace #balenciaga #bag #makeup #chaneladdict #valentino #chanelboy #ootd #chanelvintage #beauty #givenchy #fashionblogger #chanelmini #burberry</t>
-  </si>
-  <si>
-    <t>Pretty in pink 💕
-.
-.
-.
-#chanelclassic #chanelflap #chanelmini #chanelsmall #chanelbag #flapbag #newarrival #luxury #chanel #unboxing #chanellover #pink #barbie #cc #crossbody #resellercommunity #luxurylifestyle #luxuryreseller #love #luxuryinreach
-____________________________________________ 
-𝗗𝗜𝗦𝗖𝗟𝗔𝗜𝗠𝗘𝗥: 𝟭𝟬𝟬% 𝗔𝗨𝗧𝗛𝗘𝗡𝗧𝗜𝗖 𝗢𝗥 𝗬𝗢𝗨𝗥 𝗠𝗢𝗡𝗘𝗬 𝗕𝗔𝗖𝗞- 𝗟𝗨𝗫𝗨𝗥𝗬 𝗜𝗡 𝗥𝗘𝗔𝗖𝗛 𝗟𝗟𝗖 𝗜𝗦 𝗡𝗢𝗧 𝗔𝗙𝗙𝗜𝗟𝗜𝗔𝗧𝗘𝗗 𝗪𝗜𝗧𝗛 𝗧𝗛𝗘 𝗕𝗥𝗔𝗡𝗗. 𝗔𝗟𝗟 𝗖𝗢𝗣𝗬𝗥𝗜𝗚𝗛𝗧𝗦 𝗔𝗥𝗘 𝗥𝗘𝗦𝗘𝗥𝗩𝗘𝗗 𝗕𝗬 𝗧𝗛𝗘 𝗢𝗥𝗜𝗚𝗜𝗡𝗔𝗟 𝗕𝗥𝗔𝗡𝗗 𝗢𝗪𝗡𝗘𝗥</t>
-  </si>
-  <si>
-    <t>Photography by #GuyBourdin for #VogueParis 1983
-Clothes #HirokoKoshino
-Makeup #HeidiMorawetz for #Chanel
-Hair #Madeleine for #Bruno
-#photographer #photography #fashion #mode
-#vogue #fashionphotography #ファッション
-#japanesefashion #japanesestyle #tweede
-#knitwear #knits #fashion #france #japon
-#grass #archive #paris #voguemagazine
-#voguefrance #80s #1980s #1983</t>
-  </si>
-  <si>
-    <t>⚜️
-•
-•
-•
-#girl #travel #instagram #travelgram #photography #photooftheday #travelphotography #happy #picoftheday #nature #fashion #travel #beautiful #style #photo #wanderlust  #summer  #art #travelblogger #aesthetic #insta #trip #germany #instagood #italy #milano #dior #chanel #prada #vittorioemanuele #louisvuitton</t>
-  </si>
-  <si>
-    <t>BLACKPINK Jisoo 的巴黎時裝週之旅又有新美照！
-｜#Wazaiii觀察｜Jeremy Scott 卸任 Moschino 創意總監｜BLACKPINK Jisoo 助陣 Dior 成巴黎時裝週最有媒體影響力品牌，超車 CHANEL 香奈兒、Louis Vuitton｜
-不用五分鐘，一起了解這週時尚娛樂圈發生什麼大事：
-➡️ 消息太突然！Jeremy Scott 擔任 Moschino 創意總監十年，日前宣布離開品牌！他幽默和創意為品牌成功翻新，一起來回顧他的經典作品！
-➡️ 根據時尚數據平台 Launchmetrics 報告，Dior 成為2023秋冬巴黎時裝週媒體影響力最高的品牌，流量關鍵就是品牌大使 BLACKPINK Jisoo。韓流持續在時尚圈發燒，來看看現在品牌最愛的韓星是誰！
-#小編最喜歡Moschino麥當勞包包
-#拜託閨女們再來台灣
-現在就 Follow Wazaiii 的 Instagram：wazaiii
-加入 Wazaiii 成為 Line@好友搜尋ID：wazaiii
-#Wazaiii #觀點 #fashion #時尚 #Moschino #JeremyScott #Dior #BLACKPINK #Jisoo #chanel #LouisVuitton #Gucci #Prada #韓星 moschino jeremyscott dior sooyaaa__</t>
-  </si>
-  <si>
-    <t>Our Spring Sale is still on! Shop our favorite trending styles at the link in our bio or in stores until March 31st!</t>
-  </si>
-  <si>
-    <t>Bbangsaz too close 💖🫠
-#MINJI #민지 #NEWJEANS
-——
-[230327] newjeans_official update
-——
-#OMG #Ditto #HypeBoy #Attention #Cookie #Hurt
-#Hanni #Haerin #Hyein #DanielleMarsh 
-#Bunnies #Tokki #pouting #wink 
-#bbangsaz #catnipz 
-#NEWJEANS #newjeansminji
-#adornewjeans #뉴진스 
-#chanel #chanelbeauty 
-#kpop</t>
-  </si>
-  <si>
-    <t>Here are some of my current most used slgs in my collection. 
-Switching it up a bit with one of these flat lays that you need geometric patterns to get just right. 😅 inspired by thebagblogs with my own touches. 
-Happy Monogram Monday 🤎🖤💫
-.
-.
-.
-.
-.
-#monogrammonday #louisvuitton 
-#flatlay #lvslg #lvcardholder #lvmonogram #lvempriente #lvminipochette #lvbicolor #6keyholder #lvwallet #lvzippycoinpurse #lvcles #chanel #chanelcardholder #lvdamier #rectoverso #lvrectoverso #lvreversemonogram #lvfragrance #discoverunder10k #discoverunder20k #lvmonogram #pictureoftheday #blackgirlluxury #blackgirlbloggers #lvattrapereves</t>
-  </si>
-  <si>
-    <t>#JISOO FIRST SINGLE ALBUM " ME "
- TRACKLIST POSTER sooyaaa__ 
-2023.03.31
-12AM(EDT) &amp;1PM(KST) 
-#blackpink #rosé #jennie #jisoo #lisa #blackpinkistherevolution  #blackpinkinyourarea #blink #explore #jenniekim #rosépark #jisookim #lisamanoban #blackpink #bp #explore #followme #pinkvenom #shutdown #bornpink #ysl #sulhasoo #chanel #gucci #dior #fashion #model #blackpink #blink #lisa #jisoo #rosé #jennie #blinks #yg #bp #bptg #solojisoo ♡</t>
-  </si>
-  <si>
-    <t>Hello friend, there are many products you need🎁
-High-end quality, global DHL federal free shipping
-Paypal remittance is acceptable
-Fast delivery after payment, ✈7-12 days arrival
-Welcome your consultation. My contact information is 📞WhatsApp8615105927220</t>
-  </si>
-  <si>
-    <t>The energy that feeds my soul today…</t>
-  </si>
-  <si>
-    <t>🤍
-.
-メロンといちごずっと気になってて食べに行けました🤤🍓
-.
-この日は寒かった&amp;風が強かったのでカジュアルめでまとめてみました😌
-.
-knit: meltthelady 
-necklace: swarovski 
-earrings: chanelofficial 
-rings: chaumetofficial joueteofficial 
-.
-#ootd
-#fashion
-#cocotd
-#cafe
-#swarovski 
-#meltthelady 
-#chanel
-#chaumet 
-#jouete 
-#iphoto
-#iphotography 
-#iphonography 
-#shotoniphone 
-#model 
-#モデル 
-#parlornoon 
-#目黒 
-#目黒カフェ 
-#夜カフェ</t>
-  </si>
-  <si>
-    <t>J. Golden Photography 
-Birthday Session 
-Shot By Jo H Golden
-www.jgoldenphotography.com 
-Call Us Today 713-548-3414
-#burberry #workout #business #txmodels #instagood #gym #health #muscles #photooftheday #photography #realestate #realtor #fitnessmotivation #picoftheday #mensfashion #birthdayphotoshoot #Houstonphotography #likeforlike #pharmacist #capandgown #school  #chanel #law #retoucher  #doctor #flowerwall</t>
-  </si>
-  <si>
-    <t>💄💋
-#chanellerougepopup #chanel #lerougechanel #sored #throwback #lfl</t>
-  </si>
-  <si>
-    <t>Something beautiful 🖤
-#somethingbeautiful #ａｅｓｔｈｅｔｉｃ #postfortheaesthetic #radom #radomianka #warszawa #newbag #lambskin #chanelclassicflapbag #valentinesgifts #pinterestaesthetic #chanelclassicflap #chanel #chanelbag #aesthetically #aestheticposts #dreamspace #beautifulplacestovisit #inspofinds #chanelunboxing #unbox #chanellove #chaneladdict #chanelofficial</t>
-  </si>
-  <si>
-    <t>#Y #Y_ISSUE09 #Y_EDITORIAL
-Y LIST
-&lt;Y&gt; 에디터들의 눈과 마음을 사로잡은 '잇' 위시 리스트를 소개합니다. 더 많은 이야기는 &lt;Y&gt; 매거진 09호에서 확인하세요.
-🎀겔랑(guerlain)
-- 라르 &amp; 라 마티에르 컬렉션 자스민 보누르
-🎀티파니앤코(tiffanyandco)
-- 티파니 락 뱅글
-🎀아미나 무아디(aminamuaddiofficial)
-- 로지 크리스탈 엠벨리쉬드 실크 새틴 펌프스
-🎀샤넬(chanelofficial)
-- 22 핸드백
-🎀딥티크(diptyque)
-- ‘심플 심플’ 컬렉션 캔들 홀더
-🎀디온 리(dionlee)
-- 2023 S/S Ready-to-Wear #Look 46
-#editor_JHR
-#Ymagazine #와이매거진 #YLIST #위시리스트 #guerlain #tiffanyandco #aminamuaddi #chanel #diptyque #dionlee</t>
-  </si>
-  <si>
-    <t>Grey outside means cosy inside.</t>
-  </si>
-  <si>
-    <t>Belly piercings🥹😍
-(My post)
-(Follow cocoafeedz for more💌)
-#bellypiercing #piercing #piercings #aesthetic #waistbeads #waistbeadsqueen👑 #aesthetics #melanin #beauty #explorepage #fyp #pinterest #vogue #vintage #acubi #moodboard #moodboards #dior #chanel #jewelry #melaninpoppin #taylorswift #lanadelrey #y2k #y2kaesthetic #cyber #y2kfashion #bellypiercings #pink #pinterestinspired</t>
-  </si>
-  <si>
-    <t>We have been engaged in the wholesale and retail of all kinds of brand shoes and bags for many years. Our goods are of high quality. The payment method is PayPal and bank transfer. The transportation methods are (FedEx, DHL, China Post). If you want to know the price, please Add my WHATSAPP+8618950702971</t>
-  </si>
-  <si>
-    <t>#likeallmypics #moscowcity #moscow #russian #molodezhka #tajikistan #uzbekistan #kazakhstan #kirgizistan #azerbayçan #azerbaycan #moldova #piter #ekaterinburg #followｍe #blackpink #chanel #city #my #bag #instagramanet #instalikes #life #mybag #likeme #lovemylife #story #makhajkala</t>
-  </si>
-  <si>
-    <t>The rule for Roberto Cavalli is GO BIG OR GO HOME! And going home was not an option for me! 😆 this was my look for the Roberto Cavalli show! 
-Also it’s the day I met in person the new ROAR bag! Put a gay man in contact with anything that has a reference to Katy Perry and it’s an immediate success. 
-roberto_cavalli faustopuglisi 
-Photographers: alena.milan.photo and ludovicarceroph and daan_sachdev</t>
-  </si>
-  <si>
-    <t>an old-fashioned global trotter 🌍 
-it’s indisputably a privilege to be able to travel so frequently — to explore the world, to savor the food, to experience different cultures, and to connect with people you never imagined you would meet. 
-so here’s a little photo tribute to the status quo🥂
-搬到紐約後，慢慢習慣來來去去——
-身邊朋友的遞嬗、生活環境的更迭、巷口店家的消長，習慣了變動是常態的日常。
-我以為，人會因為環境而改變，但終究，我們都帶著過往的自己上路。
-還是喜歡湯湯水水的亞洲食物，而且在國外待得越久，選擇亞洲食物的頻率越高；
-還是習慣喝煮沸過後的溫熱水，儘管歐洲硬水與礦物質會形成厚厚的水垢，於是開始尋找加熱後最不會形成水垢的品牌（Volvic 是加熱後喝起來最沒有水垢最好喝的）；
-洗完頭還是習慣把頭髮吹乾而不是自然乾；進家門一定要脫鞋，穿出去外面的鞋子怎麼可以進家裡？
-過了這麼多年，雖然很多東西都變了，但你還是原來的那個自己。</t>
-  </si>
-  <si>
-    <t>This Chanel Jacket 💐 Vous aimez ? 
-Gilet Chanel • SOLD OUT 
-#chanel #chanelvintage #chanellover #chaneladdict #vintage #chaneljacket #closet2closet #fashion #cc #depotvente #depotventeluxe #paris</t>
-  </si>
-  <si>
-    <t>I’m just saying though💎 #happyfriday #chanel #iamkietta #beautifulkietta #beautifulbosschic #msmayweather #realtalkwithkietta #iamaunicorn #magicalbeauty #naturallybeautiful #cherokeeandethiopianmix</t>
-  </si>
-  <si>
-    <t>〻👧🏻🦄🛍️🎀
-Ｍy loｖes‥🥨
-．
-．
-．
-#myfav
-#maisonmargiela 
-#Aesop
-#SHIRO
-#three 
-#CHANEL</t>
-  </si>
-  <si>
-    <t>#outfitinspiration #pinterest #look #art #streetstyle #chanel  #y2kstyle #styleinspiration #inspiration #instalike #instafashion #ootd #fashionweek #stylefashion 
-#lookoftheday #pinkoutfit  #y2k #greenoutfit #grey #beachvibes #love_fashion #explorepage #altgirl #aesthetics #virtuals tylist #virtual #photography #vintageclothing</t>
-  </si>
-  <si>
-    <t>Friday OOTD 🖤✨
-Product ID:
-Tweed Dress: 11544076
-Tweed Blazer : 11544069
-✨Use my code sofrench15 for an extra 15% off any purchase on shein site. 
-#SHEINforAll #SHEINpartner 
-#blackoutfit #ootd #ootn #sofrenchbynaty</t>
-  </si>
-  <si>
-    <t>Bottega veneta ❤️‍🔥
-secondchanceistheway 
-#bottegaveneta #bags #originalbags #luxury #authenticluxury #gucci #prada #chanel #bottegavenetabags #reseller #secondchanceistheway #vestiairecollective #depop #resellercommunity #secondhandbag #prelovedbags #brandnewbags</t>
-  </si>
-  <si>
-    <t>Timeless chanelofficial 💙 #chacha #chanel #timeless #timelessbag #fashion #fashionlover #baglover #bagaddict</t>
-  </si>
-  <si>
-    <t>When you choose peace, it comes with a lot of goodbyes. | 
-.
-.
-#vibeout #goodvibes #Sundayvibes #fabmom #dolcegabbana #chanel #slides #miami #ichoosepeace 
-#happy #fabflyy #weekendVibes #miamibeach #cookoutvibes #grillmaster</t>
-  </si>
-  <si>
-    <t>Crêpes &amp; Saint Tropez 🙌😋#memories#holidays#sainttroepz#cotedazur#cotedazurfrance#january#january2023#brown#walk#lunch#ermannoscervino#hermès#hermesbag#louisevuitton#dolcegabbana#dior#diorsunglasses#chanel#chanelearrings</t>
-  </si>
-  <si>
-    <t>It’s blue and chanelly and yes you know what it smells like but arguably it’s one of my guilty pleasures. Oh and by the way. The next episode of lesoderants is out shortly and yes… it’s on guilty pleasures. WHAT A COINCIDENCE. 
-Also. I’ve decided it’s time to put some positive energy out into the universe and so I’m going to start wishing everyone a great day. At some stage. BUT NOT TODAY. 
-#bleu #blue #chanel #flat #guilty #pleasure  #Perfume #perfumecollection #perfumes #duft #perfumeaddict #perfumelover  #fragrance #fragrancecollection #fragrancelover #fragrancearmy #fragranceoftheday #fragranceaddict #fragrances #fragrancecollector  #nicheperfumes #nicheperfume #growdeparfum  #sotd #scentoftheday #fragrance #artofperfumery #fragrance_weirdo #mensgrooming  #perfumeoftheday</t>
-  </si>
-  <si>
-    <t>moon_yyoung
-#comedymemes #memes #funnymemes#fyp #fypシ #pinterestgirl #music #travel #girlbloggeraesthetic #girlblogger #girlboss #vintage  #vogue #stargirl #styleblogger #fashion #cottagecore #explorepage #indianmemes #lilyrosedepp #femmafatale #viral #explorepage #explore #dior #chanel#bellahadid #lanadelrey #selenagomez #taylorswift #whispers</t>
-  </si>
-  <si>
-    <t>The most gorgeous girl 🖤 
-•
-•
-tags;
-#margotrobbie #margotrobbieedit #margot #robbie #nellielaroy #babylonmovie #suicidesquad #itonya #focusmovie #oscars #goldenglobes #followtrain #followｍe #explorepage✨ #foryou #followforfollowback #gaintrains #discover #grammys #metgala #barbiemovie2023 #barbiethemovie #onceuponatimeinhollywood #follow #harleyquinn #metgala #wolfofwallstreet #chanel</t>
-  </si>
-  <si>
-    <t>THIS is called Organic engagement🤭 
-JENNIE has the highest engagement rate on instagram among Blackpink members. Keep engaging more on her account.
-JENNIE #SOLO STAGE
-#YouandMe #iloveyouandme #Jennierubyjane 
-#JENNIE #BornPinkJENNIE #JENNIEKIM #제니 #JENNIESOLO #Solo #Chanel #Tamburins #Hera #FirstSoju #Soonhari #JentleGarden #JentleHome #Chumchurum #GentleMonster #rapperjennie</t>
-  </si>
-  <si>
-    <t>🌸 x 🌺
-💞💞💞
--
--
--
-#nigo #humanmade #levisvintageclothing #needles #chanel #kenzo</t>
-  </si>
-  <si>
-    <t>Chanel's boxers ain't pulling no punches 🥊💎
-. 
-📸: reginaanikiy</t>
-  </si>
-  <si>
-    <t>Collection Of Kish Cars Part #3 
-▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎
-audi audiofficial 
-chevrolet chevroletperformance 
-dodgeofficial ford bmw bmwm hermesrapgod 
-▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎▪︎
-Hashtags : 
-#audi #audisport #chevrolet 
-#chevroletcamaro #dodge #dodgesuv #ford #fordtaurus #bmw 
-#bmwm #bmwm3 #kish #kishisland 
-#paradise #gangsterparadise #chanelwatches #chanel #361shoes 
-#gang #carcollection #cars #hermesrapgod #sportcars</t>
-  </si>
-  <si>
-    <t>Smiley piercings😍😍
-(My post)
-(Follow cocoafeedz for more💌)
-#piercings #piercing #smileypiercing #rings #explorepage #fyp #y2k #y2kaesthetic #melaninpoppin #melanin #aesthetic #aesthetics #lashes #eyebrows #girlboss #girlblogger #vintage #vogue #dior #chanel #lanadelrey #relatable #femcel #darkfeminine #coquette #darkcoquette #bohostyle #lilyrosedepp #taylorswift #pinterest</t>
-  </si>
-  <si>
-    <t>We are a product wholesaler, we sell a lot of products, shoes, bags, clothes and so on, if you are interested in my products, please add my WhatsApp: +8613514055482, high quality and fast shipping</t>
-  </si>
-  <si>
-    <t>🖤☠️
-.
-.
-..
-.
-.
-.
-.
-#trend #instagram #viral #2009 #explorepage #fyp #trendingreels #style #style #maroc #marocaine🇲🇦 #2009#challenge #chanel #change #instagood #style #trend #trendingreels #reels #reelsinstagram #video #videos #marocaine🇲🇦 #boystyle #bigboy #trendy #viralvideos #memestagram #tendance #partager_max_svp #supportsmallbusinesses#algerienne🇩🇿 #algeria #style</t>
-  </si>
-  <si>
-    <t>声明：mariiafilimonova88888跟任何品牌无关！没有持有图中任何版权，所有商标版权均属图中品牌商标持有人，此贴只做分享用途！
-Disclaimer: mariiafilimonova88888 has nothing to do with any brand! Not holding any copyright in the picture, all trademark copyrights belong to the brand trademark holders in the picture, and this post is only for sharing!</t>
-  </si>
-  <si>
-    <t>I love art and fashion because they are friends.</t>
-  </si>
-  <si>
-    <t>Will be wearing this denim jacket on repeat this spring frame #ItsFRAME #FRAMEfit #FRAMEdenim 🫶✨ hope you all had a nice weekend!!
-Outfit details:
-Jacket - frame 
-Shirt &amp; skort - zara 
-Boots - marc.fisher 
-Jewels - astridandmiyu 
-•
-•
-•
-#preppystyle #parisianfashion #parisianchic #miniskirt #headband #jeanjacket #denimjacket #laparisienne #preppygirl #gossipgirl #emilyinparis #schoolgirlstyle #howtobeparisian #darkacademia #springoutfitideas #springoutfit #chanel #chanelflapbag
-Preppy style, faux fur, spring outfit, spring fashion, spring fashion inspo, parisian style, parisian chic, paris, denim jacket, mini skirt, school girl style, coffee lover</t>
-  </si>
-  <si>
-    <t>#lovemylvoe #fashionablebags #fashionista #fashionable #ootdfashion #fashionnova #ootdstyle #fashionblogger #louisvuittoninternational #chanel #diorrefined #louisvuitton #virgilabloh #Authentic Louis Vuitton #ForSale #Available #LV#LVBags #LVBagsForSale #AuthenticLV #louisvuittonaddicted #monogram #damierebene #damierazur #orangeboxes #designer #fashion #luxury #bagaddict #lvaddicted always</t>
-  </si>
-  <si>
-    <t>Inspired by the new chanel.beauty SS23 collection — Bold red hues and flushed cheeks from the Les 4 Rouges Yeux et Joues palette with a touch of Noir Allure mascara in the shade Rouge grenat and Le Vernis in shade Rouge Cuir on my nails #chanelbeauty
-*gifted</t>
-  </si>
-  <si>
-    <t>這個短項鍊太可愛
-有黑、白、粉三色
-但只有白色帶了不規則的珠光紋路
-手又不小心滑了一下🙃
-/
-/
-#chanel #chanelbag #luxurylifestyle #lifestyle #chanellover #bag #shopping #picoftheday #brand #yellow #furry #instagood #style #mylife #paris #bag #chanelclassic #vouge #luxury #designer #instragram #cocochanel #yellow #limited #limitededition #seasonal #chanelnecklace #necklace</t>
-  </si>
-  <si>
-    <t>CHANEL ~ Haute Couture Fall/ Winter 1994-1995. Show in July 1994 in Paris, France. 
-Catwalk full of Supermodels.
-(Pt. 1).
-.
-#90s #90sfashion #chanel #90schanel #karllagerfeld #90sstyle #90sfashionmodellook #90ssupermodels #supermodels90s #naomicampbell #lindaevangelista #carlabruni #claudiaschiffer #stephanieseymour #nadegedubospertus #christyturlington #ninabrosh #brandiquinones #katemoss #yasmeenghauri #nadjaauermann #karenmulder #kirstyhume #helenachristensen #debbiedietering #shalomharlow #olgapantushenkova #ayakokawahara #trishgoff #kristenmcmenamy</t>
-  </si>
-  <si>
-    <t>Wow!! Just wow! 
-#lovemylvoe  #fashionablebags #fashionista #fashionable #ootdfashion #fashionnova #ootdstyle #fashionblogger #louisvuittoninternational #chanel #diorrefined #louisvuitton  #virgilabloh #AuthenticLouisVuitton #ForSale #Available #LV#LVBags #LVBagsForSale #AuthenticLV #louisvuittonaddicted  #monogram #damierebene #damierazur #orangeboxes #designer #fashion #luxury #bagaddict #lvaddictedalways</t>
-  </si>
-  <si>
-    <t>Back to school with kristenstewartx #happymonday #inbox #hollywood #bitchplease #actress #chanel #kristenstewart #smoking</t>
-  </si>
-  <si>
-    <t>呢個湖水綠好復古
-低調又有個性👍🏻
-小小點綴 成個look出哂黎😏😏
-Size: 17.5x16.5x10cm 
-📲 Inbox查詢
-➖➖➖➖➖➖➖➖➖➖➖➖➖➖
-📱落訂留貨（門市自取/順豐到付）
-💰付款方法
-- Cash/FPS/Payme/銀行轉數（BOC / HS）
-- EPS +1% （門市使用）
-- Visa / Master /Union Pay +2.5%（門市使用）
-⚠️條款細則
-過數為準，不設口頭協議
-訂單一經確認
-不設退貨/退款/換貨/轉售服務
-由於電腦螢幕和相機與實物
-可能有色差，一切以實物顏色為準
-本店與任何品牌無關，所有版權及商標屬於品牌所有
-#Chanel #Chanel代購 #Chanel包包 #Chanel袋 #名牌代購 #代購 #香港代購 #歐洲代購 #全球代購 #Hermes #Hermes代購 #Goyard #Goyard代購 #SaintLouis #fashion #hkgirl #Hongkong #ChanelSLG #chanelclassic #chanellove #Prada #chanellover #Rolex #hkstyle #ChanelFashion #Purchasing #Tbt #ootd</t>
-  </si>
-  <si>
-    <t>I’m crushing on you 🫶🏻💘 #chanel #chanelcococrush #happymonday</t>
-  </si>
-  <si>
-    <t>💖 Customer picture of her gorgeous Paris pillows and her lovely green YSL tote, Message me to order 💖 #Pillows #Twillys #Handbaghook #Handmade #Classy #Oriental #Bees #Florals #Chanel #Gucci #Hermes #Louisvuitton #Mulberry #YSL #Balenciaga #Dior #Givenchy #Prada #Purseaddict #Baglover #Bagaddict #Botd #classyandfabulous #Chanelclassic #Bagoftheday #Chanellover #Chaneladdicted #Neverwithoutmychanel #Woc #Handbag</t>
-  </si>
-  <si>
-    <t>❄️Available☃️
-Authentic Preloved Zippy Wallet, Black multicolor Noir mono, 8 card slot, three pockets, one coin
-✔️Very Good Condition
-✔️ 100% Authentic, w Certificate of Authenticity
-✔️$475
- 🇺🇸Free Standard Shipping USA🇺🇸
-✔️Payment plan friendly
-🔘8 week payment plan with LVvintageCloset
-  Or
-🔘12 weeks with Affirm, buy now, ships now, 12 weeks to pay, 0% interest (with approval), DM for info
-💵How to Purchase:
-📫Be the first to DIRECT message us (not on the comments below post). Send your name and email for an invoice.
-💰LVvintageCloset Payment Plan:
-👉$100 non refundable deposit for purchases $0-1199
-👉$150 non refundable deposit for purchases $1200-1999
-👉$200 non refundable deposit for purchases $2000 and higher.
-👉Non transferable, No exchanges.
-📅Pay balance at your own pace during the 8 weeks. 📦 Item ships when balance is paid in full. ⚠️All Sales are Final, no exchanges, no returns, no refunds.
-📌💯All items are guaranteed 100% authentic.
-❎Notice of non-affiliation and disclaimer: LVvintageCloset,LLC is not affiliated with any of the fore mentioned brands or affiliates. Copyrighted trademarks and images are the sole property of their respective owners. As a state licensed reseller of authentic pre-owned goods, we source responsibly, price fairly, and sell under the doctrine of the Nominative Fair Use Act.
-www.shoplvvintagecloset.com
-Instagram: lvvintagecloset
-#louisvuitton #gucci #chanel #fendi #lvvintagecloset #damierebene #monogram #christiandior</t>
-  </si>
-  <si>
-    <t>90s Chanel Barbie needed a coffee break☔️💕
-Pink | Spring outfits | Spring trends | how to wear | workwear | Neutrals | neutral fashion | style tips | how to style | classic fashion | capsule wardrobe | wardrobe essentials | fashion | minimal style | minimal fashion | casual fashion | simple styling | monochrome | vintage Chanel | 90s Chanel | 
-#outfitoftheday #lookoftheday #outfitinspo #fashioninspo #whowhatwear #aesthetic #ootdsubmit #neutralstyle #tailoring #pink #springfashion #neutrals #minimalstyle #outfitinspo #workwear #classicstyle #minimalstyle #pretty #parisianstyle #alittlebeautyeveryday #fashionreel #luxury #inspiremyinstagram #pinterest #nowdiscovering #midsizefashion #chanel #90s #luxury #gossipgirl</t>
-  </si>
-  <si>
-    <t>For orders and enquiries 
-Whatsapp 7904084645 or join the link from bio for more collections 
-#fashion #fashionstyle #watches #watch #cool #explorepage #explore #explorepage✨ #exploremore #aesthetic #classy #black #style #stylish #chennai #bangalore #mumbai #pune #maharashtra #hyderabad #india #girls #girl#chanel</t>
-  </si>
-  <si>
-    <t>Busy Monday 💪🏼
-#simplicity #seekthesimplicity #toteme #totême #totemestudio  #chanel #chanelballerina #hermes #black #allblack #whatiamwearing #investmentpieces #mystyle #neutralstyle #minimaliststyle #capsulewardrobe #minimalistwardrobe #minimalist #ａｅｓｔｈｅｔｉｃ #myminimalaesthetics</t>
-  </si>
-  <si>
-    <t>Cultivating elegant style is the essence of this platform. There are certain principles, however it can be whatever it means for you and your lifestyle. 
-Chanel will always be one of the most influential ambassadors of style. What does it mean to you? .
-.
-.
-.
-.
-.
-.
-.
-#theartoftheelegantwoman #elegantwomanstyle #elegance #style #styleinspiration #chanel #classic #classicchanel #cocochanel #femininewoman #femininestyle #highvaluegoddess #goddessenergy #levelup #levelingup #leveluplifestyle #jetset #jetsetbabe #affluentwomen #affluentlifestyle</t>
-  </si>
-  <si>
-    <t>Essentials #chanellove #chanel #chanellover #beautifuldestinations #beautyobsessed #black #cream #beauties #details #rings #beautyritual #minimalism #artbeauty #goldblack</t>
-  </si>
-  <si>
-    <t>NEW ARRIVALS
-- 
-Chanel Vintage WHITE
-Coco Classic Flap 23cm Handbag
-白色金釦 小號CF2.55 23公分 肩背/斜背
--
-最最最經典23cm 白色金釦CF
-白雪公主CF 好久沒跟大家見面了
-這顆包況美翻，原況算美了
-保存20幾年的白色能這樣這樣很厲害
-大家都知道CF一直都是熱門到不行
-市售行情也已經漲破天際💫
-以後再買絕對不會更便宜啊啊啊
-只會越來越貴🔥
-反正就是很值得投資啦
-——— ——— ——— ——— ———
-詢價一律私訊小盒子我們😬😬👍🏻
-In box for us 📩📩
-🚢Free shipping Worldwide 🌍
-📩DM for more information 📩
-💳Online Payment 💳
-Wechat微信：Jeffrey5168
-官方LINE:boxroom
-——
-Box Room Vintage
-🈺️14:00-20:00
-☎️（02）2568-2536
-📍台北市中山北路二段39巷14號2F
--
-#chanelvintage 
-#chanelcocoflapbag 
-#chanelvintagecoco 
-#chanelvintageclassic 
-#vintagechanel 
-#chanelbackpack 
-#chanellacrememain 
-#boxroomvintage
-#chanelwallet
-#chanel
-#chanelcoco
-#chanelbiglogo 
-#chanelbeltbag 
-#chanelvintagebeltbag
-#chanelfannypack
-#rarechanel 
-#chanelrare
-#vintagechanelbeltbag 
-#chanelvintagefannypack</t>
-  </si>
-  <si>
-    <t>🤍✨
-#healing #selflove #selfcare #girlboss #lifestyle #fashionblogger #fyp #girlblogger #femmineenergy #lanadelrey #fashionstyle #adrianalima #fashionaddict #confidence #bellahadid #darkfeminine #333 #888 #wizardliz #lanadelrey #moodboard #séduction #femmalefatale #coquettegirl #dior #chanel #explorepage #bellahadid #prada #thatgirlaesthetic #foryoupage #viralpost</t>
-  </si>
-  <si>
-    <t>1,2 or 3? . . .  #paris #parisfrance #tomandjerry #adayinparis #cityoflove #winterfashion #fashionblogger #chanel #loveyourself #lifestyle #travelblogger #travel #travelgram #fashinista #instaphoto #fyp #middleeast #france #green #vacation</t>
-  </si>
-  <si>
-    <t>Congratulations Shani 🐚🤍
-.
-.
-.
-#makeup #love #hairstyles #hairstyle #eyeliner #lifestyle #fashion #modeling #dior #chanel #hermes #lashes #eyelashes #brows #wedding #weddingday #loveislove #houtecouture #diamonds #weddingdress #lace #happiness #mood</t>
-  </si>
-  <si>
-    <t>BOTTLES•AND•BOOTS•UP•🧡🥂👢
-RoundTop, TEXAS never disappoints and my swanky boutiques are no exception!  OhMyGoodness!… always a swanky par-tay!🧡🥂🍾
-:
-It was an early start at my Henkel Square fort with mimosas and shopping and then the fun photo ops came!… OfC!
-:
-And OhMyGoodness the fun ensued at our Rolland Square block party!  Lordy have mercy!  Thank you lesliekristenrttx for ALL of your hard work to make the night SO MUCH FUN!  I love you friend!
-:
-Y’all, THE best part of my job is meeting new people, catching up with my clients and friends, seeing them giddy over their purchases and experiencing magical Round Top, TX together at Spring Show! 
-:
-Thank you to all of my dear clients for supporting my fancy ‘lil biz!  My goodness y’all have exquisite taste!
-:
-We’re back at it at 10am!😅
-:
-modernMARLA Luxe Boutique
-303 South White Street
-&amp;
-186 Henkel Square
-: 
-Y’all come see me and my curated treasure trove and let’s toast 
-MAGICAL RTTX!✨🤩💫
-:
-#roundtoptexas 
-#roundtop 
-#luxury 
-#luxe 
-#boutiqueshopping 
-#luxuryforless 
-#recycledfashion 
-#shoppingexperience 
-#oneofakind 
-#treasurehunt 
-#chanel 
-#louisvuitton 
-#gucci 
-#oscardelarenta 
-#swoon 
-#fancy 
-#texasgirl 
-#workinghard and apparently 
-#playinghard 
-#gratefuleveryday 
-#modernmarla 
-#cheersyall 
-#gratitudeismystyle</t>
-  </si>
-  <si>
-    <t>✨✨✨
-King and Queen
-Please ❤️💬☑️💌
-1⃣0⃣2⃣2⃣
-_________________ 
-#이민호 #leeminho #김고은 #KimGoEun
-#더킹 #TheKingEternalMonarch #더킹영원의 
-#LeeMinHo  #TheKing #JeongTaeEul #pachinko#yummy #mingocouple #yumicells #pachinko #littlewoman #askthestars #mingocouple #mineuncouple #fendi #chanel #chanelfinejewelry</t>
-  </si>
-  <si>
-    <t>Fofura pura ...
-#sabedoria #bomdia #gratidaosempre 
-#instagood #closet #chanel #karl #AS
-#guardaroupainteligente #natureza 
-#fashion #kids #fofurice #style #city 
-#homedecor #humildade #simplicidade 
-#healthylifestyle 🌎🤳🙏🌄🌹😘</t>
-  </si>
-  <si>
-    <t>If you missed today unboxing here it is in a nutshell!! 
-Lots of Eyecandy 
-#lovemylvoe  #fashionablebags #fashionista #fashionable #ootdfashion #fashionnova #ootdstyle #fashionblogger #louisvuittoninternational #chanel #diorrefined #louisvuitton  #virgilabloh #AuthenticLouisVuitton #ForSale #Available #LV#LVBags #LVBagsForSale #AuthenticLV #louisvuittonaddicted  #monogram #damierebene #damierazur #orangeboxes #designer #fashion #luxury #bagaddict #lvaddictedalways</t>
-  </si>
-  <si>
-    <t>Prefer larger wallets? This will be a perfect match if you prefer to go out with only your cards and bills to bring. ✨ 
-〰️ Other designs available on-hand
-〰️ Open for pre - orders
-〰️ Lowest Downpayment 
-〰️ Money back guarantee 
-〰️ Accepts Cash on delivery within Metro Manila
-📌DM us for orders / inquiries! 
-Disclaimer: The Authentique PH is not affiliated with the brands we sell. All trademarks and/or copyrights belong to the respective owners.
-#authentic #authenticity #luxury #luxurylifestyle #luxurybrand #bags #bagsforsale #gucci #bagsforsalemanila #bagsonlineshop #onlineshopbags #louisvuitton #yvessaintlaurent #dior #chanel #luxuryliving #toryburch #marcjacobs #bagsph #bagsofinstagram #collection #luxurycollection #prime #luxurybags</t>
-  </si>
-  <si>
-    <t>24-hour online service</t>
-  </si>
-  <si>
-    <t>Um sábado de sol
- ☀️ #angra #rj #dior #look #fashion #chanel #thaysantana #fasano</t>
-  </si>
-  <si>
-    <t>臨近春夏，牛仔絕對是時尚中不可或缺的一大元素❤️
-#01Fashion #牛仔手袋 #Chanel #BV #Dior #YSL</t>
-  </si>
-  <si>
-    <t>We are mainly engaged in various brands of shoes, clothes, bags, glasses, etc., top quality of goods, high-quality customer service. We have many years of luxury wholesale and retail experience, we accept PayPal payment, free shipping, if you want to resell or consult the price, please add My contact information +8618950702971</t>
-  </si>
-  <si>
-    <t>Panorama The Woods Collection - erkaklar va ayollar uchun moʻljallangan parfyumdir.
-Yuqori notalari: sitrus va amber;
-O'rta notalari: Greypfrut, yog'ochli notalar va Ambroksan; 
-Asosiy notalari: Ambergris.
-Turlanishi: Parfyum 
-Hajmi: 100 ml
-_____________________
-Panorama The Woods Collection — это аромат для мужчин и женщин. 
-Верхние ноты: Цитрусы и Амбра; 
-Средние ноты: Грейпфрут, Древесные ноты и Ambroxan; Базовые ноты: Серая амбра.
-Классификация: Парфюмированная вода 
-Объем:100мл
-_________________________
-Узбекистан, Коканд, ул Истиклол 27
-Ориентир:  BBQ burger
-Тел+998907590007
-__________________________
-#parfumsdemarly #fragrance #fragrances #perfume #cologne#jomalone#tomford#chanel#woodcollection# #JoeSCENTMe#dear Polly #finefragrance #fragrancereviews #perfumeenthusiast #perfumecollector #perfumecollection #smellgood #scent #aroma #smell #fragrancecounter #shopping #eauparfyum#lanvinenbleu#merryme#lanvin#tous#tousparfum#Jomaloneperfume#jomalonebeuty#</t>
-  </si>
-  <si>
-    <t>This bag was a gift I received
-When I heard the name Chanel, I knew it was a very good product.Thank you to my friend for the gift. Thank you very much dearest friend for choosing the color I like and the design I like .I wish you more success in business. I wish we could work together again. Friends, I will try to do better with you
-#bag 
-#gift 
-#received 
-#chanel 
-#product 
-#friend 
-#friendship 
-#dearest
-#choosing 
-#color 
-#success 
-#business</t>
-  </si>
-  <si>
-    <t>sneakers👟, own factory, export wholesale worldwide🔥, free shipping✈, top quality😊
-Accept face-to-face video to see quality👌
-☎Contact our manager: whatsapp: +8613062299152
-Line: noke9090</t>
-  </si>
-  <si>
-    <t>Hi friend, I'm a wholesaler of bags, clothes, watches, 🎁
-I have high quality goods and high quality services that you need,
-Express: Federal and DHL Express
-Remittance: paypal and Western Union
-The arrival of the goods: ✈ 7-12 days
-Please contact me at 📞WhatsApp+8618059932287</t>
-  </si>
-  <si>
-    <t>Yellow obsession 
-#yellow #mood #chanel</t>
-  </si>
-  <si>
-    <t>Letting the accessories do the talking. 
-toteme Belt
-chanelofficial Slingback Flats
-deandavidson Sol Huggie Hoops 
-#toteme #chanel #luxuryfashion</t>
-  </si>
-  <si>
-    <t>-I have no time. I’m booked all day. I have hair appointment and I’m returning a vibrator.
-+Hair and a vibrator.
--Yes. That is my life and I don’t have to justify it.
-#wallpaper #art #flyart #pinterest #carriebradshaw #samanthajones #sexandcityquotes #sexandcity #fashion #duvarkağıdı #vogue #dior #chanel #charlotte #miranda #followforfollowback #sexandthecityquotes #sexandthecitymemes #mood #quarantine #satc #reklam #reklamver #reklamyayını #advertising #advertisement</t>
-  </si>
-  <si>
-    <t>G-DRAGON x Harper’s Bazaar April Issue ❤️‍🔥❤️‍🔥
-.
-.
-.
-.
-.
-.
-.
-.
-.
-. 
-. 
-. Cr C-Oli (Weibo)
-. 
-.
-🌼 🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼🌼
-#GD #kwonjiyong #jiyong #peaceminusone #bigbang #권지용 #지드래곤 #gdragon #빅뱅 #xxxibgdrgn #chanel #fashionista</t>
-  </si>
-  <si>
-    <t>#리그램 - harpersbazaarkorea 
-#제작비지원 #TheIrreplaceableMan 
-그 어떤 수식어보다 지드래곤(G-DRAGON), 이름만으로도 큰 존재감을 드러내는 그의 진심(盡心)과 오라에 휩싸인 순간. &lt;바자&gt; 4월호를 여는 얼굴은 아티스트 #권지용 입니다.
-샤넬의 글로벌 앰배서더 #GDragon 의 화보와 인터뷰를 담은 풀 스토리는 &lt;바자&gt; 4월호와 웹사이트에서 만나볼 수 있습니다. 
-Chanelofficial xxxibgdrgn
-Editor 서동범
-Photo 김희준 ‧ Heejune KIM
-Stylist 지은
-Hair 김태현
-Makeup 임해경
-Nail 박은경(UNISTELLA)
-Set Design 이나경, 김시천(CALLA7)
-Assistant 신예림
-#Chanel #CHANELSpringSummer #ChanelSS23 #샤넬</t>
-  </si>
-  <si>
-    <t>Less to carry, less to care about! 💖 What is a micro bag for? Let me hear your thoughts 😆💭 
-#microbag #minibag #hermesconstance #chanel #ootdfashion #outfitideas #xiaomapicks #casuallook #casualchic #boots</t>
-  </si>
-  <si>
-    <t>"My parents instilled in me a belief in such things: you have to work hard to achieve what you want in life… This word is a commitment, you have to do what you say and keep your promises." - #MelaniaTrump 🤍</t>
-  </si>
-  <si>
-    <t>In the heat of the moment chanelofficial 
-.
-.
-.
-#chanel #moda #dior #luxury #beauty</t>
-  </si>
-  <si>
-    <t>Currently planning our vacay wardrobe because this cardi belongs C-side 🌊🌴🐬
-⠀⠀⠀⠀⠀⠀⠀⠀⠀</t>
-  </si>
-  <si>
-    <t>Chanel Pre-Spring Summer 2023 23P Ready to Wear Video 6! Try On and Review! Channeling Luxury with ~~Dani B 
-This will be my last video for 23P - a very short impromptu video with just a couple of pieces to finalize my 23P videos! Trying on a black C silk top, and a terrible pair of Bermuda shorts with the sweater so many of you wanted to see. Recorded by my beautiful daughter! :) Looking forward to your comments! 
-#chanel #chanelrtw #chanel23p 
-Watch the video here: 
-https://youtu.be/KwV_XJShsnQ
-Unboxing, reviews of handbags &amp; purses, watches, and ready to wear - Chanel, Hermes, Louis Vuitton, David Yurman, Hublot, Rolex, Patek and more! I will unveil new designs, try on clothes as collections come out and share the ins and outs of bags from a unique perspective - someone without an unlimited budget who really wants to wear their purchases! 
-If you are like most of us and do not have an endless supply of cash to fund your passion, this channel is for you! 
-Subscribe for more Channeling Luxury!</t>
-  </si>
-  <si>
-    <t>The lowest wholesale price, the best quality of goods, support free shipping, Paypal payment, if you want to know the price, add my contact information WHATSAPP+8618950702971, we wholesale and retail all kinds of luxury brands (shoes, clothes, hats, belts, etc.) Yes Interest can contact me</t>
-  </si>
-  <si>
-    <t>White gold love 🤍💎 
-📸 asafetypin 
-#212fairy #share #look #style #ring
-#vca #whitegold #diamonds #vancleef 
-#pretty #jewels #diamondring #cute #it
-#fashionista #chanel #chanelbag #likes
-#chanel20k #chanel23s #chanel23p #c
-#classicchanel #flapbag #white #spring
-#tennisbracelet #luxury #march #cuties</t>
+    <t>上身圖
+Vintage backpack
+🖤
+所有版權歸於原創品牌所有並沒有直接跟品牌合作及代售</t>
   </si>
   <si>
     <t>Hello friend, we sell shoes, bags, clothes, belts, hats,
 watches and many other products.
 It has the best service and quality.
-Look forward to hearing from 👜👓👞👠WhatsApp8618596966633</t>
-  </si>
-  <si>
-    <t>🔥Calvin Klein shorts 50€
-•Posta falas, porosia vjen per 5-10 dite
-#blerjeonline #blerje #shitjeonline #shitje #marka #shqiperia #produkte #produkteorigjinale #veshje #veshjeorigjinale #clickonuk #tirana #victoriasecrets #northface #meluizin #pinkvictoriasecret #victoriasecretperfume #victoriasecretangel #lingerie #gucci #prada #balenciaga #balmain #versace #dior #chanel #hermes #ugg #followforfollowback #lovemoschino 
-We are not affiliated, associated, authorized, endorsed by, or in any way officially connected with the brands we illustrate, and those listed on our page.</t>
-  </si>
-  <si>
-    <t>Pink sound in dress.thebrand 
-.
-.
-.
-#dressthebrand #pinkoutfit #outfitinspiration #ootd #outfit #outfitinspo #inpiracionlook #gucci #valentino #bag #ganni #miumiu #chanel #fendi #milano #paris #madrid #barcellona #berlino #fashionstyle</t>
-  </si>
-  <si>
-    <t>هاني حطيتولكم منشور كيما قوتولي باه تقدرو تخبيو لي فوطو و تشريو كيما هذو الكؤوس😍❤️
-#goodevening #goodeveningpost #evening #coffee #coffeetime #chanel #chanellover #lovechanel #explore #explorer #explorepage #gym #foodphotography #foodblogger #foodie #foodgram #foodinspiration #instagood #instagram #instagramfood #recipes #قاطو_بريستيج #حلويات #سهيلة_بن_لشهب #اكلات #اكلات_سريعه #حلويات_العيد #الجزائر #جزائرية #اكسبلور_فولو</t>
-  </si>
-  <si>
-    <t>Birthday Brunch temperancesociety 🎈🎂🥞☕️
-I ordered The Parisian - such yummy french toast and beautifully presented 😍🤤 My sweet tooth was definitely satisfied. YASSS!! Can highly recommend! 🍓🥝🍌🥭🍫 Mum had the Craboulade, which is crab cakes w/poached eggs, quite interesting dish 🦀🍳🥦
-This brunch place is less than 5mins from Chaddy, it’s the perfect pit stop before or after shopping 😛 we went to Hermes after and picked up a few things 🍊🍊 swipe to the end to see!
-👉 My Chanel 23S shopping vlog is now up on my YouTube channel! Link in description 🛍💖 ready for my thoughts on the new collection? 🤔
-P.S. did you notice my shoe change? 🤣👠 because I was already way too overdressed for brunch in my Balmain dress &amp; Birkin 25 😅 I was very surprised my SA actually knew the heels are machandmach and he loves them 🤭🎀
-Oh and mum got color transfer on her Mini Evelyn 😅😅 Shouldn’t be surprised given what she was wearing!!! 🤦🏻‍♀️ but luckily it came out super easily. You can check out my shoe care video if you want to know how to remove color transfer like a pro! 🤍
-Happy weekend!! 😘 
-__________________
-#brunching #melbourneeats #melbournefoodie #melbournebrunch 
-#birkin25 #hermeslover #hermesbirkin #balmain #balmaindress #chanelespadrilles #chanelshoes #chanel23s #shoppingaddict #luxuryshopping #chanel #machandmach #hermesevelyne #hermesrodeo</t>
-  </si>
-  <si>
-    <t>Glowing Flowers: Chanel No5 Springs up 🌼🌼🌼 #stilllife #stilllifephotography #productphotography #perfume #scent #fragrance #chanel #chanelno5 chanel.beauty #chanelbeauty #chanelperfume</t>
-  </si>
-  <si>
-    <t>COCO CHANNEL Ballet production — literally when ballet and fashion intertwine 🤌😍 
-I can’t express how much I miss dancing ballet on stage. Thank you so much hongkongballet septimewebre for this production that not only took me back to my ballerina days, but also portrayed how Chanel overcame so many challenges through an artistic, beautiful way. She truly is ✨iconic✨for her determination and her unbeatable style &lt;3
-photo creds: memoriesinmidnights 
-#cocochanel #hongkongballet #hkballet #chanel #fashion #ballet #pointe #xix #caitlinyang #楊秉頤 #XiX #septimewebre #chanelfashion</t>
-  </si>
-  <si>
-    <t>Last night🍹
-Netværks aften🙌🏻
-Selvom det handler lidt om forretningen så var det sjovt😍
-Bowling - 1 sejr til mig ud af de 2 runder🙌🏻
-Mad - 🍔
-Drink - 🍹
-Alt i alt smilet er stort🤩
-Hvad stod din fredag aften på?💗😎
-#friday#weekend#saturday#lovely#networking#follow#followers#rainbow#cute#pic#picoftheday#day#chill#chanel#gucci#style#fashion#selfie#selfiequeen#glam#glitter#energy#kiss#awesome#photography#photooftheday#photo#instagram#fashion#odense#odensecity</t>
-  </si>
-  <si>
-    <t>Look at me on a blue day
-#blueday #chanel #photoshot</t>
-  </si>
-  <si>
-    <t>Spent my Sunday doing some R&amp;R with CHANEL Le Lift 🖤 Swipe to see who else wanted in on the experience</t>
-  </si>
-  <si>
-    <t>📍Ünvan: Əhmədli - Sarayevo küçəsi.28
-📞 Əlaqə nömrəsi: 070-566-60-06
-✅Şifarişlərinizi Direct ve Whatsappdan verə bilərsiz.
-📱Whatsapp nömrəsi 070-566-60-06
-#shopping #shop #boutique #fashionboutique #style #lifestyle #fashion #baku #azerbaijan #photosession #photoshoot #stayhome #delivery #chanel #louisvuitton #style #white #shoes👠 #bag #hermes #pencek #blogger #koynek #yupka #salvar #bakushopping</t>
-  </si>
-  <si>
-    <t>من أروع التحليات لي درتهم لحد الأن😍بطبقة مقرمشة تقرميش و كريمة خفيفة بدون كريمة سائلة❌️الوصفة على قناتنا Samouha mouha😍❤️
-#goodevening #goodeveningpost #evenin
- #coffee #coffeetime #chanel #chanellover #lovechanel #explore #explorer #explorepage #gym #foodphotography #foodblogger #foodie #foodgram #foodinspiration #instagood #instagram #instagramfood #recipes #قاطو_بريستيج #حلويات #سهيلة_بن_لشهب #اكلات #اكلات_سريعه #حلويات_العيد #الجزائر #جزائرية #اكسبلور</t>
-  </si>
-  <si>
-    <t>#Fendibag#Bag#Guccibag#Chanel#Pradabag#femalebag#streetstyle#Diorbag#Mexico#LosAngeles#lifestyle#Italy#Chanelbag#NewYork#Paris#armani#Clothes#California#LouisVuitton#Australia#USA#Francia#italia#chile#Dior#colombia#gucci#shoes#Fendi#</t>
-  </si>
-  <si>
-    <t>ladygaga as harley quinn during filming of “joker: folie à deux”.
-.
-.
-.
-.
-.
-#ladygaga #stefanigermanotta #harleyquinn #jokerfolieadeux #fashion #womenswear #rtw #runway #movie #film #details</t>
-  </si>
-  <si>
-    <t>#香奈儿#爱马仕#lv #迪奥#古驰#birkin #gucci #hongkong #hermes #kelly #lasvegas #宝格丽#louisvuitton #天津#街拍达人#constance #chanel #留校生高奢侈品#塞琳#巴黎#北京#潮流#卡地亚#铂金包#fendi #恶搞#usa #奢侈品#guccishoes</t>
-  </si>
-  <si>
-    <t>We are a wholesaler, here has the best price, fastest shipping and most professional service, if you are interested in my products, please contact my WhatsApp: +86 15080190129</t>
-  </si>
-  <si>
-    <t>lastest makeup favs
-#makeuplover #makeupproducts #pinkaesthetic #cozyaesthetic #pinterestaesthetic #pinterestinspired #pinterestideas #chanel #chanelmakeup #parisianamour #parisianvibes #thecoldsoul #estbysol #estetvisual #aestbyheart #theglamory #thenoisetier #nooart #llemerci #aesthetics #myaesthetic</t>
-  </si>
-  <si>
-    <t>Hello, Scented Ones!
-— Scents of the Week —
-Be sure to check my Instagram feed each day this week to hear my thoughts on each of my scents of the day this week!
-😊Words of Encouragement😊
-I hope you’re having a great day! Be sure to take a moment today to remember how beautiful you are. Find a mirror and tell yourself that you’re beautiful. I hope it makes you smile. It should, because it’s true! I hope you have an incredible rest of your day!
-Love yourself, love one another, and love how you smell!
-(Pictured fragrances were purchased by me and were not gifted.)
-#fragrances #fragrance #fragrancereview #reviews #selfcare #selfbeauty #encouragement #loveyourself #fraghead #fragranceaddict #fragrancejunkie #fragrancefanatic #mrcologne76 #mrcologne76perfumeblog #fragrancearmy #fragrancelover #collage #fragrancecollection #fragrantica #fragcomm #fragcom #perfume #parfum #calvinklein #christiandior #creedfragrances #dolcegabbana #chanel #aaronterencehughes #antoniopuig</t>
-  </si>
-  <si>
-    <t>Fresh Look , Fresh Frag. 🌞 
-#sotd Chanel Allure Homme
-His allure, or pace, is determined, but lightsome. #chanel
-#fragrancecollections #smellinggood #feelinggood #fragrancelovers #designerfragrances #wearwhatyouwant #beyourself mikeysbarbershopla ✂️</t>
-  </si>
-  <si>
-    <t>Hermes 現貨
-🐎Rodeo小羊皮手工馬兒吊飾
-PM小尺寸，為您的愛包增添一點可愛的元素😍
-馬鞍內部刻印、三拼色，細節精細展現極致的手工品味，送禮自用都很適合，各位養馬人快私訊我們吧🥰
-NTD.18000
-#代購 
-#chanel #chanel代購 #香奈兒 
-#hermes #愛馬仕 #愛馬仕代購 
-#poph #項鍊 #rodeo #hermesrodeo #charm #飾品 #womenstyle 
-#女生穿搭 
-#精品代購 #精品 
-#勞力士 
-#lv代購 #lv #louisvuitton #louisvuittonbag 
-www.ginkgold.app</t>
-  </si>
-  <si>
-    <t>#lv #gucci #YvesSaintLaurent  #Chanel #luxury #luxurybags #shoes #clothes #bag #eyeglasses #Belt #cap #jewellery #Balenciaga #off #table #Men'sshoes #Women</t>
-  </si>
-  <si>
-    <t>🔥 Design art by oxanagoralczyk 
-#fashionart #fashiondesign #artwork #aestheticfashion #aesthetic #vestidonegro #chanel #altamoda #altacostura #hautecouture #pleateddress #avantgarde #victorianfashion #tailoring #sewing #coutureart</t>
-  </si>
-  <si>
-    <t>zara jillstuart.jp ferragamo chanelofficial beams_official 
-#ootd #zara #jillstuart #ferragamo #ferragamobag #ferragamoheadband #chanel #chanelearrings #chanelnecklace #beams 
-cafe_michelangelo #michelangelo 
-#daikanyama ㅤ
-ㅤ
-ㅤ
-#tweedjacket #ツイードジャケット #parisfashion #ジャケットコーデ #デニムコーデ #カチューシャ #zarawoman #zaraoutfit #zarastyle #ジルスチュアート #きれいめカジュアル #大人コーデ #きれいめコーデ #海外ファッション #春コーデ #春服 #ミケランジェロ #代官山カフェ</t>
-  </si>
-  <si>
-    <t>CHANEL Spring-Summer 2023 Ready-to-Wear Campaign - behind the scenes ❤️
-📸:smagazineofficial , hairbyadir 
-"Kristen Stewart is the person who reminds me most of Gabrielle Chanel,” says Virginie Viard, “she is also an actress who is very loyal to CHANEL, she has a very special relationship with the House. When I first met her in 2013, it was instant. I’ve always been fascinated by her face, her attitude… And she understands CHANEL clothing so well.” 
-Authentic connection is important to Virginie Viard and Kristen Stewart’s relationship with the Maison and inspired a fresh interpretation of the classic house references. “Whether it’s her, or the other women I dress, I need to feel that they like the clothes anyway. But, of the people around me, she is the closest to Gabrielle Chanel, at least to my idea of her. She understands CHANEL, its clothes. And with her, it becomes even more modern. This collection, it’s also her,” said Viard.</t>
-  </si>
-  <si>
-    <t>😎
+Look forward to hearing from 👜👓👞👠WhatsApp8619359441469</t>
+  </si>
+  <si>
+    <t>There’s a real beauty in balance. 
+Growing up I had a few bottles of fragrance that I had gotten for Christmas and Birthdays and such, but a majority of the time I relied on my dad’s collection and sprayed from it regularly. Fast forward to when I was just getting ready to move out of state and away from home following Community College, one day I was window shopping and came across this then, fairly new release called Allure Homme by Chanel. I fell in love with that fragrance. That day I ended up buying it, my first bottle of perfume ever. I love it so much. I lost track of how bottles I’ve gone through. 
+I had never smelled anything like it and haven’t since. In my opinion it’s perfect. At least it’s perfect for me. It’s perfect in Spring, it’s perfect in Summer, it’s perfect in Fall and Winter. It works brilliantly during the day, is ideal for the office, shines at night and like the title states it’s alluring in those date night situations. 
+This isn’t overly bright, but has a Rich Juiciness that gets topped with a gorgeous Aldehydic Sparkle. It has a Soft, Smooth Creaminess that’s backed by a Light, but Solid Woodiness. There’s a fine grit Spice that’s paralleled by a velvety texture. And finally it has a beautiful Muskiness that’s in the mix. This is impeccably blended and all of these elements are active and play harmoniously with one another. It’s the best balanced fragrances that I’ve experienced. This fragrance makes me feel excited, ready for anything, yet calm and confident, where I’m able to be still and drink in the moment. 
+I know that this is less of a review and more me just raving about something I love, but this is hands down my all-time favorite fragrance. I know that much of that for me is probably associated with memories. As you could probably tell this was more or less a signature scent for me during the part of my life when anything was possible. But, I do think that I’d be able to smell this today and still be as big of a fan of it. I don’t think I’ve ever used the word Masterpiece, but for me to date this would be the one and only Masterpiece.
+If you could only label one fragrance as a masterpiece which one would it be?</t>
+  </si>
+  <si>
+    <t>[📑] JENNIE, Twitter'da dünya çapında 4. sırada yer alıyor. En yüksek trend olan ve ilk 5'te yer alan TEK üye konumunda!
+• JENNIE is trending  WORLDWIDE on Twitter. She is the highest trending BP member and she is the ONLY member in the TOP 5.</t>
+  </si>
+  <si>
+    <t>things are not always as we paint them, their embodied colors tell their own story  Photo by:
+.. 
+.. 
+.. 
+.. 
+.. 
+.. 
+🇨🇺🍉🌻
+   🇨🇺</t>
+  </si>
+  <si>
+    <t>Extracurricular, Birthcare Center, Beyond Evil ve The King’s Affection gibi dramalarda yer alan Güney Koreli oyuncu ve model Nam Yoon-su Hyunji’nin JENNIE ile ilgili paylaşımını beğendi!
+[ENG]
+South Korean actor and model Nam Yoon-su, who has appeared in dramas like Extracurricular, Birthcare Center, Beyond Evil, and The King's Affection, liked Hyunji's post about JENNIE!</t>
+  </si>
+  <si>
+    <t>Designer Exclusives 
+Babycat yslbeauty 
+Oud Radieux cartier 
+The Voice Of The Snake guccibeauty 
+Ambre Nuit diorbeauty 
+31 Rue Cambon chanel.beauty 
+.
+.
+Are you a fan of designer exclusives fragrances? What is your favourite brand ? 
+.
+.
+.
+.
+Have a great day ☕️</t>
+  </si>
+  <si>
+    <t>👑👸🏽⭐️ Never give up on your dreams. 
+Have a Nice Week everyone!</t>
+  </si>
+  <si>
+    <t>"🎈Hi, WhatsWpp:📞+86 15759905991</t>
+  </si>
+  <si>
+    <t>.
+私の親友♡
+リンクコーデでお出かけしたよ🚃💨
+#ななひな#植物園</t>
+  </si>
+  <si>
+    <t>Today
+dotwillow , the Nomad Model.
+Beatiful Daria... altough models are travelling all the time, Daria really is the nomad model, born in Ukraine, raised in Canada, once trabeled to Peru to lived for months with an indegenous family and ended up living with her boyfirend in Ireland.Probably one of the most carismatic, enigmatic, lovable and misterious models ever. From her statuesque body, her bright almost purple eyes, her kind smile, her face, I could never forget that beatiful face, and her magnetic! yet peaceful and high vibrating aura, there is nothing not to love about Daria. She became one of the biggest models in the industry, not just of her era, of all of time, and during the prime of her modelling career, Karl was right next to her. Daria scored 3 Chanel campaigns, SS 2005, FW 2005 and SS 2006. She also opened 2 shows for Karl, Fendi FW 2006 and Chanel SS 2007. Cheers Daria.
+dotwillow closing the chanel SS 2005 show.
+Videos, fashionchanneltv, Youtube</t>
+  </si>
+  <si>
+    <t>sofiarichie wore not one, but three dresses for her wedding over the weekend. The model and daughter of Lionel Richie tied the knot with Elliot Grainge, a British record executive, in the south of France. 🤍
+MORE photos at the link in bio.</t>
+  </si>
+  <si>
+    <t>A little something to steam up your Monday morning 💋 
+📸: greglarro</t>
+  </si>
+  <si>
+    <t>St. Barths • Outfit Olympics 
+Everything linked exactly on my LTK - linked in my bio 
+ShopLTK.com/explore/ambervenzbox</t>
+  </si>
+  <si>
+    <t>Thank YOU 🩷 to everyone 
+for all the beautiful birthday wishes ✨️
+the gifts, the hugs, the kisses and squishes!! 🥰
+YOU made my day 🫵🏼
+______________________
+جزاك الله خيرا 🌸
+for the gOrgeous bouquet khatijacarrim 
+May الله fill your home with love &amp; laughter
+ 🥰              
+الحمد لله 🩷</t>
+  </si>
+  <si>
+    <t>샤넬 귀걸이
+   #샤넬 #샤넬귀걸이 #패션귀걸이 #귀걸이 #귀걸이추천 #데일리귀걸이 #명품귀걸이 #패션추천</t>
+  </si>
+  <si>
+    <t>雨なので全身真っ黒〜🖤
+まだ水曜なのに疲労困憊だ😮‍💨
+明日は在宅で助かったー💦
+tops  
+pants  
+shoes  temperate64 
+bag #アンテプリマ
+earring  
+necklace</t>
+  </si>
+  <si>
+    <t>#日落 #写真部 #写真好きな人と繋がりたい                        #周迅  #ジョウシュン  #저우쉰  ̂utấn</t>
+  </si>
+  <si>
+    <t>Wondering if I should book a trip to 🇰🇷 today or tomorrow… 🙈
+⠀
+⠀
+⠀
+⠀
+⠀
+⠀
+⠀
+⠀
+⠀
+⠀
+⠀
+⠀
+⠀
+🏷
+⠀
+⠀
+minimalist, minimalism, dior, vanities, vanity, beauty, niche, chanel, beaute, luxe, hermes, diptyque, interiors, home decor, skincare, makeup</t>
+  </si>
+  <si>
+    <t>Hello? Forgot I existed????
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>THATS SO HER COLOUR 🦋</t>
+  </si>
+  <si>
+    <t>love an old money man 
+chanelofficial chanel.beauty send me a bottle when it releases will u?
+ éechalamet</t>
+  </si>
+  <si>
+    <t>It’s been a minute…this is what I’m wearing. 
+Figuring out my post-pandemic, RTO style has been a real struggle. Definitely not going back to the pre-pandemic looks but need to get away from sweats everyday, so here’s where we land. And yes I’m fully embarrassing that ‘bonus’ mom je ne c’est quoi</t>
+  </si>
+  <si>
+    <t>rosegold chanel💕</t>
+  </si>
+  <si>
+    <t>The happiest people
+forgive, forget, love, help, care, smile.
+The happiest people are the givers,
+not the takers.
+-Sahiba</t>
+  </si>
+  <si>
+    <t>[19 April 2023] Jennie @ BLACKPINK Carpool Karaoke on Late Late Show with James Corder's YouTube
+jennierubyjane x gentlemonster maisonmargiela x chanelofficial x foundrae latelateshow j_corden x youtube
+Details : 
+Gentle Monster x Maison Margiela Collection
+Maison Margiela – MM003 01
+USD 450 | MYR 1,997
+COCO CRUSH RING
+Quilted motif, large version, 18K yellow gold
+USD 3,865 | MYR 17,150
+COCO CRUSH RING
+Quilted motif, 18K BEIGE GOLD. Mini version.
+USD 1,588 | MYR 7,050
+COCO CRUSH RING
+Quilted motif, small version, 18K white gold
+USD 2,918 | MYR 12,950
+COCO CRUSH RING
+Quilted motif, small version, 18K white gold, diamonds
+USD 5,350 | MYR 23,750
+FOUNDRAE
+Belcher Chain
+USD 4,685 | MYR 20,792
+FOUNDRAE
+Dream Gemstone
+USD 1,950 | MYR 8,654
+🔍 
+🔍 
+🔍 
+🔍 
+🔍 
+BLACKPINK CARPOOL KARAOKE 
+🌟       
+  #제니 #ジェニ #金珍妮   #블랙핑크 #ブラックピンク</t>
+  </si>
+  <si>
+    <t>CHANEL チャネル
 .
 .
 .
 #写真好きな人と繋がりたい 
 #いいね返し 
-#fashionstyle 
 #ファッション 
-#follow 
-#followme 
-#beautiful 
 #かわいい 
-#japanese #japan 
-#japanesegirl 
 #筋トレ女子 
 #腹筋女子 
 #时装 #日文 
-#簡單生活 #cute 
-#beauty #portrait 
-#photography 
-#instagood 
-#instagirls 
-#love #followme 
-#followforfollowback 
-#beauty 
-#chanel #brand 
-#masakisuda 
-#美しい #小松菜奈</t>
-  </si>
-  <si>
-    <t>STILL LIFE EXPLORATION 0004
-#artdirection #stillifephotography #portrait #photography #studiolight #gold #makeup #chanel #chanelmakeup</t>
-  </si>
-  <si>
-    <t>#decisions 🤔#fendi #miumiu #thefrankieshop #chanel #jacquemus  #fashionaddict #ootd #outfit #outfitoftheday #picoftheday #potd #look #lotd #lookoftheday #wuerzburg #vintageclothing #vintagestyle #vintagefashion mainstylevintage #würzburg #love #hettstadt #outfitinspiration #outfitinspo #outfitstyle #style #instagood #happy #fashionblogger</t>
-  </si>
-  <si>
-    <t>I might take break from posting all the negative comments are kinda taking a drag on me 
+#簡單生活  
+#美しい #小松</t>
+  </si>
+  <si>
+    <t>❤️‍🔥
+margot.robbiee_</t>
+  </si>
+  <si>
+    <t>Chanel ✨
+New journey</t>
+  </si>
+  <si>
+    <t>FIRE💥🔥🔥🔥🔥🔥 SCROLL👈🏼 MORE AVAILABLE DM NOW😍
+PAYMENT PLANS 👏
+CREDIT CARD ACCEPTED 💳
+SHIP DAILY📦📫
+ALWAYS 100% GUARANTEED AUTHENTIC 💯</t>
+  </si>
+  <si>
+    <t>I’m not breathing 🫠 tchalamet 
+ éechalamet</t>
+  </si>
+  <si>
+    <t>I’ve got weekend vibes on my mind! 
+hotelarras</t>
+  </si>
+  <si>
+    <t>Gucci - Handbags
+DM me if interested
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>いつもはヒールの高さと歩きやすさ重視だけど、今年の夏はぺたんこ大集合♥︎
+       #マタニティライフ</t>
+  </si>
+  <si>
+    <t>DMC Media Market Insight Service shows that amongst luxury brands Chanel ranks  in Korea and is overwhelmingly popular online, an effect mainly from Jennie who has their global ambassador since 2017 and her activities (posts, show attendance)
+- Blackpink Jennie, Chanel global ambassador since 2017
+- Jennie’s influence, such as ambassador activities and posts mentioning products, etc.
+- Jennie at Chanel show in 2022 attend…Created 4.3 billion influence at the time
+Haduhhh pantes si Chanel posesif bener 🤭🤭🤭
+ ̇nkjenni̇e      #제니 #블랙핑크제니</t>
+  </si>
+  <si>
+    <t>Lovely Vanessa looks a little coquette and a little naive in the photos taken by Garcia in November 1988 ❤</t>
+  </si>
+  <si>
+    <t>Upgrade your home decor game with these luxurious Hermes blankets in classic shades of brown, blue, and red. The perfect addition to any room, these blankets will add both style and comfort to your space. Get yours today at Penthouse Supply for only $49 with free shipping - trust us, your home (and your snuggle game) will thank you!
+Link in bio
 -
 -
 -
 -
 -
+-</t>
+  </si>
+  <si>
+    <t>Love a comfy Caftan…
+Hawaiian nights in zimmermann</t>
+  </si>
+  <si>
+    <t>🤍
+21系列
+Item number: 2482
+Size: 19x15x7cm
+Price: $2400
+更多圖片及詳情歡迎DM查詢~</t>
+  </si>
+  <si>
+    <t>[ Coco working at her Paris atelier in 1962 ]
+"I don’t do fashion. I am fashion."
+- Coco Chanel
+Coco Chanel famously lived her life according to her own rules. Her musings on elegance, love, and life are as timeless as her classic Chanel designs. 
+For  Day 4️⃣ [ Coco Chanel ] hosted by ishtar.byronbay
+*Generated by AI with  and  5 expressive style*</t>
+  </si>
+  <si>
+    <t>【information】
+NEW YORK JOE expensiveは4月29日(土)12:00〜20:00にOPEN致します。
+※NEW YORK JOE expensiveは限られたスペースの関係上NEW YORK JOE EXCHANGE各店、aNiKiのメンバーズのお客様とそのお連れ様のみご入場可能となります。予めご了承ください。
+【expensive items】
+Vintage CHANEL Linen 2PC / ¥74,580-
+#東京ビンテージ</t>
+  </si>
+  <si>
+    <t>⚪️ AVAILABLE!
+Pochette Twin GM
+FL0051 - Made in France | May 2001
+$399 + FREE SHIPPING!
+Vachetta has an even caramel patina with some watermarks and dryness. Canvas is thick, sturdy, bright, and vibrant with proper structure. Hardware is bright gold. Snap closure works properly. Interior has some signs of use and some rubs at the edges. No foul odors. Bag with detachable strap only - no inclusions. Please see all photos/videos for details.
+📏 DIMENSIONS: 9.5 x 4.5 x 1.25 inches / 20-22 inch strap drop
+🛍 TO PURCHASE: Please be payment-ready and send a PM with your PayPal email address for invoicing. Feel free to also comment “PM sent” on this post - this will help ensure I don’t miss your message!
+.
+.
+.
+.
+.
+As a friendly reminder, Happily Ever Handbag, LLC is a licensed reseller of authentic preowned items, and is not affiliated with any brands mentioned within our page. All copyrights and trademarks are property of their respective owners. Price includes PayPal and shipping fees within the USA. Orders shipped to NJ are subject to 6.625% sales tax. All sales are final. No refunds or exchanges.</t>
+  </si>
+  <si>
+    <t>Simple and timeless bridal look of sofiarichie ✨</t>
+  </si>
+  <si>
+    <t>⚠️聲明：aleksandr668855跟任何品牌無關，而且沒有持有圖中任何版權。所有商標及版權均屬於圖中品牌商標持有人，此貼只做分享用途
+⚠️Disclaimer: aleksandr668855 has nothing to do with any brand and does not hold any copyright in the picture. All trademarks and copyrights belong to the brand trademark holder in the picture. This post is for sharing only.</t>
+  </si>
+  <si>
+    <t>Orange Freestyle 🧡
 -
+elegancenailsupply 
+-Citrus 
+-Amour 
+-Ultra Gloss Topcoat 
+Code 🧡 LITZY 🧡
 -
-#girlblogger #lanadelrey
-#lilyrosedepp #femalefatale #malsdiary #femalemanipulator #whispermeme #coquette #aesthetic #pinterest #malxoo #relatable #dior #softcore #dollette #explore #explorepage #coquetteaesthetic  #coquettegirl #pinterestgirl #chanel #444 #222 #messyfrenchgir #discoverunder100k #discoverunder50k  #coquettecore #oldmoney #girlbloggeraesthetic #coquettedoll</t>
-  </si>
-  <si>
-    <t>makeup = therapy 
-.
-.
-.
-#makeup #makeupoftheday #beauty #charlottetilbury #dior #fentibeauty #rarebeauty #chanel #makeupproducts</t>
-  </si>
-  <si>
-    <t>S U N D A Y  M O O D  mit schönstem couchtisch ✨🐊 
-📷 9er_art 
-#KROKO #couchtable #iconic #shopwellmakeitlast #stayartsy #minimalism #willkommenimclub #artcanbreakyourheart #handmade #madeingermany #smalllabel #chanel #interiorinspo #solebich</t>
-  </si>
-  <si>
-    <t>Ouuu that's me 🙈😝🤭
-Comment your fav</t>
-  </si>
-  <si>
-    <t>Back to black🖤
-•
-•
-•
-#chanel #yslbeauty #darkfeminine #moodyaesthetic #aestheticpage</t>
-  </si>
-  <si>
-    <t>if you love this! ❤️Rate it 1-10..!! 
-• Follow us now for daily trending fashion!
-• Follow us</t>
-  </si>
-  <si>
-    <t>𝐀 𝐍𝐞𝐮𝐭𝐫𝐚𝐥 𝐀𝐫𝐞𝐚 𝐖𝐢𝐭𝐡 𝐂𝐫𝐞𝐦𝐞 𝐒𝐨𝐟𝐚 🤍
-.
-With a fluidity resembling the organic shapes of the finest whipped cream over a hot and delicious latte, the Crème Sofa has a distinctive wavy and continuous design. This sublime piece of upholstery is not only aesthetically pleasing to the eye but also a comfortable and indispensable item to a modern living room. A modern project designed by pascale_hakimeh.
-.
-Download For Free Our Neutral Modern Inspirations Book | Link in bio 🔗
-.
-#CaffeLatteHome #moderndesign #modernrealestate #Insplosion #chanel #cartier #millionairesdesign #germany #berlin #italianfurniture #livingroom #furniture #decoration #luxury #interiordecor #inspiration #furnituredesign #livingroom #livingroomdecor #livingroomdesign #sofa #luxurysofa #neutraldecor #modernhomedecor #interiordecorating #style #instagood #luxurylifestyle #luxuryhomes #pascalehakimeh</t>
-  </si>
-  <si>
-    <t>T-shirts 🛍️ SHOP
-CLICK🛑SHOP - www.QuestionLook.com 🇫🇷
-questionlook</t>
-  </si>
-  <si>
-    <t>Lifetime Magazine is at the WatchesandWonders 2023 event, where top brands are unveiling their latest creations. CHANEL presented a very sci-fi collection, intersecting with the brand’s code elements, in timepieces like the lovely Pique-Aiguille models from the Mademoiselle Privé collection, the Lion Collection, the J12 Interstellar and Cosmic with Super-Luminova dials, the Matrix-style design of J12 Hyper Cybernetic or the exquisite Premiere X-Ray, available in 10 pieces, with an innovative, surprising crystal, gold and diamonds bracelet and a white gold case. 
-Discover them all on LifetimeMagazine.co
-Photographer: Marius Michailov
-Lifetime Magazine is a European watch magazine, with top-quality, innovative content. Find us at press points across Germany, Austria, Switzerland and, in English, globally.
-#watchesandwonders #watchesandwonders2023 #IntheCity2023 #lifetimemagazine #lifetime_magazine #chanel #novelties #geneva #live #news #horologerie</t>
-  </si>
-  <si>
-    <t>true
-FOLLOW relatableshtx FOR MORE CONTENT LIKE THIS. 
-✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧ ✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧
-Pinterest, Pinterest inspiration, food, coquette, coquette aesthetic, aesthetic, cottage core, nature, Chanel, Dior, makeup, coquette, disty, girly, princess, fashion manifest, lifestyle, quotes , luxury lifestyle , dark feminine aesthetic, Paris , New York , spring , fit , ootd
-✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧ ✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧
- #Girlblogger #lanadelrey #lilyrosedepp #femalefatale #sigmafemale #femalemanipulator #whispermeme #coquette #aesthetic #pinterest #femcel #relatable #dior #softcore #dollette #explore #explorepage #coquetteaesthetic #coquettegirl #pinterestgirl #chanel #blackcoquette #blackgir|magic #messyfrenchgirl #lizzygrant #coquettecore #oldmoney #coquettedoll #lanadelrey #lanadelreyquotes #reels</t>
-  </si>
-  <si>
-    <t>🔗
-.
-.
-.
-#aesthetic #aestethically #details #pinterest #pinterestaesthetic #aestethicfeed #styleblogger #vsco #discoverrunder10k #chanel #creater #createrroom #journal</t>
-  </si>
-  <si>
-    <t>We wholesale and retail clothes, shoes, bags, etc. Free shipping, (FedEx, DHL, China Post) If you want to buy or consult, please add my whatsapp+8618950702971</t>
-  </si>
-  <si>
-    <t>I still love the gate #5, how about you??? chanelofficial hirshleifers #chanel #chanelshoes</t>
-  </si>
-  <si>
-    <t>Because Wan Chai market is the best; even the stallholder’s checked shorts is a vibe 😀.
-Swipe for more rainy day street scenes #hongkong #wetmarket 
-#visithongkong #asiasworldcity 
-.
-.
-.
-.
-.
-#asianfood 
-#mystyle #chanel #chaneldenim #styleoftheday #currentlywearing #ootd #wiw  #styleinspiration #instastyle #fashiondaily #fashionable #fashiongram #stylegram #fashiondaily #holidaystyle #fashionblogger #instalook #currentlywearing #personalstyle #discoverunder30k #ighk #streetstyleluxe #styleupyourlife</t>
-  </si>
-  <si>
-    <t>👸🏻🌺
-#carolinademonaco #carolinedemonaco #gracekelly #monaco #montecarlo #beautiful #princess #royal #royalty #royalfamily #fashion #style #chanel #baldelarose</t>
-  </si>
-  <si>
-    <t>If you are interested in my products, please add my contact  whatsapp+8618950702971. The best quality, the best service, the lowest price, we wholesale and retail shoes, bags, clothes, glasses, etc.</t>
-  </si>
-  <si>
-    <t>#Pinterest #tiktok #Chanel #paris #France #music #lanadelrey #nyc #Dior #aesthetic #fashion #vintage #2000 #90s #whisper #models #influencers #style  #chic #mentathealthmatters #bellahadid #lilyrosedepp  #Prada #viral #explorepage #2022#classic #pink #girl-boss #music #coquette</t>
-  </si>
-  <si>
-    <t>Black On Yellow🐝🥷🏿 
-126333
-Unworn 2022 Yellow Gold Datejust 41MM With A Black Dial!😍</t>
-  </si>
-  <si>
-    <t>Spring is coming 🌸🌸🌸 #chanel#chanelmakeup#chanelbag#chanelclassic #chaneladdicted #シャネル#シャネルコスメ #シャネル好き #オシャレ#fashion#写真好きな人と繋がりたい chanel_we_love chanelinternational chanellover chanel_community iiheartchanel@chanelfrenchboy@boyswearchanel #chanellover #chanelinternational #iiheartchanel#boychanel#whatsinyourvanity #vanitycase #insidechanel#chanelgabrielle#白#fleurflower#white#beauty#life#写真好きな人と繋がりたい #insposwl#chanelwelove#chanelfrenchboy#chaneljacket</t>
-  </si>
-  <si>
-    <t>Blazer massimodutti 
-Pants &amp; Boots zara 
-Bag coperni 
-Shades averciniofficial 
-#Paris #Parisoutfit #Parisoutfitinspo #minimalisticstyle #oldmoney #parisian #parisstreetstyle #parisstyle #Majeparis #Scandinivian #blond #blondgirl #scandiniviangirl #feathershirt #featheroutfit #blackjacket #chanel #chaneloutfit #Dysonairwrap #fashioninspo #streetstyle #parisianstreetstyle #massimodutti #zara #zarastyle</t>
-  </si>
-  <si>
-    <t>24 hours customer service reply, we wholesale and retail high-quality clothes, shoes, bags, etc. Free shipping, (FedEx, DHL, China Post) If you want to buy or consult or resell, please add my whatsapp+8618950702971 chat</t>
-  </si>
-  <si>
-    <t>i'm a headless heartless creature
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-#blackswan #heroinechic #katemoss #chanel #dior #lilyrosedepp #buffalo66 #bellahadid #coquette #dollette #maneater #itgirl #meganfox #lanadelrey #parishilton #frenchchic #paris #alanachampion #fashionshow #nfr #pfw #whispers</t>
-  </si>
-  <si>
-    <t>We want you to get the bag wherever you are, so we rounded up the most popular designer purses in cities around the world — in case you have travel plans coming up. 👛 Swipe to see our selections, and shop them at our 🔗 in bio.</t>
-  </si>
-  <si>
-    <t>If you want to buy something, my contact information is WhatsApp8613799007557
-please contact me. We retail and wholesale all kinds of luxury brands,
-clothes, glasses, belts, bags, etc. 100% integrity management,
-free delivery of goods to all over the world, PayPal secure transaction,
-I am your best choice, I am very happy to do business with you, and look forward to your consultation</t>
-  </si>
-  <si>
-    <t>𝓜𝔂 𝓶𝓸𝓼𝓽 𝓮𝔁𝓹𝓮𝓷𝓼𝓲𝓿𝓮 𝓬𝓱𝓪𝓷𝓮𝓵 𝓶𝓪𝓴𝓮𝓾𝓹 💄
-~934 €
-#chanel #chanelbeauty #beautytesting #highendmakeup #beautyaddict #makeuponfleek</t>
-  </si>
-  <si>
-    <t>昨日の雨の日コーデ☔️
-デニムが使いやすくて白も追加しちゃった🐻‍❄️🤍
-Jacket/blouse _bluelea_ 
-pants maisonmargiela 
-bag chanel
-shoes gianvitorossi</t>
-  </si>
-  <si>
-    <t>If you want to know the price, add my contact information WHATSAPP+8618950702971, we wholesale and retail all kinds of luxury brands (shoes, clothes, hats, belts, etc.) the lowest wholesale price, the best quality of goods, support free shipping, paypal payment, yes Interest can contact me</t>
-  </si>
-  <si>
-    <t>¿MORTALIDADE?
-#SLOWLIVING #AFRIQUEDUSUD #LUJO #GUCCI #CHANEL #FOTOGRAFIA #ART #DISENOGRAFICO #AFRICANA #PHOTOGRAPHY #INSTAGRAM #SLOWLIFE #DESIGN #GRAPHICDESIGN #CREATIVE #ARTISTIC #FILM #BLACK #BLACKANDWHITE #GALLERY #LIFE #CONTEMPORARY #CAPETOWN #BLOEMFONTEIN #SOUTHAFRICA #JOHANNESBURG #DURBAN #PRETORIA</t>
-  </si>
-  <si>
-    <t>All hail the “Renaissance”, by SzilveszterMako for Numéro! TaraHalliwell is styled by LisaJarvis_Stylist in DelCoreOfficial (picture 1), AlexanderMcQueen (picture 2), ChanelOfficial and MaisonMargiela (picture 3) and Moschino (picture 4). 
-Hair: MassimoDiStefanoHair
-Make-Up: Vanessa.Icareg
-Set Design: Edith.DiMonda
-Photography Assistant: GianlucaMalavolta
-Fashion Assistant: Vania.Monteiro
-Full story in Numéro 237, available on newsstands. Link in bio to get your digital copy. 
-#TaraHalliwell #SzilveszterMako #LisaJarvis #DelCore #AlexanderMcQueen #Chanel #MaisonMargiela #Moschino</t>
-  </si>
-  <si>
-    <t>#lv #gucci #YvesSaintLaurent  #Chanel #luxury #luxurybags #shoes #clothes #bag #eyeglasses #Belt #cap #jewellery #Balenciaga #off #table #Men'sshoes #Women'sshoes #men</t>
-  </si>
-  <si>
-    <t>If you want to buy something, my contact information is WhatsApp8615860017277
-please contact me. We retail and wholesale all kinds of luxury brands,
-clothes, glasses, belts, bags, etc. 100% integrity management,
-free delivery of goods to all over the world, PayPal secure transaction,
-I am your best choice, I am very happy to do business with you, and look forward to your consultation</t>
-  </si>
-  <si>
-    <t>like russian girl 💕_binema
-#russian #russiangirlmodel #russianmakeup #sephora #sephora #dior #diormakeup #diorproducts #chanel #chanelmakeup #toofaced #mac #maccosmetics #maclipstick #nars #narscosmetics #narsfoundation #anastasiabeverlyhills #abh #inglot #inglotcosmetics #lip #lipgloss #charlotetilbury #blush #highlifter #beccacosmetics #fentybeauty</t>
-  </si>
-  <si>
-    <t>I am a wholesaler of brand products, if you need to buy, please add my whatsapp+8618100591850 (the best quality here, the cheapest price) consultation, I have many products, such as bags, shoes, clothes, belts , Watches, etc., please contact my whatsapp, we accept PayPal and Western Union payment, free shipping via DHL, 7-12 days to arrive, thank you for your support</t>
-  </si>
-  <si>
-    <t>Happy birthday to my Baby
-2years old 小黃baby 
-Love ❤️ you
-#2023 #tbt #selfie #like4likes #ootd #photooftheday #swag #wcw #followforfollowback #love #me #follow #tagforlikes #instagram #instagood #art #trivalley #girl #photo #photography #chanel #artist #cool #foddie #cat #catlover #garfield #加菲貓 #miumiu#yellowcat</t>
-  </si>
-  <si>
-    <t>The reason why you should buy me Chanel.
-#chanel #love #lovelife #oldmoney #fiftyshades #tied #ribborn #cocochanel #beauty #sheisbeautysheisgrace #xoxo #gossipgirl #bdsmcommunity #bdsmslave</t>
-  </si>
-  <si>
-    <t>I look so good in Red 🥰 these photos need no further edits ✨ loves it! kyliemeowofficial #kyliemeow</t>
-  </si>
-  <si>
-    <t>Allure Homme Sport Eau Extreme is a flanker of the original Allure Homme Sport fragrance, and it is a more intense and powerful version of the 2004 release. While the original Allure Homme Sport is a fresh and sporty fragrance with citrus and aquatic notes, Allure Homme Sport Eau Extreme has a more complex and sophisticated composition, making it less of a summer office scent and, for me, more appropriate for the Spring.
-The opening of Allure Homme Sport Eau Extreme is a burst of fresh and zesty notes, absolutely reminiscent of AHS. The heart is where I think this diverges, adding more tonka and more woody notes. 
-Compared to the original Allure Homme Sport, Allure Homme Sport Eau Extreme is richer, more complex, and has a longer-lasting projection (although it’s not what I’d call a beast). The original Allure Homme Sport is more suitable for casual and daytime wear, while Allure Homme Sport Eau Extreme is better suited for formal and evening occasions.
-Overall, Allure Homme Sport Eau Extreme is a hall of famer a decade later. Always in my rotation in the Spring!
-#perfume #perfumes #perfumecollection #frag #fragrance #fragcomm #fraghead #fragrances #fragancias #fragfam #lux #luxe #parfum #perfumecollection #perfumelovers #scent #perfumeaddict #scentoftheday #perfumelover #eaudeparfum #fragrancelover #parfume #perfumeshop #fragrancecollection #perfumery #sotd #chanel</t>
-  </si>
-  <si>
-    <t>tontawan so expensive rich girl 😍❤‍🔥
-Follow her 1st project as gorya main leads of F4 Thailand: Boys Over Flowers, a Thai adaptation of popular Japanese manga Hana Yori Dango, you can watched in platform viu
-2nd her project as kongkwan in 10 YearsTicket, you can watched in platform true id or vidio 😍
-Don't forget her cameo as bee (as villain) in midnight museum ini viu 😍
+txnailsupplies 
+-XL Straight Tapered Squared Tips 
+-Pink Glue 
+Code 🧡 LITZYTEN🧡 
+-
+bluestreakcrystals 
+Code 🧡 LITZY 🧡
 -
 -
 -
@@ -1388,77 +563,1468 @@
 -
 -
 -
-#chanel
-#chanelboutique
-#tontawan #tontawantantivejakul #tontawan_t #ต้นตะวัน #ต้นตะวันต้นติเวชกุล #tutontawantantivejakul #intuyou #babymonster  #primchanikarn #newjeans #freenbecky #newjeans #primiily #dew_jsu  #dewjirawat #instadaily #dewjirawatsutivanisak #bbrightvc #brightvachirawit #winmetawin  #jennaortega #winmetawinopasiamkajorn  #fyp #trendpost #likeforlikes #likeforfollow #thailand🇹🇭 #followforfollowback #fashion</t>
-  </si>
-  <si>
-    <t>⚪️⚪️⚪️🔘🔘
-#chanel #vintagechanel #chanelearrings #vintageearrings #vintageboutique</t>
-  </si>
-  <si>
-    <t>We have a professional customer service team, high-quality pre-sales/after-sales services, we wholesale and retail various brands of clothes, shoes, bags, etc., we accept PayPal/bank transfer, if you want to buy or resell or want to know the price, you can Add my WHATSAPP
-+8618950702971</t>
-  </si>
-  <si>
-    <t>새로운 각도를 찾아봤어요 !! 🤭🐶
-어때요ㅎㅎ? 평소대로 찍을까요😆?
-#MINJI #민지 #NEWJEANS
-——
-[230323] NewJeans Twt
-——
-#OMG #Ditto #HypeBoy #Attention #Cookie #Hurt
-#Hanni #Haerin #Hyein #DanielleMarsh 
-#Bunnies #Tokki #pouting #wink 
-#bbangsaz #catnipz 
-#NEWJEANS #newjeansminji
-#adornewjeans #뉴진스 
-#chanel #chanelbeauty 
-#kpop</t>
-  </si>
-  <si>
-    <t>Happiest birthday lisayaaaa! 🥳 we love you so much keep shining✨may God bless you with lots of love and success and with good health 💗 you are the best maknae 😭 and love of everyone🫂 . 
-Have a nice day everyone ~ cuties 💗
-➖➖➖
-follow jenhanya ♡
-©︎ to owner 
-➖➖➖
- #JENNIE #블랙핑크 #제니 #BLACKPINK #YG #jenniekim #lisa #jisoo #rosé #지수 #로제 #리사 #샤넬 #chanel #jenniexchanel  #jennie #blackpink #jennierubyjane  #jenchulichaeng #jennieblackpink #kimjisoo  #lalisamanoban #lisablackpink #parkchaeyoung  #blinks #kpop #jensoo #jenlisa #chaelisa  #chaennie</t>
-  </si>
-  <si>
-    <t>We are engaged in the wholesale and retail of all kinds of luxury brands (clothes, shoes, bags, glasses, belts, etc.) all-day customer service online, top quality goods, free shipping/Paypal collection (FedEx/DHL/China Post) If you are interested in products or want To understand the price, please add my contact information WHATSAPP+8618950702971</t>
-  </si>
-  <si>
-    <t>Hello dear, we are a professional product wholesaler, if you are interested in our products, please add my WhatsApp: +8613514055482, shipping to the world</t>
+-
+-
+-
+-
+  🍊</t>
+  </si>
+  <si>
+    <t>🖤💜🤍</t>
+  </si>
+  <si>
+    <t>Thank you♥️ dgazglobal for sending me a purse organizer and purse pillow. The rough H color is perfect for my Chanel mini in dark pink. Good satin quality and great fit! DGAZ is also available worldwide on Lazada and Amazon Swipe for close up videos for close up details and how it fit my mini👍🏻😊</t>
+  </si>
+  <si>
+    <t>Kiss? Black and Pink? 🤭 if you know you know 🖤🩷
+Guys what do you think about GD's last stories? It's suspicious for me.. doesn't look like Korea it's look like America.. maybe?? 🫣🙊🫠
+Idk I don't want to be happy before I'm just waiting for more...
+Guys please just waiting for confirmation if it's true we will know soon 😉😄</t>
+  </si>
+  <si>
+    <t>❤️  ❤️  ❤️  ❤️ 🤩🥰❤️</t>
+  </si>
+  <si>
+    <t>Hey beauties! Are you obsessed with fashion and beauty as I am? Then you don’t want to miss the latest of voguearabia featuring chanelofficial .
+The iconic fashion house never fails to impress with their elegant designs and timeless pieces. And let’s not forget about the beauty looks that accompany their runway shows. From bold lips to smoky eyes , Chanel always sets the trends.
+So grab a copy of Vogue and get ready to be inspired by the magic of Chanel</t>
+  </si>
+  <si>
+    <t>Will the dewdrop veil be the new pearl veil? ✨
+Original post: vogueweddings 
+Photographer: normanandblake</t>
+  </si>
+  <si>
+    <t>Život je dar. Každé ráno vstaň a pripomeň si to! 🕊🌹🖤</t>
+  </si>
+  <si>
+    <t>Monochrome  by chanelofficial featuring the Insta-trending wellington boots ($1,150) Chanel 19 d bag with houndstooth pattern and black beanie hat. Hot! Or Hmm…?
+*
+📸 minaamonroe 
+Blogged by limo_x</t>
+  </si>
+  <si>
+    <t>s New Boyfriend  Films A Commercial For  Bleu With Director  In New York, NY 4.19.2023 youtu.be/Iie83dVPh5I [Video &amp; Imagery Supplied By SplashNews.com/BACKGRID] (TheHollywoodFix.net For Full Video - Link In Bio) 📸🌴</t>
+  </si>
+  <si>
+    <t>baby never looked any better; the smile, those abs, them arms! - manurios on latest instagram story.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Todays Post!
+Art of the Fashion Mash Up!
+Necklaces: Pearl and Jade made by Sonya Benson sonyabens 
+Jacket: chanel
+Denim Shirt: vintage levis (thrifted in Iowa with my Mama for 25 cents)😜
+Tee Shirt: dior
+Jeans:frame
+Shoes: chanel
+Bag: louisvuitton</t>
+  </si>
+  <si>
+    <t>⛰️ I'll remember you this way.</t>
+  </si>
+  <si>
+    <t>Honey shine bright let them burn🔥 taken by: ibraheem_qaw_photography 
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>🥂🎤🌪💥
+#뉴진스  
+ 22.08.03</t>
+  </si>
+  <si>
+    <t>Aura Flora by Sally-Ann Provan Millinery ✨
+Twenty-two milliners from the britishhatguild have collaborated with thejockeyclub and braintumoursch, creating headpieces in the colours of King Charles' racing silks. These pieces are being auctioned online to raise funds for Brain Tumour Research.
+Aura Flora takes its name and inspiration from a loose Latin translation of “golden flowers”. The piece was moulded or ‘blocked’ by hand, using steam over a wooden block made by one of the last hat-block makers working in the UK. It is made from sinamay which is a straw material made from abaca, a member of the banana plant family growing in the Philippines and the gold sheen on the handmade silk and leather flowers is 23.5ct gold leaf, applied by hand.
+Made with a sinamay base and decorated with gold silk and leather handmade origami flowers, with gold leaf applied and finished with black open work wire leaves, adorned with gold Swarovski crystal pearls, the piece is designed to be worn on the right.
+Worn here with the 1950s raw silk ivory dress with statement bow to front by Stephanie Jane (Made in England) Available to shop now via the website ✨
+Hat sallyannhats 
+Dress norfolkdressingroom 
+Earrings laurence_coste
+Photography timkent_photographer
+Styling aliceharestylist
+Make-up mariamakeupartist, assisted by madeby_mills
+Hair chris88hair</t>
+  </si>
+  <si>
+    <t>My job scope reads: "𝘏𝘦𝘳𝘦 𝘵𝘰 𝘮𝘦𝘭𝘵 𝘩𝘦𝘢𝘳𝘵𝘴". 😍
+Today, I'm decked in a classy monochrome tweed bowtie tailorwoof and put on an earnest head tilt to channel happiness and fuzzy feels across the universe. 💓
+Did I pass the interview? 😉
+------
+ livingwithtoto
+𝘔𝘰𝘯𝘰𝘤𝘩𝘳𝘰𝘮𝘦 𝘛𝘸𝘦𝘦𝘥 𝘉𝘰𝘸𝘵𝘪𝘦 is sold out but looking at how cute this looks on Toto, maybe we will try to restock it!</t>
+  </si>
+  <si>
+    <t>PICK.LAB Fashion Trend
+올 여름 강타할 선글라스 트렌드
+CHANEL chanelofficial
+5416 1710/S6 / 517,000
+CELINE celine
+Graphic S258 Sunglasses / 590,000
+PROJEKT PRODUKT projektprodukt
+FS3 CI / 295,000
+RayBan rayban
+RB2180-F 601/71 / 188,000
+GENTLE MONSTER gentlemonster
+loti01 / 289,000 (Left)
+Oracle.S 01 / 340,000 (Right)
+#픽랩 #픽랩패션 #선글라스</t>
+  </si>
+  <si>
+    <t>she’s so real</t>
+  </si>
+  <si>
+    <t>Just a friendly reminder that it’s a beautiful pink Wednesday 👛
+📸 elegancebyjuliet 🌸💕
+  #🧚🏻‍♂️</t>
+  </si>
+  <si>
+    <t>CHANEL ANTAEUS</t>
+  </si>
+  <si>
+    <t>🖤ᴡᴏᴍᴇɴ ᴡʜᴏ ᴡᴇᴀʀ ʙʟᴀᴄᴋ ʟɪᴠᴇ ᴄᴏʟᴏᴜʀғᴜʟ ʟɪᴠᴇs🖤</t>
+  </si>
+  <si>
+    <t>These eye-catching earrings are in the shape of a blooming rose or some believe they look more like Camellia. The flower body is gold-plated zinc alloy and delicately hand-decorated one by one with tiny man-made pearls and Cubic Zirconia stones 💫
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Dear universe i love money 
+-
+-
+-
+-
+-
+-
+-
+-
+-
+-</t>
+  </si>
+  <si>
+    <t>_
+🔻🆕新着情報🆕🔻
+シャネル CHANEL
+🟡CHANEL Premiere
+Item code: 196640
+Item material:Diamond, Onyx and White Shell
+Item Price: US $2,900
+🟡MIKIMOTO Ring
+Item code: 192171
+Item material: White Gold and Diamond
+Item Price: US $520
+-----------------------------------------
+詳しくはお店をご覧ください
+For more details, please visit the site
+JBWorks🛒
+The link of our web site is posted in our profile☝
+※All items are one of a kind.
+Please note that some items may be out of stock※
+プロフィール欄のURLより当店の各サイトでお買い求めいただけます。
+※当店の商品は全て一点物のため、売り切れの可能性もございます。
+予めご了承ください。※
+-----------------------------------------
+ #ジェイビーワークス
+#シャネル #ミキモト
+  #お洒落さんと繋がりたい
+#リング #腕時計 #プルミエール #ダイヤモンド #オニキス #ホワイトシェル #ステンレススチール
+   #일상 #오오티디</t>
+  </si>
+  <si>
+    <t>Leather &amp; Denim 
+Perf  (old) 
+Jupe  
+Solaires  
+Sac  
+Baskets</t>
+  </si>
+  <si>
+    <t>پك مراقبت پوستي Clinique 
+شامل :
+مرطوب‌کننده مرطوب‌کننده با اندازه کامل Moisture Surge™ Intense 72H Lipid-Replenishing Hydrator, 50ml (به ارزش 40 پوند)
+ ماسک  شب Moisture Surge™ Overnight، 30 میلی لیتر
+بالم لب
+ Moisture Surge™ Lip Hydro-Plump Treatment، 7 میلی لیتر
+مخصوص پوست خشك و خيلي خشك
+قيمت:دايركت
+🌸🌸🌸🌸
+‎‏</t>
+  </si>
+  <si>
+    <t>🌺
+•
+•
+•
+•
+•
+•
+         #   #외국인모델 #외국인 #모델 #캐나다모델 #바디프로필 #군자 #군자피티 #바디체크 #운동자국 #오운완 #헬스 #일상  #샤넬 #서울숲 #서울숲벚꽃</t>
+  </si>
+  <si>
+    <t>JENNIE- YOU&amp;ME AT COACHELLA
+JENNIE COACHELLA TAKEOVER
+JENNIE  STAGE
+   #제니</t>
+  </si>
+  <si>
+    <t>"🧡"
+cap/outer chromeheartsofficial 
+tops/denim searoomlynn_official 
+bag chanelofficial 
+eye wear oliverpeoples</t>
+  </si>
+  <si>
+    <t>Hermes in its natural habitat 🦋✨☀️
+𝒟𝑀 𝓉𝑜 𝓅𝓊𝓇𝒸𝒽𝒶𝓈𝑒 🤍 
+▫️24/7 customer care
+▫️Shipping worldwide
+▫️AFFORDABLE🤍
+▫️Sourcing 🔎 
+.
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Victoria's Secret Amber Romance Noir 
+- mobile : 01121663072
+----------------------------------------
+                &amp;ROLF 
+  #</t>
+  </si>
+  <si>
+    <t>i absolutely cannot wait till I see Taylor this summer 🩰🏹🎀</t>
+  </si>
+  <si>
+    <t>Making everywhere I go sparkle 🥰✨ alt caption: a friend to all is a friend to none 👼🏻</t>
+  </si>
+  <si>
+    <t>°.• 𝙁𝙤𝙡𝙡𝙤𝙬 1l0v3mee 𝙛𝙤𝙧 𝙢𝙤𝙧𝙚 •.°
+- 𝙉𝙤𝙩 𝙢𝙞𝙣𝙚
+•
+•
+•
+♡ ︴</t>
+  </si>
+  <si>
+    <t>Il lilla è sempre una buona idea🙌</t>
+  </si>
+  <si>
+    <t>🖤  
+[Facebook : Aokbab Chutimon ]
+..
+..
+#ออกแบบชุติมณฑน์</t>
+  </si>
+  <si>
+    <t>終於俾我見返d可愛d既草泥馬喇😳之前見親都樣衰仔😭😭😭好想養草泥馬呀🥹🦙🦙🦙
+alpaca_pineapplefarm 
+ #菠蘿園 #草泥馬 #羊駝  #羊咩咩 #小兔子 #元朗  #錦上路 #假日好去處 #動物園 #農莊 #情侶好去處</t>
+  </si>
+  <si>
+    <t>Heading away to warmer weather soon? These Tan leather Chanel wedges must be in your case.  In gorgeous pre loved condition these Chanel "Camelia" sandals in size 38 come in a tan leather with gold tone floral metal embellishments featuring a t-strap, logo detail, and a cork wedge. Made in Italy.
+Condition:
+Good Pre-Owned Condition.
+Size: EU 38
+Measurements:
+Heel: 4 in. 
+Inclusions:
+Dust bag
+Colour: Tan
+Fabric: Leather
+Material: Cork
+FREE SHIPPING | PAYPAL | AFTERPAY AVAILABLE $700 purchase on the “Buy” page of our website www.Soleservice.com.au</t>
+  </si>
+  <si>
+    <t>پك جذاب Yves saint laurent 
+شامل ريمل و عطر ٧.٥ ميل
+قيمت :دايركت
+🌸🌸🌸
+‎‏</t>
+  </si>
+  <si>
+    <t>Love this simple but beautiful fit🤍🤎</t>
+  </si>
+  <si>
+    <t>Pink bag and t-shirt by Chane💖 What's app for assistance +44 7946 132691📲
+cyrielleverstuyft</t>
+  </si>
+  <si>
+    <t>Yes or No for this CHANEL? 🧡​
+Double-tap if you love this❤️‍​
+Tag your friends 👇 👇Rate it 1-10..!! 😍​
+-⠀​
+▶ Follow us now for daily trending fashion!​
+▶ Follow us​
+.​
+..​
+.​
+.</t>
+  </si>
+  <si>
+    <t>𝓣𝓸 𝓫𝓮 𝔂𝓸𝓾𝓻𝓼𝓮𝓵𝓯 𝓲𝓷 𝓪 𝔀𝓸𝓻𝓵𝓭 𝓽𝓱𝓪𝓽 𝓲𝓼 𝓬𝓸𝓷𝓼𝓽𝓪𝓷𝓽𝓵𝔂 𝓽𝓻𝔂𝓲𝓷𝓰 𝓽𝓸 𝓶𝓪𝓴𝓮 𝔂𝓸𝓾 𝓼𝓸𝓶𝓮𝓽𝓱𝓲𝓷𝓰 𝓮𝓵𝓼𝓮 𝓲𝓼 𝓽𝓱𝓮 𝓰𝓻𝓮𝓪𝓽𝓮𝓼𝓽 𝓪𝓬𝓬𝓸𝓶𝓹𝓵𝓲𝓼𝓱𝓶𝓮𝓷𝓽 𝓪𝓷𝓭 𝓫𝓻𝓪𝓿𝓮𝓼𝓽 𝓽𝓱𝓲𝓷𝓰 𝔂𝓸𝓾 𝓬𝓪𝓷 𝓭𝓸. 
+𝓒𝓪𝓷 𝔂𝓸𝓾 𝓱𝓮𝓪𝓻 𝓽𝓱𝓮 𝓫𝓮𝓪𝓽 𝓸𝓯 𝓶𝔂 𝓱𝓮𝓪𝓻𝓽? 𝓣𝓱𝓮 𝓯𝓻𝓮𝓺𝓾𝓮𝓷𝓬𝔂 𝓽𝓱𝓪𝓽 𝓲𝓽 𝓲𝓼 𝓭𝓪𝓷𝓬𝓲𝓷𝓰 𝓽𝓸?</t>
+  </si>
+  <si>
+    <t>Chanel Mini Rectangular Dusty Beige Lambskin CHW 🖤 
+❌SOLD❌</t>
+  </si>
+  <si>
+    <t>10 ways to wear a denim jacket 👉🏼
+This is such a classic layer. Here’s how I’m wearing mine as we head into spring 🫶🏼
+I’d love to know your favourite look! 
+You can shop my outfit on my ltk.europe and my stories</t>
+  </si>
+  <si>
+    <t>I will remember this for the rest of my life🇪🇸
+•
+•
+•
+•
+•
+•</t>
+  </si>
+  <si>
+    <t>.
+CHANEL💎
+jacket
+.
+Tweed Orange🧡
+.
+ #シャネルスーツ       #おしゃれさんと繋がりたい #おしゃれコーデ #ブランドコーデ #シャネルコーデ  #シャネル服</t>
+  </si>
+  <si>
+    <t>Bridal Dreams….. we cannot get enough of sofiarichie chanelofficial</t>
+  </si>
+  <si>
+    <t>Timothee Chalamet y Martin Scorsese fueron vistos grabando un nuevo anuncio promocional sobre perfumes para la marca Chanel 🤩
+Esto si, pero sacar el tráiler de Killers of the flower moon no, eh Martin 😤
+¿Te gustaría verlos juntos en una película? 🤔⬇️
+Os leo 👀
+Tags 🚫</t>
+  </si>
+  <si>
+    <t>Neckless 160 QAR
+Earrings  120 QAR
+Full Set: 270 QAR
+Limited stock available 
+1 Year Warranty 
+Code: 10215
+Free Size 
+  #  #قطر#دوحه #کاتارا #ماركات_عالميه #ماركات_قطريه #قطريه #قطر🇶🇦 #قطريات_ستايل #دوحه_قطر #دوحه_لايف #بنات_قطر     🚛</t>
+  </si>
+  <si>
+    <t>“If you don't Love Yourself, Nobody Will. Not Only That, You Won't Be Good At Loving Anyone Else. Loving Starts With The SELF.”</t>
+  </si>
+  <si>
+    <t>The shell 🐚, the classic and the egg</t>
+  </si>
+  <si>
+    <t>Basically yes do it.</t>
+  </si>
+  <si>
+    <t>The 22mini is such a practical and stylish bag to use for every occasion. I shortened the straps to the ideal crossbody length for myself, shall try out using as a shoulder bag next time. 
+Swipe for the full look. My girl took this shot and I thought she did a great job 👏🏻 
+.
+👗: officialclaude 
+👛: chanelofficial 
+👡: hermes 
+⌚️: cartier 
+.
+.
+Not affiliated with any brands. All items are for personal use and not for sale.</t>
+  </si>
+  <si>
+    <t>and  tied the knot in France on Saturday.
+The 24-year-old model and British music executive, 30, said “I do” at Hotel du Cap-Eden-Roc in Antibes in front of family and friends, including  and .
+For the ceremony, the bride wore a custom  wedding dress that featured an embellished train with white and iridescent beads. It also had her “something blue” sewn into it —an “S&amp;E” with the date underneath.
+Sources - Page Six , Vogue and nicolerichie</t>
   </si>
   <si>
     <t>Hello friend, there are many products you need🎁
 High-end quality, global DHL federal free shipping
 Paypal remittance is acceptable
 Fast delivery after payment, ✈7-12 days arrival
-Welcome your consultation.  My contact information is 📞WhatsApp+8613860942593</t>
-  </si>
-  <si>
-    <t>All black 🖤
-#streetstyleparis #ilovestreetstyle #trendingstyle #loverforfashion #fashionposts #fashiongoals #getstyled #daylook #looksgood #parisstreetstyle #stylishlook #americanstyle #fashionistastyle #fashionnow #ootdguide #stylegoals #dailyfashionupdate #hmxme #ootdmagazine #whowhatwear #dailylooks #focusathletixx #yeshm #chanel</t>
-  </si>
-  <si>
-    <t>Hello, I'm wholesaler of bags, shoes, purses, watches, clothes, 🎁
-Delivery time ✈ 7-12 days
-Express: Federal, DHL,UPS
-Support Western Union, paypal payments
-📞 WhatsApp+8618059932287</t>
-  </si>
-  <si>
-    <t>#DesignerBagRomance
-#tashuren #handtashuren
-#hurenishetnieuwehebben
-#designertashuren #fashiontashuren
-#eveningbag #loveit #luxurydesignerbag #designerhandbaghire #luxuryhandbag
-#BottegaVeneta #Chanel #Chloé
-#Dior #Furla #Giorgioarmani 
-#Louisvuitton  #Prada #Jacquemus
-#Karllagerfeld #Yvessaintlaurent #ysl</t>
+Welcome your consultation. My contact information is 📞WhatsApp8615105927220</t>
+  </si>
+  <si>
+    <t>Success is often achieved by those who don't know that failure is inevitable.
+Coco Chanel 💕</t>
+  </si>
+  <si>
+    <t>Prom inspo✨🤍... 
+A remake of the CHANEL 1992 iconic dress👑 Made by pattyfashionuk</t>
+  </si>
+  <si>
+    <t>Love my new shoes so much!🎀🗝️
+-
+-</t>
+  </si>
+  <si>
+    <t>How can something so gangster be so pretty in pictures 😍😍😍😍 
+Dress by amarieluxe.</t>
+  </si>
+  <si>
+    <t>She's going to be letal.
+Please like and save ★
+ Follow healing.itgirl for more
+ Follow healing.itgirl for more</t>
+  </si>
+  <si>
+    <t>New Valentino TEXT TO ORDER -561-324-3784 or click on my link 👇🏻
+Stores.saksfifthavenue.com/aprilf</t>
+  </si>
+  <si>
+    <t>Used in Good Condition bucket bag caviar chip 22A
+ขนาด 14*21*14 เซนติเมตร 
+ตัวหนังไม่มีตำหนิไม่มีถลอก โลโก้มีรอยตามภาพ ภายในสะอาด 
+อปก fullset ใบเสร็จไทยจริง
+🔥124,999 จากบิล160,500!!!
+   #ร้านชำของคุณป้าเนโกะ</t>
+  </si>
+  <si>
+    <t>Kalau ada yang tanya:
+“What’s inside your bag?”
+Isinya harapan dan cita-cita ya genks 😉
+.
+My bday present from hubby billy_l33 definitely deserves a post
+Purse &amp; brooch chanelofficial vladies_official 
+.</t>
+  </si>
+  <si>
+    <t>Flowers 🌸</t>
+  </si>
+  <si>
+    <t>Wholesale (shoes, clothes, hats, belts, etc.) support Paypal/bank transfer, free shipping (FedEx/DHL/China Post) If you want to know the price and quality of the goods, please add my contact information +8618950702971</t>
+  </si>
+  <si>
+    <t>wore a  dress and  shades to the 2023  Awards. Are you feelin' it?
+📸Backgrid</t>
+  </si>
+  <si>
+    <t>🥀🌹💋
+👄Makeup by yours truly Dennis Curimatmat
+🎀Hair by Rhannie Quistadio
+👩🏻InFrame| Nicole Ichiko
+Thankyouu for trusting!🥰
+Check my PORTFOLIO here:  https://campsite.bio/dennistadlec
+For bookings and inquiries kindly send private message to any of these contacts:
+📞SMS only | 09366416852
+📩FB Page | DC Faces 
+📷IG | denniscurimatmat / dc.faces 
+📬Gmail | dennistadlec@gmail.com</t>
+  </si>
+  <si>
+    <t>Elevate an understated ensemble with a classic silhouette and trending texture</t>
+  </si>
+  <si>
+    <t>💕
+💕
+💕</t>
+  </si>
+  <si>
+    <t>+1 milyondan fazla paylaşıma sahip  hashtagi spam sebebiyle instagramda yasaklandı ve hashtag gizliye alındı! 
+[ENG]
+The hashtag  with more than +1 million shares has been banned on Instagram due to spam and the hashtag has been hidden!</t>
+  </si>
+  <si>
+    <t>Lil Tjay went crazy hard on the drip during his EU tour 🇪🇺💧
+📲 More Lil Tjay outfits in whatsonthestar.app</t>
+  </si>
+  <si>
+    <t>｡⁠*⁠♡✧⁠* J I S O O ✧⁠* .⁠｡⁠*⁠♡
+              #한국</t>
+  </si>
+  <si>
+    <t>Dm me shop your style</t>
+  </si>
+  <si>
+    <t>In February I visited the illustrious VC&amp;A ‘Time, Nature, Love’ exhibit at The National Museum of Saudi Arabia in Riyadh. I saw absolute exquisite pieces varying from the VC&amp;A vault to private collections on loan for the showing. I was so happy to have my gemology studies put to use 🤍; and I cannot begin to explain just how phenomenal the pieces were. For more information view my VC&amp;A Story in my profile. …p.s. Can you guess which two pieces are my favourite? (Comment below). Xx
+……..
+…….
+……
+…..
+….
+…
+..
+.</t>
+  </si>
+  <si>
+    <t>First lady  and her son  welcome a 19.5-foot balsam Fir that will serve as the official White House Christmas Tree at the White House - November 20, 2017
+Wearing  "Woman Rise Leather Knee Boots In Black" - $1,820.00
+ "Cashmere Roll Neck Jumper In Red" - $195.00 
+ "Oversized Double- breasted Checked Wool Coat" - $840.00</t>
+  </si>
+  <si>
+    <t>🛍️
+웅 메보자마자 그냥 너무 내꺼 쏘 큩트....˚ෆ*₊
+생신 선물을 약 5개월이 지나서야 드리는 불효를,,
+아끼지 말고 예쁘게 쓰셔요 엄마🤗
+.
+.
+  #셀린느 #구찌</t>
+  </si>
+  <si>
+    <t>Abaya lover 💜
+From jeansindustrycom ✨
+________________________________</t>
+  </si>
+  <si>
+    <t>Timothée Chalamet on the set of a Martin Scorsese-directed commercial for Chanel Bleu
+tchalamet</t>
+  </si>
+  <si>
+    <t>My scent of the night- Allure Homme Sport
+Eau Extreme 🤩 
+Allure to the extreme...
+I just can’t get enough of this! 👀 One of my all time favourite designer fragrances. Allure Home Sport Eau Extreme is an energetic and totally irresistible fragrance for men. An aromatic-musky fragrance that empowers you to push your limits.
+This gives a fresh boost on the skin. An energetic and totally irresistible fragrance. I get around 6 hours longevity. A must have in your collection.</t>
+  </si>
+  <si>
+    <t>Last weekend in Paris was all about early bday celebrations and some final wedding shopping👼 Swipe to the end to see a little preview of my wedding earrings - so obsessed with them 🫶🏻</t>
+  </si>
+  <si>
+    <t>⚠️🖤</t>
+  </si>
+  <si>
+    <t>Congratulations to  and  on their beautiful wedding 🤍 We are gushing over her stunning  wedding dress! ⁠</t>
+  </si>
+  <si>
+    <t>BLEU DE CHANEL
+- mobile : 01121663072
+----------------------------------------
+                &amp;ROLF 
+  #</t>
+  </si>
+  <si>
+    <t>WMG: The Luxury Constellation Spring 2023
+Swipe ➡️ for Features and Depts. 
+chanelofficial fendi themetgalaofficial metcostumeinstitute thebeatles karllagerfeld thandiwe_muriu beekaekae primafacie jodiemcomer godslovenyc alaffia balanced.vibe omegainstitute artsigniteorg pier57.nyc 
+Cover Artist 🖌️ malikafavre 
+Link in bio to read!
+      westportct</t>
+  </si>
+  <si>
+    <t>New York (09/03/2017)</t>
+  </si>
+  <si>
+    <t>Dm me Shop Your Styles</t>
+  </si>
+  <si>
+    <t>Pinks 💕
+chanelofficial iridescent classic
+balmain jacket 
+dolcegabbana jeans
+aritzia top</t>
+  </si>
+  <si>
+    <t>Hermes Herline Canvas Bag $3460
+Very good condition (非常良好）
+Size : 43x32x12cm 
+Chloe Sunglasses $968
+非常良好
+✳️有套
+*詳情PM以獲取更多資訊😉
+~~~~~~~~~~~~~~~~~~~~~~~~
+CCVintage shop🥳🥳🥳
+你好銅鑼灣軒尼詩道505電業城Solo  
+🚇B Exit 向Sogo 方向（中國銀行上)
+☎️What’s app ‪9065-3988‬
+🌎https://ccvintagehk.com/
+💝Closed-Sun-Mon 
+⏰Tue-Sat (1-7pm)
+💯正版正貨商店
+💳Visa/Master/AE with 2% charges
+～～～～～～～～～～～～～～～~
+    ’s Day
+  day    
+*商標及品牌版權歸品牌所有，本店並沒有與圖中相片的品牌合作*</t>
+  </si>
+  <si>
+    <t>Share my world day.  Earth Day.  Happy 26th Anniversary to Share My World album. 
+            é</t>
+  </si>
+  <si>
+    <t>Used Like New Chanel coco first bag 9” Caviar Beige GHW microchip ใหม่มากก ขอบมุมสวยกริบ ซับหนังทั้งใบ  รุ่นนี้ราคาช้อปน่ากลัวมาก 
+Fullset Ori Receipt 2022
+🔥179,999
+   #ร้านชำของคุณป้าเนโกะ</t>
+  </si>
+  <si>
+    <t>Call it s Summer Crush 💜💙💚</t>
+  </si>
+  <si>
+    <t>想來拍Monna Lisa
+隊伍排好長😫
+畫離好遠🥲
+最後在側邊拍照
+變成和黝黑小哥哥的合照
+❤️也是一種特別的紀念</t>
+  </si>
+  <si>
+    <t>[👀] Met Gala ile çalışan ve ilişkisi olan birisi JENNIE’yi takip ediyor! 
+CR: JennieBpChile 🌸 
+[ENG]
+Someone who works with and is in a relationship with the Met Gala is following JENNIE!</t>
+  </si>
+  <si>
+    <t>संत रविदास जी के पूर्ण गुरु कौन थे?
+जिसे मालूम हो वह अवश्य बताएं।
+    💙</t>
+  </si>
+  <si>
+    <t>LINE or WeChat
++8618406613089
+ADD me ： 📞WhatsApp+8618406613089</t>
+  </si>
+  <si>
+    <t>r e p l e n i s h i n g  our earth extends to every facet of my life, including upcycling fashion. in fact, i live for the hunt and to give a second journey to pieces with a story and history. mindful for our planet but also like having an extended conversation with the past. sharing a few of my selects and sources over on lemon8us …
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Denim obsession is real💙</t>
+  </si>
+  <si>
+    <t>timothée for chanel gonna be the end of me fr
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>This luxurious  has been a longtime coming! ⁣
+⁣
+As I’ve stated before, the OG 2010’s YouTube beauty gurus “raised me” in terms of my knowledge and genuine love for makeup. I could sit and watch their hauls and tutorials for hours on end, so even if it was a product that was out of reach for me to actually try, you can bet I’d at least heard of it! ⁣
+⁣
+Enter the granddaddy of all cream bronzers….Soleil Tan de Chanel! All the It Girls of the internet used and LOVED it, so naturally I wanted it! BUT…I wouldn’t have even known where to get it, much less been able to justify the cost to buy it back then. ⁣
+⁣
+Fast forward to now and chanel.beauty has reformulated and renamed the iconic bronzer AND it’s sold at ultabeauty! So you know what that means….time to cash in some points and being that baby home! ⁣
+⁣
+And that’s exactly what I did! The LES BEIGES Healthy Glow Bronzing Cream is now mine! ⁣
+⁣
+I’ve been hesitant to dig into that gorgeous, creamy swirl, but I think it’s time for me to finally give it a try! While I never tried the original formula, the research I’ve done shows that they added coconut oil to the new formula, so it is supposed to be smoother and more hydrating on dry skin, so that sounds more up my alley anyway. I will definitely let y’all know what I think after I’ve had the chance to use it for a while! ⁣
+⁣
+Have you used this iconic bronzer? Let me know if you have any tips/tricks for applying it! ⬇️</t>
+  </si>
+  <si>
+    <t>‘One week till the Met…is it too late to add this fabulous jacket into the exhibition?’ 
+.
+  Spring 1992 by  
+.
+                          #</t>
+  </si>
+  <si>
+    <t>‏                   #       🇦🇪</t>
+  </si>
+  <si>
+    <t>PETITE GG MINI BAG
+DM TO PURCHASE</t>
+  </si>
+  <si>
+    <t>and  got married this past weekend in the South of France ✨️ 
+The bride wore three stunning  custom dresses. 
+“It has always been a dream of mine to have Chanel design my wedding dress,” Sofia says. “At my first fitting at the Chanel salons in Paris, I immediately envisioned the dress I wanted to get married in: a beautiful lace-embroidered halter gown with a long train. Within the dress are subtle details, including an embroidered heart to represent the love that Elliot and I share, as well as a blue embroidered S&amp;E on the inside of the dress above my heart.” 
+The groom wore a Tom Ford tuxedo for the wedding day.
+What do you think of the wedding dress? Did you like the one she wore at the rehearsal dinner (2nd pic) and the one she wore at the afterparty? 
+Tbh there's little to say: imo she looked absolutely ravishing in everything she wore.</t>
+  </si>
+  <si>
+    <t>Krásne ráno prajem 💄</t>
+  </si>
+  <si>
+    <t>Elegant Make-Up🤍 by mirabeauty81  ̈nheit ̈nheit                  ̈nheiten</t>
+  </si>
+  <si>
+    <t>Sofia Richie Chanel gelinliği ile Fransa’da dünya evine girdi 🤍</t>
+  </si>
+  <si>
+    <t>Authentic LOUIS VUITTON Damier Azur Delightful MM. Leather shoulder strap and trim, and polished brass hardware.
+Interior: pink on beige striped fabric interior with a zipper pocket.
+Product code: N41448
+Date code: MI2155  Y2015 made in France 
+9/10 condition excellent canvas condition. Minor watermarks on strap. Minor scuffed corner (not visible). No scratch on Hardware. Clean interior.
+Come with full set, receipt and dust bag
+Retail NOW CAD $2095 plus tax $2367
+NOW CAD $1499
+.
+.
+.
+Disclaimer: ATLUX CONSIGNMENT is not associated or affiliated with the brand featured. All trademark and copyrights reserved to the original brand holders. ATLUX consignment guarantees every item is 100% authentic. All our items are preowned unless stated.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>new
+timothée on the set of 'Chanel Bleu' commercial
+NYC, apr 19📍
+© Jose Perez/Bauer-Griffin/GC Images
+via holycolorfulpig
+tags
+              éechalamet           éechalametitalia</t>
+  </si>
+  <si>
+    <t>I’m excited to share with you that I am extending my fashion sourcing service to my global community here. 
+I have been sourcing designer items for clients for the last few years and absolutely love the thrill of the chase to secure their wishlist requests. Whether they be current season that has sold out or pieces they missed from past collections, I will not stop searching until I find it! 
+Please DM me with all your requests and for a small sourcing fee I will endeavour to locate your desired item. The sourcing fee is only incurred if you choose to proceed with the purchase - there is never any pressure to buy!
+I look forward to receiving your requests… let the sourcing fun begin! 
+And before you ask this is the sold out Isolde coat by The Row (as seen on Mary Kate Olsen and juliepelipas) which I was able to source last week 🖤</t>
+  </si>
+  <si>
+    <t>LYST 近期公布2023年度第一季報告，Prada在熱門品牌排行榜連續兩季名列第一，同集團的 miumiu 則名列第二。讓我們帶你了解LYST指數是甚麼，以及Prada和Miu Miu魅力何在！最令人意想不到的是，2023年最多人搜尋的時尚單品不是來自任何高級時裝品牌，而是來自Uniqlo？
+Photo Source： pp.kritt 、 lyst、 prada 、enhypen、 chanelofficial 、Uniqlo、Tik Tok 截圖、mschfsneakers
+ #時尚公民 .krit</t>
+  </si>
+  <si>
+    <t>shop   
+   second</t>
+  </si>
+  <si>
+    <t>finally pictures of JENNIE from the PinkChella after party😭💕 
+Hyunji Shin updated with JENNIE!!
+JENNIE  STAGE
+   #제니</t>
+  </si>
+  <si>
+    <t>Another beautiful day has passed, and I hope tomorrow will be a better day.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Wow Our Kala Set in Pink is a Stunner 💞💫 Ladies The Wait is Over …..Pink Just Added to Our Site 😍
+Search: Kala Set ( More Colors Just Dropped Also )
+Shop: www.jlorrainecustomdesigns.com .......
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>48 Balenciaga 17fw oversized lamb fur denim jacket
+Pristine 
+___________________
+Table of Condition
+New = New
+Pristine = Almost New, DeadStock
+Excellent= Have a very light signs of use
+Good = Have a light signs of use
+Fair = Can see signs of use
+Notify if there's flaw(like holes and mending) on item. 
+______________________
+•LEGIT item. All I sell is AUTHENTIC
+•Please note that pre-owned piece is pre-owned piece, not in perfect condition. 
+•Do not accept refunds.
+I always take picture of package before I send.
+Returns will be accepted only if you pay all the shipping fees(includes the shipping when I sent) and any other extra fees that could occur. and refund will be charged after I receive the item.
+Amount of Refund could be reduced in case the condition of item is not match with the condition when I sent.
+•I’m opened to offer, so don’t hesitate.
+Ask anything you are curious about, I’ll answer the question in detail 😁
+•Shipping from South Korea.
+To get more description fast, please contact to LEGANshop</t>
+  </si>
+  <si>
+    <t>Sycomore
+⭐⭐⭐⭐⭐
+.
+.
+.
+More Sycomore...
+.
+.
+.
+.
+.
+.
+.
+.
+Enjoy!
+.
+.
+.
+.
+.
+.
+.
+.
+🤎💚
+.
+.
+.
+.
+.
+.
+.
+.
+             üm</t>
+  </si>
+  <si>
+    <t>✨Dubai ✨</t>
+  </si>
+  <si>
+    <t>代購</t>
+  </si>
+  <si>
+    <t>Preloved Chanel Flap bag 7.5 inches Grey with GHW Full set 🌸🌸🌸🌸🌸 
+Please visit www.ladyhoneyluxury.com for  latest price 👆👆👆👆👆👆
+Lady Honey is a professional and independent reseller of Luxury Goods and is not affiliated with the brands listed.
+We source and sell both authentic new and preloved luxury goods to pour discerning customers.
+All product names, logos, and brands are property of their respective owners.
+Every lady deserves the best.</t>
+  </si>
+  <si>
+    <t>Get the look (and make people do it again) of your favorite celebrities, athletes and style icons using this bag. 😍😘🤩🥰
+📲DM us on Viber and Whatsapp: +63 927 412 8794 
+Or click this link
+Viber: https://invite.viber.com/?g2=AQAl%2BLLSho%2BKdE89LS00fuKIyD7H5ksoAFoiL51q4W6cD%2BakvECP475Jw0QGrTzn
+Whatsapp: https://wa.me/message/YJVY6EKGHEQ3C1
+Disclaimer: JLuxury Authentic is not associated or affiliated with any brands featured. All trademarks &amp; copyrights are e original brand holders.</t>
+  </si>
+  <si>
+    <t>230416 • BLACKPINK JENNIE [jennierubyjane] At Coachella 
+- 
+  #블랙핑크    #지수 #제니        #블링크         #젠수</t>
+  </si>
+  <si>
+    <t>A fashion themed cake to celebrate the birthday of a fashionista.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>FAVORITE MM DAMIER EBENE 
+ ❤️EXCELLENT CONDITION ❤️
+💲2️⃣1️⃣9️⃣9️⃣Paid in full 🔥🔥
+💲2️⃣2️⃣9️⃣9️⃣Payment plan 
+❤️Excellent condition, faint hairline scratches the metal plate
+❤️Comes with dust bag 
+❤️DATE CODE SD2196</t>
+  </si>
+  <si>
+    <t>so sofia richie got married to elliot grainge over the weekend 🤍 for the after-party she wore a dress that was inspired by chanel rtw fall 1993 collection (it was modeled by claudia schiffer). “pray for this dress," said sofia, "it will be my life's mission to make sure nothing happens to it."
+sofiarichie claudiaschiffer 
+•
+•
+•
+•</t>
+  </si>
+  <si>
+    <t>Leather chain handle 𝐤𝐞𝐥𝐥𝐲mobile phone bag
+  𝟐𝟑𝐏｜Cement Gray♥Medium
+ This is definitely a dark horse
+ Falling in love at first sight 💕
+ Needless to say, the value of the face, you can't go wrong if you just close your eyes
+ Easy to take care of and versatile
+ Realized the effect of single-back slant-body underarm and hand-carry📷
+ Simply the gospel 〰️
+ Very delicate and worthy of collection🔝
+ Size: 𝟏𝟒.𝟓*𝟏𝟏.𝟓*𝟓.𝟓 𝚌𝚖</t>
+  </si>
+  <si>
+    <t>Sommetider vælter hele korthuset og sommetider bliver det bygget på ny, på få minutter💭..</t>
+  </si>
+  <si>
+    <t>:  yes i have a fetish on jennie in coachella 😨
+-
+ac: | ib: mine (give me credits if you use)
+cc: myoilogy blcpnkclips jenchellaclips deukrubi rosdeukie and twt!
+-
+follow cbyank for more edits! ♡
+˚˖⁺ t a g s ::
+  #𝙨𝙩𝙖𝙧𝙨𝙜𝙧𝙥
+            éclips</t>
+  </si>
+  <si>
+    <t>We are mainly engaged in various brands of shoes, clothes, bags, glasses, etc., top quality of goods, high-quality customer service. We have many years of luxury wholesale and retail experience, we accept PayPal payment, free shipping, if you want to resell or consult the price, please add My contact information +8618950702971</t>
+  </si>
+  <si>
+    <t>The one and only tchalamet has been spotted in New York City filming with the acclaimed director  for what is allegedly a chanel.beauty  commercial ☁️ Swipe to see the dreamy actor in all of his glory 🖤
+-</t>
+  </si>
+  <si>
+    <t>✰*ೃ
+---✿–––
+▎𝐍𝐄𝐖: Margot attending CinemaCon for Barbie {April 25, 2023}
+⋆---✵---⋆</t>
+  </si>
+  <si>
+    <t>😍 So Beautiful! 
+💐Keep a look out for my Mothers Day sale Im running the entire month of MAY ❤️💜💙
+📍Fort Wayne, IN
+VipBeauty260.com</t>
+  </si>
+  <si>
+    <t>"🎈Global free shipping, I am a wholesaler, here are the best quality and best price, contact me whatsapp:📞+86 15759905991 for consultation, wholesale all kinds of products, one piece is also a wholesale price, thank you for your support and attention</t>
+  </si>
+  <si>
+    <t>너무 베스트컷이 많아 •• 일단 나름 어쩔수 없는 B cut 🖤
+📸 ark.1119 
+💇🏻‍♀️ da_s.m__ 
+👄 yoning.goeun 
+💅🏾 j_soovely58</t>
+  </si>
+  <si>
+    <t>Pretty things 😍 What’s new in your makeup bag? 👝💄</t>
+  </si>
+  <si>
+    <t>Sonríe tú. (Si yo sonrío se me notan las patas de gallo)
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>🇺🇸Yes, it’s real Muppet fur 😂 💜
+🇩🇰Ja, det er ægte Muppet pels 😂💜</t>
+  </si>
+  <si>
+    <t>high-end product💯1:1Sell top-quality goods at preferential prices.and all luxury brand goods can be sold.Consultation, quality assurance, global fast delivery.✈️🛍Please contact us if you need it.📲WhatsApp+86 15797968911</t>
+  </si>
+  <si>
+    <t>Picknicks with myself&gt;🍓🩰
+-
+-</t>
+  </si>
+  <si>
+    <t>victoriabeckham and her love for designer handbags. 
+I think the phrase “Diamonds Are a Girl's Best Friend” doesn’t apply to Victoria! 
+1. hermes Kelly Pochette
+2. louisvuitton x Stephen Sprouse Alma
+3. marcjacobs Leopard print Satchel 
+4. hermes Kelly
+5. gucci Patent Horsebit Satchel
+6. louisvuitton Lockit
+7. victoriabeckham Leopard Simple Tote
+8. chanelofficial Kelly Bag
+9. dolcegabbana Crochet Sicily Bag
+Love,
+No Glitter Before Noon</t>
+  </si>
+  <si>
+    <t>⭐️⭐️⭐️49,900⭐️⭐️⭐️
+Easy Flap 10" ( holo 17 ) สภาพยังดี มีร่องรอยการใช้งานตามประสาของมือสอง ขอบมุมดี ด้านในสะอาด อปก ถุงผ้า การ์ดคะ 
+ขนาด :  ยาว 10" x สูง 6"
+Line ID  bell0833</t>
+  </si>
+  <si>
+    <t>1251 UTICA AVE 1PM-9PMBROOKLYN NY SHOP NOW  52collections CALL OR TEXT 929-379-6823  JEANS 52collection_boutique T-SHIRT 52collection_boutique .
+.
+.
+.
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Sadie for lofficielusa in November 2022.
+Wearing: 
+- chanelofficial Ruban Earrings, 18k White Gold, Diamonds (20,750$)
+- miumiu Embroidered Silk and Wool Dress (11,800$)
+- miumiu Satin Ballerinas (950$)
+Images &amp; Copyrights belong to their respective owners!</t>
+  </si>
+  <si>
+    <t>DUNK  36-48
+siamese_ladyy siamese.1v siamese_ch siamese.008
+Check the website for more styles
+https://siamese1806.x.yupoo.com
+All the pictures are actual 
+Please DM or WhatsApp or WeChat if you have any questions ☞ +86 15659980583
+I will update everyday ! So follow me !</t>
+  </si>
+  <si>
+    <t>right ? 
+credit: fromisgrls on pinterest 
+-</t>
+  </si>
+  <si>
+    <t>colettelle</t>
+  </si>
+  <si>
+    <t>爽やかなホワイトフェイスのローマ数字とスクエアケースが昔の壁掛け時計のような落ち着いた雰囲気♪
+The CHANEL Mademoiselle watch's refreshing white face Roman numerals and square case have a calm atmosphere like an old wall clock🕰️
+#パヤ #シャネル #マドモアゼル #ウォッチ</t>
+  </si>
+  <si>
+    <t>[ Psy𝗰𝗵𝗮𝘁nalyse ]
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>In honor of this years  Karl Lagerfeld: a line of beauty. I’ll be sharing some of my fave looks created by Karl. 
+kaiagerber for the Chanel Spring 2018 Ready-to-wear Collection.</t>
+  </si>
+  <si>
+    <t>I found Chanel's old house and bought it to take home after I finished my work.🫰</t>
+  </si>
+  <si>
+    <t>Square Earring Holder Cards✨ 
+            💙</t>
+  </si>
+  <si>
+    <t>We have a professional customer service team, high-quality pre-sales/after-sales services, we wholesale and retail various brands of clothes, shoes, bags, etc., we accept PayPal/bank transfer, if you want to buy or resell or want to know the price, you can Add my WHATSAPP
++8618950702971</t>
+  </si>
+  <si>
+    <t>Energy is expensive. I’m not giving that out for free this year   🥷😘
+.
+✖️ hunkemoller öller  
+.
+.————————————————————————————</t>
+  </si>
+  <si>
+    <t>Essentials ♡✧˖°࿐ 
+love her but that's the truth ⊹ ° . ˚
+•
+•
+•
+•
+•
+Fairy core, Fairy aesthetic, Cottage core, Modern romance,
+Princess aesthetic, Princess core, Vintage aesthetic, Parisian
+chic, Parisian vintage, Vintage chic, coquette core, coquette dream
+Dm or comment for credit or removal!♡</t>
+  </si>
+  <si>
+    <t>💖New Arrivals -Chanel boy old medium caviar GBHW 
+FIRM PRICE : 
+💲  6999
+-bank shipped 
+express signature on delivery plus 
+ -Ppgs
+-CONDITION :very good condition,slight rubbings conners,slight increase leather under flap ,slight scratches hardware slight sign of use inside 
+ -YEAR OF MANUFACTURER: 2019 (year) 
+-HARDWEAR:gold brushed 
+ INCLUSION: box/dust bag/card/entrupy certificate 
+.
+ -COLOUR :black 
+.
+-MATERIAL: caviar 
+.
+-DIMENSIONS: 24 x 15 x 8(Cm) 
+———————————————--
+-ɴᴏ ᴇxᴄʜᴀɴɢᴇ ᴏʀ ʀᴇғᴜɴᴅ ᴏғ ᴘʀᴏᴅᴜᴄᴛs ғᴏʀ ᴄʜᴀɴɢᴇ ᴏғ ᴍɪɴᴅ 
+- ᴘʟᴇᴀsᴇ ʀᴇғᴇʀ ᴛᴏ ᴘʜᴏᴛᴏs ᴄᴀʀᴇғᴜʟʟʏ ɪɴ ᴀᴅᴅɪᴛɪᴏɴ ᴛᴏ ʀᴇᴀᴅɪɴɢ ᴏᴜʀ ᴄᴏɴᴅɪᴛɪᴏɴ ʀᴇᴘᴏʀᴛ .ᴀs ᴛʜᴇʏ ғᴏʀᴍ ᴘᴀʀᴛ ᴏғ ᴛʜᴇ ᴅᴇsᴄʀɪᴘᴛɪᴏɴ 
+➖ ᴡᴇ ᴅᴏ ɴᴏᴛ ʜᴏʟᴅ ɪᴛᴇᴍs ᴡɪᴛʜᴏᴜᴛ ᴘᴀʏᴍᴇɴᴛ 
+.
+➖ᴛʜᴇʀᴇ ᴍᴀʏ ʙᴇ ᴀ sʟɪɢʜᴛ ᴅɪғғᴇɴᴄᴇ ɪɴ ᴛʜᴇ ᴛᴏɴᴇ ᴏғ ᴄᴏʟᴏᴜʀ ᴅᴇᴘᴇɴᴅɪɴɢ ᴏɴ ᴛʜᴇ ʀᴇsᴏʟᴜᴛɪᴏɴ ᴏғ ʏᴏᴜʀ ᴍᴏɴɪᴛᴏʀ
+ᴅɪsᴄʟᴀɪᴍᴇʀ : CIRCLE OF LUXES  ɪs ɴᴏᴛ ᴀssᴏᴄɪᴀᴛᴇᴅ ᴏʀ ᴀғғɪʟɪᴀᴛᴇᴅ ᴡɪᴛʜ ᴛʜᴇ ʙʀᴀɴᴅs .
+ᴀʟʟ ᴄᴏᴘᴘʏʀɪɢʜᴛ ʀᴇsᴇʀᴠᴇᴅ ᴛᴏ ᴛʜᴇ ᴏʀɪɢɪɴᴀʟ ʙʀᴀɴᴅ ʜᴏʟᴅᴇʀs. 
+CIRCLE OF LUXES ɢᴜᴀʀᴀɴᴛᴇᴇs ᴇᴠᴇʀʏ ɪᴛᴇᴍs 100% ᴀᴜᴛʜᴇɴᴛɪᴄ ᴏʀ ʏᴏᴜʀ ᴍᴏɴᴇʏ ʙᴀᴄᴋ .
+ᴀʟʟ ᴏᴜʀ ɪᴛᴇᴍs ᴀʀᴇ ᴘʀᴇᴏᴡɴᴇᴅ ᴜɴʟᴇss sᴛᴀᴛᴇᴅ ᴏᴛʜᴇʀᴡɪsᴇ
+ғᴏʟʟᴏᴡ ᴜs on inst : circleofluxes</t>
+  </si>
+  <si>
+    <t>I just love 💕 me some Beautiful Kietta🥰</t>
+  </si>
+  <si>
+    <t>Which is your favourite??
+🌼ꜰᴏʟʟᴏᴡ ᴍᴇ ꜰᴏʀ ᴍᴏʀᴇ
+----------------{🐰}----------------
+🌠ᴛᴀɢꜱ;
+✨𝘋𝘰 𝘯𝘰𝘵 𝘴𝘩𝘢𝘳𝘦 𝘵𝘩𝘦 𝘱𝘰𝘴𝘵 𝘸𝘪𝘵𝘩𝘰𝘶𝘵 𝘨𝘪𝘷𝘪𝘯𝘨 𝘤𝘳. 
+🍀[ꜰᴏʟʟᴏᴡ , ʟɪᴋᴇ , ꜱᴀᴠᴇ]</t>
+  </si>
+  <si>
+    <t>Stay Tuned! Get ready for Playtime with seekoneart!⁠
+Our upcoming show is an exclusive kick-off to summer with a show that brings in every color of the season! ⁠
+⁠
+Preview the show now at the link in our bio and make sure to mark your calendar for the Playtime's opening reception on May 6th from 5 pm-7 pm at The White Room Gallery in Bridgehampton, NY. ⁠
+⁠
+"Birkin" Mixed media on paper in custom white floating frame⁠
+27 x 27 in⁠
+⁠
+"A Girl and Her Handbags" Mixed media on wood panel with epoxy resin finish⁠
+48 x 48 in⁠
+⁠
+"Summer in the Hamptons" Mixed media on wood panel with epoxy resin finish⁠
+48 x 72 in⁠
+⁠
+"Virgil Vision" Mixed media on wood panel with epoxy resin finish⁠
+48 x 48 in</t>
+  </si>
+  <si>
+    <t>𝓵𝓪 𝓼𝓸𝓷𝓻𝓲𝓼𝓪 𝓮𝓼 𝓶𝓲𝓪, 𝓹𝓮𝓻𝓸 𝓮𝓵 𝓶𝓸𝓽𝓲𝓿𝓸 🫵 𝓮𝓻𝓮𝓼 𝓣𝓾 ❤︎ 
+✯✰✯ ӇΛƤƤƳ ƬЦЄƧƊΛƳ ✰✰✯
+❤︎ 𝑪𝑯𝑨𝑵𝑬𝑳 ❣︎ ❤︎ 𝑮𝑼𝑪𝑪𝑰 ❣︎</t>
+  </si>
+  <si>
+    <t>Chanel Couture Spring 1997</t>
+  </si>
+  <si>
+    <t>chanelofficial by karllagerfeld autumn/winter 2010-11 faux fur boots.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Beautiful client 💕 Makeup by Raman Sandhu unicorn_makeup_studio.
+Hair beautyworld_studio1 Mannie</t>
+  </si>
+  <si>
+    <t>🔥Like new chanel woc lamb holo31
+🔥fullset
+💰88,900.-
+   #ร้านชำของคุณป้าเนโกะ</t>
+  </si>
+  <si>
+    <t>Supermodel Liu Wen #刘雯 liuwenlw vogueplus voguechina May.2023.
+:
+:
+:
+:
+:</t>
+  </si>
+  <si>
+    <t>O meu perfume e a minha camisa com mais anos , se não a minha favorita 🌷           #ａｅｓｔｈｅｔｉｃ</t>
+  </si>
+  <si>
+    <t>*ੈ ♡✩‧₊˚ // The Blair Bitch Project 
+—  
+・❥・</t>
+  </si>
+  <si>
+    <t>Pool day in marliesdekkersofficial 🌞  
+Honestly the most flattering bikinis and swimsuits I know about 🙌🏼
+(pr)
+              ña</t>
+  </si>
+  <si>
+    <t>🤨🤨🤨🤨
+girlbloggeraesthetic</t>
+  </si>
+  <si>
+    <t>Quick Case Study: Louis Vuitton
+Louis Vuitton was founded in 1854 in Paris, France, as a luggage company specializing in travel trunks.
+The brand's signature monogram canvas was created in 1896 by Louis Vuitton's son, Georges. It features the LV logo and quatrefoil flower symbols and has become one of the most recognizable patterns in the fashion world.
+The iconic Speedy bag was created in 1930 as a smaller version of the Keepall travel bag. It quickly became a fashion icon and has been worn by many celebrities, including Audrey Hepburn and Jessica Simpson.
+Louis Vuitton is known for its collaborations with artists and designers. In 2001, the brand collaborated with Japanese artist Takashi Murakami to create the iconic Multicolore Monogram collection.
+The brand's Neverfull tote bag is another iconic piece that has been popular since its introduction in 2007. Its spacious interior and stylish design have made it a favourite among fashionistas and celebrities alike.
+Louis Vuitton is one of the most counterfeited luxury brands in the world. To combat this, the brand uses various anti-counterfeiting measures, such as adding holographic tags and embedding microchips in its products.
+The Louis Vuitton Alma bag is another iconic piece that has been popular since its introduction in the 1930s. It was originally designed for Coco Chanel, who requested a smaller version of the brand's iconic travel trunks.
+LV has a rich history of creating custom trunks for celebrities and royalty. Some of the most notable clients include Queen Elizabeth II, Muhammad Ali, and Michael Jackson.
+The brand's runway shows are known for their elaborate sets and avant-garde designs. In 2012, the brand's Spring/Summer collection was shown on a giant carousel at the Louvre Museum in Paris.
+Louis Vuitton has expanded beyond fashion and now offers a range of products, including jewellery, watches, and perfumes.</t>
+  </si>
+  <si>
+    <t>Sofia Richie’s bridal wedding ceremony &amp; after-party Chanel haute couture dresses. A short mini dress is originally worn by Claudia Schiffer on f/w 1993 haute couture runway show!🤍</t>
+  </si>
+  <si>
+    <t>Congratulations to Sofia Richie &amp; Elliot Grainge who are officially married!! Sofia wears all 3 wedding looks by Chanel🤍
+vogue voguemagazine voguerunway 
+chanelofficial virginieviard</t>
+  </si>
+  <si>
+    <t>#люблюживотных</t>
+  </si>
+  <si>
+    <t>About last night ✨
+Dinner mit Freunden im MALO💚💚💚
+                 💚🖤</t>
+  </si>
+  <si>
+    <t>24-hour online service</t>
+  </si>
+  <si>
+    <t>We’ve been looking at photos of sofiarichie and elliot’s wedding 🎶 all night long 🎶 and we can’t get enough. Scroll through for some snaps of the star-studded Jewish wedding, complete with a seven minute walk down the aisle and a fireworks exit 💥✨
+📷: vogueweddings normanandblake germanlarkin 
+📝: bananasplitevents 
+🌸: roni_floral_design 
+📍: hotelducapedenroc 
+💋: patidubroff 
+👗: chanelofficial</t>
+  </si>
+  <si>
+    <t>Jewelry Boutique Dubai
+Development of architecture design for houses, cottages in 3D format in accordance with the size of the customer.
+.
+.
+.
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>🌷With the bittersweet conclusion of Queen Elizabeth's 70-year reign, the lessons of Elizabeth's leadership as sovereign cannot be minimalized. 
+🌷Queen Elizabeth was thrust onto the throne, untethered and relatively untrained. 
+🌷She inherited a multi-dimensional position as sovereign of her country and the figurehead of the Commonwealth of Nations. 
+🌷For seven decades, Elizabeth forged her way through triumph, tragedy and trauma, yet experienced exponential growth and unrivaled admiration.
+🌷As an entrepreneur, it is with a keen eye that we must glean through the thicket of immense experiences Elizabeth forged. 
+🌷As a business owner, lessons on her leadership hold a dynamic approach to how we must conduct our business. 
+🌷Queen Elizabeth understood that her platform was as a visionary. 
+🌷Her platform was not focused on immediate gratification, yet it was positioned to weather volatility. 
+🌷Her Majesty understood the power of playing the long game.
+🗣📣👇🏻✍🏻Please, tell me 👑
+The Queen is a very special and unique person?
+👑
+   🇬🇧     
+📸Getty Images ®</t>
+  </si>
+  <si>
+    <t>🌟 When the stars align just right 🌟
+Chanel fine jewelry now available in Saks Greenwich.
+.
+.</t>
+  </si>
+  <si>
+    <t>Blue fantasy 雰囲気🪁🫧
+          #コーデ #シャネル</t>
+  </si>
+  <si>
+    <t>This turned into an interesting tan 🥴
+.
+.
+...
+..
+.
+..
+.
+.</t>
+  </si>
+  <si>
+    <t>Congratulations louisvuitton on a successful re-grand opening at lenoxsqmall. Well done to all your staff and support workers! 👏🏾 
+.</t>
+  </si>
+  <si>
+    <t>Coco Crush chanelofficial 🖤</t>
+  </si>
+  <si>
+    <t>💕씨엘린
+💟스팽글 금단추 면사가디건 
+  실제보믄  정말반짝이고 이쁜데 영상에  안담기네요ㅜㅜ
+  Size =S.m.l
+.
+#씨엘린#핑크진#하이퀄리티여성의류#하이퀄리티수입의류#하이퀄리티쇼핑몰#수입의류#수입니트대여성의류 #여름코디룩#여름신상#셋업코디#여름자켓세트#샤넬운동화#셀린</t>
+  </si>
+  <si>
+    <t>She got the hottest outfit ever... JENNIE COACHELLA WEEK 2 ❤️‍🔥
+[ Like and comment pls ] follow jenicons__ for more 
+☆ Dont repost without credit 
+jennierubyjane
+Tags  
+:</t>
+  </si>
+  <si>
+    <t>🥰❤️</t>
+  </si>
+  <si>
+    <t>𝐈𝐧𝐬𝐩𝐢𝐫𝐚𝐭𝐢𝐨𝐧 Day to evening essentials.⁣
+fashionruelle is serving us the ideal street style inspiration.⁣
+______________⁣</t>
+  </si>
+  <si>
+    <t>🤍
+-
+-
+‎كل عام وانتم بخير 🤍
+-
+-
+-
+-</t>
+  </si>
+  <si>
+    <t>Summer wardrobe ready 🌷💅🏼💐☀️
+𝒟𝑀 𝓉𝑜 𝓅𝓊𝓇𝒸𝒽𝒶𝓈𝑒 🤍 
+▫️24/7 customer care
+▫️Shipping worldwide
+▫️AFFORDABLE🤍
+▫️Sourcing 🔎 
+.
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>If you need my products, please add my whatsapp: +8618950702971 consultation, we accept PayPal and MoneyGram, free shipping worldwide, here are the cheapest prices and best quality</t>
+  </si>
+  <si>
+    <t>Classic Chanel 🖤</t>
+  </si>
+  <si>
+    <t>Hair and makeup Bal bellaartistryy29 
+________________________________
+Book now for Bridal/Non-bridal 
+ 📞604 760 9197 
+_______________________________</t>
+  </si>
+  <si>
+    <t>If you want to know the price, add my contact information WHATSAPP+8618950702971, we wholesale and retail all kinds of luxury brands (shoes, clothes, hats, belts, etc.) the lowest wholesale price, the best quality of goods, support free shipping, paypal payment, yes Interest can contact me</t>
+  </si>
+  <si>
+    <t>I will follow the person who will comment the most
+Follow ~ Like ♡ comment ۝ share↗
+Tags:
+ #블랙핑크  é</t>
+  </si>
+  <si>
+    <t>The cutest makeup of the season🌸🌸🌸
+.
+.
+.
+.
+      şantaşı</t>
+  </si>
+  <si>
+    <t>The category is: the chain belt ⛓️
+Acclaiming its presence on the 90s and 00s runway shows, the chain belt has already made few comebacks in the past decade. 
+Doesn’t matter if you are a millennial or a Gen Z, you are familiar with this trend and possibly still have one of these in your closet!! 
+1. britneyspears back in 2004
+2. lindsaylohan serving the perfect early 2000s look. 
+3. jlo at the VH1/Vogue Fashion Award,2000
+4. The classic chanelofficial chain belt from Spring 1995 RTW collection 
+5. aaliyah at the premiere of the’ Planet of the Apes’ movie, 2001
+6. blumarine S/S 2022
+7. mariahcarey back in 2003
+Love,
+No Glitter Before Noon</t>
+  </si>
+  <si>
+    <t>Darling I love black . Black is such a happy colour.</t>
+  </si>
+  <si>
+    <t>🇬🇧</t>
+  </si>
+  <si>
+    <t>Hair and makeup bellaartistryy29 
+_____________________________
+Book now for Bridal/Non-bridal 
+ 📞604 760 9197 
+_______________________________</t>
+  </si>
+  <si>
+    <t>Gucci Blondie medium shoulder bag by</t>
+  </si>
+  <si>
+    <t>所有的熱情都會在失望和等待中消失 無一例外 🩵🤍
+.
+.</t>
+  </si>
+  <si>
+    <t>Something borrowed (from my mom), something blue. Last weekend before Met means all kinds of chanelofficial and polished ease. I love a good mix of vibes in a look. Hope you are having a great weekend! 🤍 
+•
+•
+•</t>
+  </si>
+  <si>
+    <t>💸 Sold  
+沒有額外花巧嘢，簡單的一條已很好看～</t>
+  </si>
+  <si>
+    <t>———She’s married now! 
+Sofia Richie Grainge is now a hyphenated woman and she made the name change fashionably and in none other than the ever classic brand, Chanel. 🤍 
+ for the looks &gt;&gt;&gt; 
+-
+-
+-
+-</t>
+  </si>
+  <si>
+    <t>Sofia Richie looked stunning in Chanel on her wedding day in France.
+Makeup by Pati Dubroff and hair by Kathleen Riley 🤍
+sofiarichie chanelofficial patidubroff kathleen_hair                            
+📸 Vogue Weddings, Vogue Beauty</t>
+  </si>
+  <si>
+    <t>In my 
+as a  
+it is better
+to use a 
+than
+leggings in public.
+I know, Claudia Schiffer
+walked around
+in leggings
+for 
+anno 2019
+and since then
+it should look normal
+for any female
+to show off...their bodies.
+No.
+I is not
+even
+fashionable.
+Every  would agree.
+If you want to be average,
+then have fun
+wearing
+a T-Shirt.
+.
+.</t>
+  </si>
+  <si>
+    <t>First look at the wedding of Sofia Richie + Elliot Grainge at Hotel du Cap-Eden-Roc in Antibes 😍
+.
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>chanelofficial  chanel.beauty 
+#샤넬 #샤넬옴므 #케이터링</t>
+  </si>
+  <si>
+    <t>"🎈Product :👞,👜,👚,⌚️ and so on.  my whatsapp:📞+86 15759905991
+✈7-12days can be delivered.</t>
+  </si>
+  <si>
+    <t>Happy with my pieces I put together and beaded for this show I been working on an act. I’m coming hot and blazing for this. Usually I’m always nervous before a show but this time I m in the zone and loving every second till countdown. Saturday 4/29 at 8pm Splash Modesto. 🥵</t>
+  </si>
+  <si>
+    <t>بسم الله الرحمن الرحيم
+Muhafazakar yaşam tarzını kendisine şiar edinenlerin  tercih ettiği tüm tesettür giyim ürünleri , özellikle vücut hatlarını örten İslami giyim ürünleri hem günlük hayatınızda hemde özel günlerinizde severek rahatça giyebileceğiniz tüm ürünleri siz değerli müşterilerimiz için hazırlıyoruz . Tüm ürünlerimiz kişiye özel dikimdir . İstenilen model istenilen renk ve ölçülerde hazırlanır. Dünyanın her yerinde kargomuz mevcuttur. 
+.
+.
+.We are preparing all the hijab clothing products preferred by those who adopt the conservative lifestyle as their motto, especially Islamic clothing products that cover the body lines, all products that you can wear comfortably both in your daily life and on your special days, for our valued customers. All of our products are tailor made. The desired model is prepared in the desired color and dimensions. We have cargo all over the world.
+.
+.
+نقوم بإعداد جميع منتجات ملابس الحجاب التي يفضلها أولئك الذين يتبنون أسلوب الحياة المحافظ كشعار لهم ، وخاصة منتجات الملابس الإسلامية التي تغطي خطوط الجسم ، وجميع المنتجات التي يمكنك ارتداؤها بشكل مريح في حياتك اليومية وفي أيامك الخاصة ، من أجلنا عملائنا الكرام. جميع منتجاتنا مصممة خصيصا. يتم تحضير النموذج المطلوب باللون والأبعاد المرغوبة. لدينا بضائع في جميع أنحاء العالم. .
+         # #</t>
+  </si>
+  <si>
+    <t>Cute
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>✨Double Trouble✨1995 Spring by KL part of our archives</t>
+  </si>
+  <si>
+    <t>[📑] The Glory'de rol alan Güney Koreli aktris Song Hye-Kyo, Hyunji'nin JENNIE ile yaptığı paylaşımı beğendi.
+• South Korean actress Song Hye-Kyo, who starred in The Glory, liked Hyunji's post with JENNIE.</t>
   </si>
   <si>
     <t>I am a brand wholesaler, DHL and Federal worldwide free shipping, if you need to purchase,
@@ -1467,25 +2033,616 @@
 Paypal remittance is acceptable. You can receive your goods in ✈7-12 days.</t>
   </si>
   <si>
-    <t>#香奈儿 #爱马仕 #lv #birkin #gucci #hermes #kelly #lasvegas #louisvuitton #迪奥 #constance #chanel #巴黎 #宝格丽 #fashion #卡地亞 #铂金包 #fendi #天津 #usa #周杰倫 #北京 #guccishoes #劳力士 #vegas #伦敦 #lvshoes #深圳 #supreme #卡地亚</t>
-  </si>
-  <si>
-    <t>#chanel #chanelarchive #2008 #chaneldress #hautecouture #karllagerfeld #umathurman #2011 #amfar #amfarcannes #chanelontheredcarpet #redcarpetlook</t>
-  </si>
-  <si>
-    <t>Hello, what are you doing today ? Tell me ! Enjoy your life ❤️ . .
-.
-.
-.
-.
-.
- #chanel by #catherinebparis 
-.
-.
-.  #chanelbag #chanelclassic #chanelvintage #chanellove #chanelbeauty #chaneladdict #chanelcollection #chaneltimeless #saintgermaindespres #pictureoftheday #saturday #placevendome</t>
-  </si>
-  <si>
-    <t>Ellas, siempre…🌸🍀❤️ #DayOff #DiaDePlaya #DoggieMom #Mora #Chanel #Summer2023</t>
+    <t>Sofia Richie is glowing as a Chanel Parisian Princess 🤍
+What was your favorite detail from the star studding sophisticated wedding?</t>
+  </si>
+  <si>
+    <t>[📑] JENNIE'nin solo fansiteleri JENNIEBAR_CN, BabyBlue_Jennie ve JGU, Coachella'nın 2. Haftası için bir gökyüzü projesi düzenledi! 💙
+Gökyüzünde yazacak yazı 💬 : We ♡ U JENNIE 
+Tarih: 23 Nisan 2023
+Zaman: 01.00-02.00 (TSİ)
+Konum: 📍Coachella Vadisi
+Yarın görüşürüz! 🏜️❤️‍🔥
+• JENNIE's solo fansites JENNIEBAR_CN, BabyBlue_Jennie and JGU held a sky project for Week 2 of Coachella! 💙 
+The text to write in the sky 💬 : We ♡ U JENNIE  
+Date: April 23, 2023 
+Time: 01.00-02.00 (CET) 
+Location: 📍Coachella Valley 
+See you tomorrow! 🏜️❤️‍🔥</t>
+  </si>
+  <si>
+    <t>Love knit midi dresses for spring 🧡</t>
+  </si>
+  <si>
+    <t>[📑] JENNIE'nin Coachella etiketi , Tiktok'ta 100M+ görüntülenmeyi aştı! 
+Böylece, tüm Coachella tarihinde platformda 100 Milyon görüntülemeyi aşan ilk kişi oldu!
+•  have now surpassed +100M views on Tiktok!
+Thus, she became the first person to exceed 100 Million views on the platform in the entire history of Coachella!</t>
+  </si>
+  <si>
+    <t>Ugandan-Canadian actor whitneypeak is showcasing her natural beauty on the new ellecanada cover!🤍
+For the cover story, the star talks about her new role as the face of ’s  fragrance, her career trajectory, family and much more. 
+Photographer and Creative Directors: sofiaandmauro
+Stylist: annemariebrouillet
+Hair: marcorsatelli
+Makeup: sandrinecanobock
+Manicurist: joe_anna_paris
+Writer: theo_dc</t>
+  </si>
+  <si>
+    <t>I don’t do fashion. I am fashion.✨
+-Gabrielle Chanel "Coco Chanel"
+　　Ƭʜᵃℕҡ you♡
+📸Marie's photos</t>
+  </si>
+  <si>
+    <t>wore a $1,490  top and  accessories while celebrating her wedding weekend in . Thoughts? 📸IG/Reproduction</t>
+  </si>
+  <si>
+    <t>"As a father, the most intense moment after seeing his daughter born, is bring her to the man of her life!" About last week end, we can say that we are more than proud to have attended sofia and elliot sofiarichie elliot wedding, we couldn't start this season of madness better than with one of the biggest weddings of the year. chanelofficial vogueweddings voguemagazine lionelrichie roni_floral_design bananasplitevents hotelducapedenroc</t>
+  </si>
+  <si>
+    <t>Loving me is like driving a new astonmartin down a dead-end street. Faster than the wind, passionate as sin ending so suddenly ✨🥳</t>
+  </si>
+  <si>
+    <t>Make a statement with Henriette tiger jacquard sweater 🐅 Discover more at the link in bio</t>
+  </si>
+  <si>
+    <t>We have been engaged in the wholesale and retail of all kinds of brand shoes and bags for many years. Our goods are of high quality. The payment method is PayPal and bank transfer. The transportation methods are (FedEx, DHL, China Post). If you want to know the price, please Add my WHATSAPP+8618950702971</t>
+  </si>
+  <si>
+    <t>REDO
+Just a</t>
+  </si>
+  <si>
+    <t>Have it anyway you like, yah 
+I can tell you that you know I know how I want it 
+🩷</t>
+  </si>
+  <si>
+    <t>The Bride wore Chanel 🤍🥹💫</t>
+  </si>
+  <si>
+    <t>Eid with cliniqueuk x sebinaah 🤍🌙
+I don’t usually get the chance to attend events because of work commitments but I am so grateful to even be invited! An event that celebrates Muslim women is such a beautiful thing!
+I got to meet such lovely ladies! Women empowerment is everything 💕
+Outfit is dressbox_fashion I received so many compliments! I purchased it at the thessedit Ramadan exhibition 💕</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low 🆕🆕 男女款齊碼‼️
+**可以使用消費券(Alipay / 八達通 / PayMe / Tap n Go ) **
+~不收取任何手續費~
+………………………………………………………………………….
+🧸長期有同事長駐東京，無截單時間🎀
+-✅Please Follow our Instagram @ tokyobuyjapan 
+-請不要Whatsapp/Facebook重復落單
+❶下單方式: INBOX / Whatsapp WHATSAPP ~請按此連結下單 👇🏻👇🏻👇🏻👇🏻👇🏻👇🏻👇🏻👇🏻👇🏻👇🏻 https://api.whatsapp.com/send?phone=85294163777 
+https://wa.me/message/LBBL7IS3Z3PGN1
+❷ IG DM ~ Tokyobuyjapan
+❸門市地址－屯門杯渡路99號 99Commons 503室
+❹付款方式: 💲FPS / PAYME/ ALIPAY HK 
+❺Whatsapp Group 👉🏻👉🏻👉🏻 
+https://chat.whatsapp.com/GbTU0CIldfkHCjeopd1ewu
+📍Disclaimer📍
+All copyrights are reserved to the original brand holders.
+.
+本店照片只作分享用途，tokyobuystore與任何品牌無關，所有商標和版權屬該品牌所有及品牌財產。
+#名牌 #名牌手袋     #村上隆 #村上隆花花  #日本代購 #日本直送           #屯門  # cdgplay  #中古日本  #中古名牌</t>
+  </si>
+  <si>
+    <t>𝑪𝒉𝒂𝒏𝒆𝒍〰️
+LEBOY S SIZE 20cm🤍
+90-95%NEW✨有卡 盒 塵袋 26開頭〰️
+溫柔的奶白金荔枝皮 錯過難搵靚色🤩
+𝑺𝒐𝒍𝒅 售出欣賞📦
+——————————————————
+📍商業註冊公司 正貨保證 Since 2018
+💛Website: Buytillforever.com 
+❤️右上角記得 開啟限時動態通知 每日更新🆕
+🛒下單前需付一半訂金留貨 先付款先得
+🦋付款方法 銀行過數 轉數快 PAYME 支付寶 信用卡
+💌Direct Inbox / WhatsApp +852 67632830 
+——————————————————
+📌buy.till.forever與任何品牌無關。所有商標和版權仍然屬於該品牌的唯一財產。
+No cooperations between the brands and buy.till.forever.
+All copyrights are reserved to the original brand owner.</t>
+  </si>
+  <si>
+    <t>It’s a girl! 💕 Whoever said shopping was cheaper than therapy didn’t know a thing about my shopping habits.</t>
+  </si>
+  <si>
+    <t>GOOD CHARL(IONEL)OTTE 
+ joelmadden with use.repost
+・・・
+lionelrichie benjaminmadden 🤘❤️✨</t>
+  </si>
+  <si>
+    <t>▼
+𝑩𝒖𝒓𝒃𝒆𝒓𝒓𝒚 Vintage Mini Bag🤎
+𝑪𝒐𝒏𝒅𝒊𝒕𝒊𝒐𝒏 : Rank AB
+𝙎𝙞𝙯𝙚 : 20x14x5
+𝑯𝑲𝑫 $1650🤎
+🕰 中古或是二手貨品因時間年代問題 都會有瑕疵 介意者勿購
+📦 本店所有美品出門 不退不換
+🛒 預購貨品需要付全數 等待7-14天到貨 除預購失敗 
+✨ 否則訂金不退
+🏷歡迎DM 查詢
+與任何品牌無關。所有商標權仍然屬於該品牌的唯一財產。
+All copyrights are reserved to the original brand owner.</t>
+  </si>
+  <si>
+    <t>I feel like Willa would be mj and Romeo his bff 
+DONT know what this is💯💯</t>
+  </si>
+  <si>
+    <t>category is - trains on the metmuseum steps!
+1) kendalljenner in prada
+2) badgalriri in guopei 
+3) zoesaldana in dolcegabbana 
+4) blakelively in versace by donatella_versace 
+5) iamcardib in thombrowne 
+6) gigihadid in versace by donatella_versace 
+7) ladygaga in brandonmaxwell 
+8) blakelively in versace by donatella_versace 
+9) shalomharlow in ralphlauren 
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Thank you the_bearded_blogger_2 ! 
+m u s e  x  k a r l 
+Miss V &amp; me 🤍
+Photographed by Karl.
+“So in light of Vogue’s May cover celebrating Karl Largerfeld, and some of his beloved “Muses”, I’ve decided to celebrate the Muses that were somehow overlooked. I mean where was Claudia? Christy? Marpessa? Ines? Not even Linda or Daria?! There were certainly some interesting choices from Anna and her team, some of which I’d question as even embodying the true essence of a Muse….”
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>❣️</t>
+  </si>
+  <si>
+    <t>Today, I was invited by a friend to attend the LV fashion show. The clothes were very good and the design was very creative.</t>
+  </si>
+  <si>
+    <t>Liz is mother for a real reason.</t>
+  </si>
+  <si>
+    <t>sofiarichie and elliot are officially Wedded🤍 The Bride wore not one but three custom  dresses and we’re obsessed with ALL of them!
+We can’t wait to see more from their destination wedding at hotelducapedenroc in Antibes, France! 
+📷: emiliewhitephotography, voguemagazine</t>
+  </si>
+  <si>
+    <t>the heart dish!!! it’s so cute!🎀🏹🩰</t>
+  </si>
+  <si>
+    <t>paristexas_it   chanelofficial superbrands_secondhand   balmain    hermes #😘💄👠💕🎀💝💍💎🐝👸</t>
+  </si>
+  <si>
+    <t>sneakers👟, own factory, export wholesale worldwide🔥, free shipping✈, top quality😊
+Accept face-to-face video to see quality👌
+☎Contact our manager: whatsapp: +8613062299152
+Line: noke9090</t>
+  </si>
+  <si>
+    <t>-boss</t>
+  </si>
+  <si>
+    <t>One more fore the people in the back! 
+Vest from limited collaboration between Fragment's Hiroshi Fujiwara and Kim Jones fall-winter 2017. Featuring five pockets on front and hardwear details in rainbow. Print and embroidery on front, print on back. Color black, can lean towards greyish and blueish in certain lights. CLoses with silver zipper. Drawstrings on both sides.
+Size 50, fits L
+We have quite a collection from this collab, so make sure to check out the rest in our webshop 🌞</t>
+  </si>
+  <si>
+    <t>0485 68 03 69 ☎️ 👩🏼‍⚕️</t>
+  </si>
+  <si>
+    <t>WE 🖤 SMOOKY GLAM
+MUSE: vansybeauty 
+MUA: brenda.beauty.studio 
+PHOTOGRAPHER: mathieu.dphotographie</t>
+  </si>
+  <si>
+    <t>reading in cute pj sets📖🧸💗&gt;&gt;
+.
+the cutest set ever from flowered_souls🎀💓
+.
+.
+. 
+.
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>#طلاء_اظافر        #     #العناية_بالاظافرçakjewelry</t>
+  </si>
+  <si>
+    <t>🖤 chanel 23p 银色横版kelly 🖤
+這隻真的太時髦了,好愛!銀色是羊皮哦,質感超好的!足夠精緻又不會太高調!
+This one is so stylish. I love it! The silver is sheepskin. It has a great texture! Sophisticated enough without being too loud!</t>
+  </si>
+  <si>
+    <t>When you’re broke but no one thinks you’re broke because you look fabulous 🥰</t>
+  </si>
+  <si>
+    <t>margotrobie.0ficial 
+.
+Margot Robbie from the Jimmykimmellive talk show ❤️‍🔥
+margotrobie.official</t>
+  </si>
+  <si>
+    <t>And everything was delusional</t>
+  </si>
+  <si>
+    <t>On March 9, Meghan marked International Women's Day through a visit to Harvest Home, a Los Angeles charity which supports expecting mothers &amp; their children. Along with members of the Archewell team, Meghan helped put together a baby boutique for the organization, and was seen out to lunch in LA the same day. 
+For this event, the duchess chose a monochrome separates look, including a black cashmere coat by maxmara, a matching ribbed sweater possibly by the same brand, and altuzarra cropped trousers. She accessorized with her maisonvalentino sunglasses &amp; flats, as well as a new chanelofficial statement bag which we haven't seen her carry before. For jewelry, she wore some large, possibly vintage enamel button earrings, a UFO gold necklace, and her usual bracelet stack including her cartier watch &amp; bentleyskinner diamond bracelet.
+I really loved this look on Meghan. For me an all-black look will always be the height of chic, although this one was obviously worn in LA it gives me New York or Paris style vibes. I think that's why I like it so much - while simple, this is a super versatile look that would work well for so many different occasions or locations. Personally I find that Meghan does these sort of "upscale casual" or borderline on/off-duty looks very well (I've included a few examples on the last slide here!). 
+The cropped trouser/pointed flat is a vintage-esque feature that I always love, and as usual for me Meghan's accessorizing was pretty on point here - as a flats girl myself I love the shoes, and I'm pretty much always on board for a statement bag. The only part of the outfit I didn't like were the earrings. These seemed a little too large &amp; out of place with the rest of the look for me - I think I would have opted for a small gold hoop or stud instead. But overall, it was a hit for me! What did you think? 🖤</t>
+  </si>
+  <si>
+    <t>NEW ARRIVALS
+- 
+Chanel Vintage Gold Turnlock CC LOGO EARRINGS / Brooch
+金色 水鑽書包釦CC LOGO Logo 耳夾/胸針
+-
+金色 水鑽書包釦LOGO耳環/胸針
+超稀有款
+可以湊一組❤️❤️
+各一對同色～～～
+顯臉小款
+——— ——— ——— ——— ———
+詢價一律私訊小盒子我們😬😬👍🏻
+In box for us 📩📩
+🚢shipping Worldwide 🌍
+📩DM for more information 📩
+💳Online Payment 💳
+Wechat微信：Jeffrey5168
+官方LINE:boxroom
+——
+Box Room Vintage
+🈺️14:00-20:00
+☎️（02）2568-2536
+📍台北市中山北路二段39巷14號2F
+-</t>
+  </si>
+  <si>
+    <t>This Black &amp; White Pre-Owned Chanel J12 Watch is a timeless classic - perfect for adding a touch of luxury to any look 🖤 Seen here paired with our stunning Black and White Diamond Tennis Bracelets 🤍⁠
+⁠
+DM our Sales Associates to inquire about our Pre-Owned Watch Collection ⌚️</t>
+  </si>
+  <si>
+    <t>BLACKPINK’in Coachella 2. hafta performansından JENNIE! [TYPA GIRL + SHUT DOWN]
+[ENG]
+JENNIE from BLACKPINK's Coachella week 2 performance! [TYPA GIRL + SHUT DOWN]</t>
+  </si>
+  <si>
+    <t>SPRING/SUMMER 2023 MOOD chloessevigny 
+Today we couldn’t stop thinking about that new Bottega Veneta Paper Leather Shopping Tote, chloessevigny and never not thinking about chanelofficial by karllagerfeld 
+The Chanel Spring/Summer 2009 Ready to Wear Collection by Karl lives rent free in our minds, along with other iconic collections by Mister Lagerfeld. 
+But this bag, this bag. We will never forget the first time we saw it. It was like a moment of silence because although it might be silly, a leather shopping bag is something that will have the girls gagging</t>
+  </si>
+  <si>
+    <t>Women who wear black lead colorful lives 🖤🖤
+_Neiman Marcus
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Our online store of fashionable pillow
+www.allurefashion.store</t>
+  </si>
+  <si>
+    <t>I think you know by now that I love wearing grey🤍✨</t>
+  </si>
+  <si>
+    <t>💙gros craquage sur ce jeans à Paris 💙vous aimez ?? (Je vais mettre les ref en story )
+•</t>
+  </si>
+  <si>
+    <t>NIL SU 🐚</t>
+  </si>
+  <si>
+    <t>"🎈Welcome to my shop We sell shoes, bags, belts, glasses, clothes and so onShipping to the world (✈DHL, FedEx, UPS)
+ Please contact me on WhatsWpp:📞+86 15759905991</t>
+  </si>
+  <si>
+    <t>my bad yall
+-</t>
+  </si>
+  <si>
+    <t>Giving me the Couture feels 🌸   
+.</t>
+  </si>
+  <si>
+    <t>Coco Chanel during a working visit to Los Angeles, in 1931.PHOTOGRAPH © 1931 LOS ANGELES TIMES; DIGITAL COLORIZATION BY LEE RUELLE.
+Wow I LOVE that desk😍</t>
+  </si>
+  <si>
+    <t>🔥🔥 20% OFF All Orders 💰💰💰
+🔥🔥 20% OFF All Orders 💰💰💰
+☑️ FAITH
+☑️Unisex Baseball T-Shirt
+👕👚 Colors: Different colors on here
+🛅🛅 Size: S-M-L-XL-2XL-3XL Sizes are available
+🆕🆕 New collections of naturalallydani ❤️‍🔥
+☑️ Follow us: 
+💕💕 Visit our store and get your best choice 🔥🔥
+🚻🚻 To get your products please visit the link below: 👇👇👇
+https://lnkd.in/g64cmUf2
+⤴️⤴️⤴️⤴️⤴️⤴️⤴️⤴️
+=============================
+✅ New collections naturalallydani ↩️
+🔥🔥 20% OFF All Orders 💰💰💰
+🔥🔥 20% OFF All Orders 💰💰💰
+💕💕 Visit our store and get your best choice 🔥🔥
+🚻 Visit our store and get lots of Amazing Collections🚻</t>
+  </si>
+  <si>
+    <t>🩰🦌
+subdued 
+-
+-</t>
+  </si>
+  <si>
+    <t>és</t>
+  </si>
+  <si>
+    <t>Finally Trench Season - my beauty is from goelia_official</t>
+  </si>
+  <si>
+    <t>𝑪𝑬𝑳𝑰𝑵𝑬 𝑣𝑖𝑛𝑡𝑎𝑔𝑒 𝐻𝑜𝑟𝑠𝑒 𝐶𝑎𝑟𝑟𝑖𝑎𝑔𝑒 𝐶 𝑠ℎ𝑜𝑢𝑙𝑑𝑒𝑟 𝑏𝑎𝑔
+•condition : B
+•components : 단품 
+•color : navy
+•size : 24 * 14
+•contact : dm &amp; 스마트스토어 ‪⸜( ˶'ᵕ'˶)⸝</t>
+  </si>
+  <si>
+    <t>It’s a constant battle
+FOLLOW relatableshtx FOR MORE CONTENT LIKE THIS. 
+✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧ ✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧
+, Pinterest inspiration, food, coquette, coquette aesthetic, aesthetic, cottage core, nature, Chanel, Dior, makeup, coquette, disty, girly, princess, fashion manifest, lifestyle, quotes , luxury lifestyle , dark feminine aesthetic, Paris , New York , spring , fit , ootd
+✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧ ✧･ﾟ: *✧･ﾟ:* *:･ﾟ✧*:･ﾟ✧
+                       |magic</t>
+  </si>
+  <si>
+    <t>"🎈Please contact me on WhatsWpp:📞+86 15759905991 We have many nice products for you to chooseShipping to the world (✈DHL, FedEx, UPS)</t>
+  </si>
+  <si>
+    <t>"🎈Please add my WhatsWpp:📞+86 15759905991 (👞shoes, 👜bags, 👚clothes, ⌚️, 👓, 🛍，etc.)</t>
+  </si>
+  <si>
+    <t>inshapeoutfits</t>
+  </si>
+  <si>
+    <t>LUXURY is a necessity that begins when necessity ends…COCO CHANEL</t>
+  </si>
+  <si>
+    <t>Chanel Deauville
+AVAILABLE!
+🔺️ For pre order and inquiries kindly DM us here in IG, send me pics for a faster response. If you’re looking for something and it’s not posted we will gladly source for you💕
+MOP: BDO,BPI,METROBANK 
+ETA: 7-10 days Maximum 🔺️
+Happy Shopping✨ and stay safe everyone ✨🙏           
+Madforbagbyshelly Is not affiliated with any of the brands posted on this account, copyright and trademark are solely of the brand owners 
+All items are authentic and comes complete unless stated❤️Thankyou🙏🏻🙏🏻</t>
+  </si>
+  <si>
+    <t>Your handbags deserve a wonderful sleep. Get them the best pillows from Cush Cush! Sweet dream! 
+cush_cush_store</t>
+  </si>
+  <si>
+    <t>memories on film from Paris.
+thank you chanelofficial and the whole team for this experience🎞️</t>
+  </si>
+  <si>
+    <t>Me loving Dua Lipa ,Love again music Video so much that I wanted to do a photoshoot dressed in my version of her style from the music video. I felt inspired  Thank you, dave_stabley_photografx for your talents ,was happy to shoot with you , after what felt like forever.  dmetalentagency11 🙏💖.</t>
+  </si>
+  <si>
+    <t>Nails</t>
+  </si>
+  <si>
+    <t>230425 jennierubyjane Update at Coachella! 🎡
+ #제니  #블랙핑크</t>
+  </si>
+  <si>
+    <t>↘️New Price↘️
+Valentino Rockstud Tote- Light Pink
+Leather Type: Calfskin 
+Hardware：gold tone
+Condition: 9.9
+Comes with: strap, dust bag
+Size（W/H/D）：39x19x9cm
+Lafayette Price:$999cad
+Retail Price:$2700cad+
+SKU:2091504
+.
+👜 Toronto Local Pickup: Free, DM to Book Appointment
+📦🇨🇦 Shipping to Canada：Free (Canada Post)
+📦🇺🇸 Shipping to U.S：$30cad to $80 cad
+📦🌍 Rest of the world: DM for more details 
+.
+📣Don’t hesitate to DM us and request for more detailed photos📣
+.
+Contact:
+📪Unit 306-4750 Yonge Street, Toronto 
+📧Lafayetteconsignment@gmail.com
+🍀Wechat: Lafayette_trt
+.
+💳Payment Method：
+Paypal/Cash/EMT/Debit/Credit/Alipay/Wechat
+.
+Disclaimer: Lafayette Consignment Inc. is not associated or affiliated with the brands featured. All trade marks and copyrights remain sole property to the brands.
+.
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Belle of the Ball saveveniceinc 
+My Dearest Friend and Client thesophisticatenyc now Officially In A League of Own Winning Women’s Best Mask Award at the Save Venice Gala. Huge Congrats!! 
+Posted withregram • thesophisticatenyc Last night at savevenice   It was an incredibly fun night and the most successful ball to date for raising funds to save and restore the iconic City of Venice.
+I had the honor of winning the Women’s Best Mask Award 🥇 thank you so much fernandogarciam1205 and tokibunbun for selecting me and for designing my gorgeous gown! oscardelarenta ❤️ Creating my look for the evening with Guild of Hands guildofhands was a wonderful experience. guildofhands designed my bow cape with train and headpiece- I must thank christyrilling for winning as well. Such a surreal night✨ Dorothy Wang said it was like I won Miss America Pageant and it certainly felt like that 😂 I’m looking forward to the next ball with Save Venice in Venice, Italy this fall www.SaveVenice.com 📸 matteoprandoni bfa  #.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>- Abbiamo avvistato tchalamet (più bello che mai!) sul set di un nuovo spot per le strade di New York…
+Clicca sul link in bio per saperne di più!
+        éeChalamet            
+Via gettyimages</t>
+  </si>
+  <si>
+    <t>Barbie girl 🎀
+•
+•
+tags;
+            ｍe ✨</t>
+  </si>
+  <si>
+    <t>Photography by Guy Bourdin for Linea Italiana, 1981
+Clothes by Lanvin
+Suit Francesco Smalto
+Makeup Heidi Moravetz for Chanel
+Hair Katia for Coppola</t>
+  </si>
+  <si>
+    <t>Alfie Delevingne today 💘</t>
+  </si>
+  <si>
+    <t>A Good Denim TBT</t>
+  </si>
+  <si>
+    <t>Today's look for bbpilipinasofficial X everbilenaofficial Beauty Tour...
+dpiaisabel ❤️
+HMUA|| Make Up by Marxiah Jimenez
+Lashes|| paulashphilippines GOSH Set
+For inquiries, you may contact this number;
+GLOBE - 09171064822</t>
+  </si>
+  <si>
+    <t>NWJNS 🎞🤍✨
+ #민지 
+——
+[230411] newjeans_official update 
+——
+ #뉴진스</t>
+  </si>
+  <si>
+    <t>👕
+👖
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>Loewe tee now available. Turn on your post notifications for a few surprises. 
+.
+.
+.
+.
+.
+.
+.
+.
+.
+we do not own the rights to this photo. 
+             ïa</t>
+  </si>
+  <si>
+    <t>❌❌❌SOLD❌❌❌
+Pay over time options like affirm, PayPal pay 4 and most major credit cards accepted at check out on the website Binxcloset.com
+We also offer zero interest personal payment plans- message for details!
+Authentic  tote in great condition! This beauty is a medium size bag with clean interior (8/10) and one inside zippered pocket. Snap and zipper work as they should. Bottom corners have rubbing wear (reflected in price) and exterior and trim have general signs of use. Pet/smoke free.
+No returns/exchanges.
+Once item is scanned in with shipping carrier (USPS) Binxlv Closet releases liability.
+**DISCLAIMER and affiliation information 
+Binxlv closet is in no way affiliated with the aforementioned brand, all rights including trade mark,
+Images etc.. reserved</t>
+  </si>
+  <si>
+    <t>éeChalamet and  were spotted filming a commercial for  Bleu in .
+Hopefully they get along and this becomes a long working relationship between the 2 of them.
+🍿Share this post with your friends and follow ScreenThrill for all you need to know about movies 😃🎬</t>
+  </si>
+  <si>
+    <t>Sofia Richie is married to Elliot Grainge💍🇫🇷👰‍♀️ credit: pagesix</t>
+  </si>
+  <si>
+    <t>TIMOTHÉE IN NEW YORK
+via r3bsta
+.
+.
+.
+.</t>
+  </si>
+  <si>
+    <t>It's here! The first of sofiarichie’s wedding day fashion has been released! vogueweddings just released the three custom chanelofficial looks that the bride wore for her South of France wedding. 
+📷: emiliewhitephotography</t>
+  </si>
+  <si>
+    <t>Chanel vintage Cambon engine shoulder bag 
+A must for cool girls😎😎
+Which color is your favorite?
+.
+.
+DM us to buy
+.
+.</t>
+  </si>
+  <si>
+    <t>White look 🤍💫
+Aesthetic style , chic style , fashion style , Parisian style , beige aesthetic , white aesthetic , Cartier , Chanel , outfit inspo , neutral style , effortless chic , minimal style 
+———
+                            #ａｅｓｔｈｅｔｉｃ</t>
+  </si>
+  <si>
+    <t>My brand new original midi dress titled 
+Blue Mirrors of the mind 
+Created by Smitty Copyrighted</t>
+  </si>
+  <si>
+    <t>Layered up this La Vaca Loca summer dress at the weekend which I brought preloved a couple of weeks ago from my fave shop arabella_designerwear I have this in 3 other colours, just need the green now and my set is complete! It’s the perfect Lymphie friendly summer dress ❤️
+.
+.
+.</t>
   </si>
 </sst>
 </file>
@@ -1519,11 +2676,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1745,7 +2905,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="266.88"/>
+    <col customWidth="1" min="2" max="2" width="271.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1786,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -1797,7 +2957,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1808,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1830,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1841,7 +3001,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -1863,7 +3023,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -1874,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -1885,7 +3045,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1893,10 +3053,10 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -1904,7 +3064,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>0.0</v>
@@ -1915,7 +3075,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>1.0</v>
@@ -1926,10 +3086,10 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,10 +3097,10 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -1948,7 +3108,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
@@ -1959,10 +3119,10 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -1970,10 +3130,10 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -1981,7 +3141,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>0.0</v>
@@ -1992,7 +3152,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <v>1.0</v>
@@ -2003,10 +3163,10 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -2014,10 +3174,10 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -2025,7 +3185,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>1.0</v>
@@ -2036,10 +3196,10 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -2047,7 +3207,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <v>1.0</v>
@@ -2058,10 +3218,10 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -2069,7 +3229,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>1.0</v>
@@ -2080,10 +3240,10 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -2091,7 +3251,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
@@ -2102,10 +3262,10 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -2113,10 +3273,10 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -2124,7 +3284,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <v>1.0</v>
@@ -2135,7 +3295,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
         <v>0.0</v>
@@ -2146,7 +3306,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <v>1.0</v>
@@ -2157,7 +3317,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <v>1.0</v>
@@ -2168,7 +3328,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
         <v>0.0</v>
@@ -2179,7 +3339,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
         <v>1.0</v>
@@ -2190,10 +3350,10 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -2201,7 +3361,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
@@ -2212,10 +3372,10 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -2223,7 +3383,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1">
         <v>0.0</v>
@@ -2234,7 +3394,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1">
         <v>1.0</v>
@@ -2245,10 +3405,10 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -2256,10 +3416,10 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -2267,10 +3427,10 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -2278,10 +3438,10 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -2289,10 +3449,10 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -2300,10 +3460,10 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -2311,7 +3471,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1">
         <v>1.0</v>
@@ -2322,7 +3482,7 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C53" s="1">
         <v>1.0</v>
@@ -2333,7 +3493,7 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1">
         <v>1.0</v>
@@ -2344,10 +3504,10 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -2355,10 +3515,10 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -2366,10 +3526,10 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -2377,10 +3537,10 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -2388,10 +3548,10 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C59" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -2399,10 +3559,10 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C60" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -2410,10 +3570,10 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -2421,10 +3581,10 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C62" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
@@ -2432,7 +3592,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1">
         <v>1.0</v>
@@ -2443,7 +3603,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C64" s="1">
         <v>1.0</v>
@@ -2454,10 +3614,10 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -2465,7 +3625,7 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C66" s="1">
         <v>1.0</v>
@@ -2476,7 +3636,7 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C67" s="1">
         <v>0.0</v>
@@ -2487,10 +3647,10 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C68" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -2498,7 +3658,7 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C69" s="1">
         <v>1.0</v>
@@ -2509,7 +3669,7 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C70" s="1">
         <v>1.0</v>
@@ -2520,10 +3680,10 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C71" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -2531,10 +3691,10 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C72" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -2542,10 +3702,10 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C73" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
@@ -2553,10 +3713,10 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C74" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -2564,7 +3724,7 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C75" s="1">
         <v>1.0</v>
@@ -2575,7 +3735,7 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C76" s="1">
         <v>0.0</v>
@@ -2586,7 +3746,7 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C77" s="1">
         <v>1.0</v>
@@ -2597,7 +3757,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1">
         <v>1.0</v>
@@ -2608,10 +3768,10 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C79" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -2619,7 +3779,7 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C80" s="1">
         <v>1.0</v>
@@ -2630,10 +3790,10 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C81" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -2641,10 +3801,10 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C82" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -2652,7 +3812,7 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C83" s="1">
         <v>0.0</v>
@@ -2663,10 +3823,10 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C84" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -2674,7 +3834,7 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C85" s="1">
         <v>1.0</v>
@@ -2685,10 +3845,10 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C86" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -2696,10 +3856,10 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C87" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -2707,7 +3867,7 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C88" s="1">
         <v>1.0</v>
@@ -2718,7 +3878,7 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C89" s="1">
         <v>0.0</v>
@@ -2728,8 +3888,8 @@
       <c r="A90" s="1">
         <v>88.0</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>86</v>
+      <c r="B90" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C90" s="1">
         <v>1.0</v>
@@ -2740,10 +3900,10 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -2751,10 +3911,10 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C92" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
@@ -2762,10 +3922,10 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C93" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -2773,10 +3933,10 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C94" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -2784,7 +3944,7 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1">
         <v>1.0</v>
@@ -2795,10 +3955,10 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
@@ -2806,10 +3966,10 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -2817,7 +3977,7 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1">
         <v>1.0</v>
@@ -2828,10 +3988,10 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C99" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
@@ -2839,10 +3999,10 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C100" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -2850,10 +4010,10 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C101" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
@@ -2861,10 +4021,10 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C102" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -2872,10 +4032,10 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C103" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
@@ -2883,10 +4043,10 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C104" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -2894,10 +4054,10 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C105" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106">
@@ -2905,7 +4065,7 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C106" s="1">
         <v>0.0</v>
@@ -2915,8 +4075,8 @@
       <c r="A107" s="1">
         <v>105.0</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>102</v>
+      <c r="B107" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C107" s="1">
         <v>1.0</v>
@@ -2927,7 +4087,7 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C108" s="1">
         <v>1.0</v>
@@ -2938,7 +4098,7 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C109" s="1">
         <v>1.0</v>
@@ -2949,10 +4109,10 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C110" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
@@ -2960,7 +4120,7 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C111" s="1">
         <v>1.0</v>
@@ -2971,7 +4131,7 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C112" s="1">
         <v>1.0</v>
@@ -2982,10 +4142,10 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C113" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
@@ -2993,7 +4153,7 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C114" s="1">
         <v>0.0</v>
@@ -3004,10 +4164,10 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C115" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
@@ -3015,10 +4175,10 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C116" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="117">
@@ -3026,7 +4186,7 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C117" s="1">
         <v>0.0</v>
@@ -3037,7 +4197,7 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C118" s="1">
         <v>1.0</v>
@@ -3048,7 +4208,7 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C119" s="1">
         <v>1.0</v>
@@ -3058,8 +4218,8 @@
       <c r="A120" s="1">
         <v>118.0</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>115</v>
+      <c r="B120" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C120" s="1">
         <v>1.0</v>
@@ -3070,10 +4230,10 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C121" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
@@ -3081,7 +4241,7 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C122" s="1">
         <v>1.0</v>
@@ -3092,7 +4252,7 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C123" s="1">
         <v>1.0</v>
@@ -3102,11 +4262,11 @@
       <c r="A124" s="1">
         <v>122.0</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>119</v>
+      <c r="B124" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C124" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
@@ -3114,10 +4274,10 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C125" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
@@ -3125,7 +4285,7 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C126" s="1">
         <v>0.0</v>
@@ -3136,7 +4296,7 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C127" s="1">
         <v>0.0</v>
@@ -3147,10 +4307,10 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C128" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
@@ -3158,7 +4318,7 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C129" s="1">
         <v>0.0</v>
@@ -3169,10 +4329,10 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C130" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
@@ -3180,7 +4340,7 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C131" s="1">
         <v>1.0</v>
@@ -3190,11 +4350,11 @@
       <c r="A132" s="1">
         <v>130.0</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>127</v>
+      <c r="B132" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C132" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
@@ -3202,10 +4362,10 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C133" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
@@ -3213,10 +4373,10 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C134" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="135">
@@ -3224,10 +4384,10 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C135" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -3235,10 +4395,10 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C136" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
@@ -3246,10 +4406,10 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C137" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
@@ -3257,10 +4417,10 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C138" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
@@ -3268,7 +4428,7 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C139" s="1">
         <v>0.0</v>
@@ -3279,10 +4439,10 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C140" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
@@ -3290,10 +4450,10 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C141" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
@@ -3301,10 +4461,10 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C142" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
@@ -3312,7 +4472,7 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C143" s="1">
         <v>1.0</v>
@@ -3323,7 +4483,7 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C144" s="1">
         <v>1.0</v>
@@ -3334,7 +4494,7 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C145" s="1">
         <v>1.0</v>
@@ -3345,10 +4505,10 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C146" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147">
@@ -3356,7 +4516,7 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C147" s="1">
         <v>1.0</v>
@@ -3367,10 +4527,10 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C148" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
@@ -3378,7 +4538,7 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C149" s="1">
         <v>1.0</v>
@@ -3389,7 +4549,7 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C150" s="1">
         <v>0.0</v>
@@ -3400,10 +4560,10 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C151" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="152">
@@ -3411,7 +4571,7 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C152" s="1">
         <v>1.0</v>
@@ -3422,10 +4582,10 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C153" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
@@ -3433,7 +4593,7 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C154" s="1">
         <v>1.0</v>
@@ -3444,7 +4604,7 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C155" s="1">
         <v>1.0</v>
@@ -3455,7 +4615,7 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C156" s="1">
         <v>0.0</v>
@@ -3466,10 +4626,10 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="C157" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -3477,7 +4637,7 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C158" s="1">
         <v>1.0</v>
@@ -3488,7 +4648,7 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C159" s="1">
         <v>0.0</v>
@@ -3499,10 +4659,10 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C160" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
@@ -3510,10 +4670,10 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C161" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162">
@@ -3521,10 +4681,10 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C162" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
@@ -3532,10 +4692,10 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C163" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="164">
@@ -3543,10 +4703,10 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C164" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
@@ -3554,7 +4714,7 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C165" s="1">
         <v>1.0</v>
@@ -3565,10 +4725,10 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C166" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -3576,10 +4736,10 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C167" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
@@ -3587,7 +4747,7 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C168" s="1">
         <v>1.0</v>
@@ -3598,7 +4758,7 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C169" s="1">
         <v>0.0</v>
@@ -3609,7 +4769,7 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C170" s="1">
         <v>1.0</v>
@@ -3620,10 +4780,10 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C171" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="172">
@@ -3631,10 +4791,10 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C172" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="173">
@@ -3642,10 +4802,10 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="C173" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="174">
@@ -3653,7 +4813,7 @@
         <v>172.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C174" s="1">
         <v>1.0</v>
@@ -3664,7 +4824,7 @@
         <v>173.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C175" s="1">
         <v>1.0</v>
@@ -3675,7 +4835,7 @@
         <v>174.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C176" s="1">
         <v>1.0</v>
@@ -3686,7 +4846,7 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="C177" s="1">
         <v>1.0</v>
@@ -3697,10 +4857,10 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C178" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
@@ -3708,7 +4868,7 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="C179" s="1">
         <v>0.0</v>
@@ -3719,10 +4879,10 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C180" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181">
@@ -3730,10 +4890,10 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C181" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
@@ -3741,7 +4901,7 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C182" s="1">
         <v>0.0</v>
@@ -3751,8 +4911,8 @@
       <c r="A183" s="1">
         <v>181.0</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>172</v>
+      <c r="B183" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="C183" s="1">
         <v>1.0</v>
@@ -3763,7 +4923,7 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C184" s="1">
         <v>1.0</v>
@@ -3774,7 +4934,7 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C185" s="1">
         <v>0.0</v>
@@ -3785,7 +4945,7 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C186" s="1">
         <v>1.0</v>
@@ -3796,10 +4956,10 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C187" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -3807,10 +4967,10 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C188" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="189">
@@ -3818,7 +4978,7 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="C189" s="1">
         <v>1.0</v>
@@ -3829,10 +4989,10 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C190" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
@@ -3840,10 +5000,10 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C191" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
@@ -3851,7 +5011,7 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C192" s="1">
         <v>1.0</v>
@@ -3862,10 +5022,10 @@
         <v>191.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C193" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
@@ -3873,10 +5033,10 @@
         <v>192.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C194" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
@@ -3884,10 +5044,10 @@
         <v>193.0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C195" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
@@ -3895,7 +5055,7 @@
         <v>194.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C196" s="1">
         <v>1.0</v>
@@ -3906,7 +5066,7 @@
         <v>195.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C197" s="1">
         <v>1.0</v>
@@ -3917,10 +5077,10 @@
         <v>196.0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="C198" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="199">
@@ -3928,10 +5088,10 @@
         <v>197.0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C199" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
@@ -3939,7 +5099,7 @@
         <v>198.0</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C200" s="1">
         <v>1.0</v>
@@ -3950,10 +5110,10 @@
         <v>199.0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C201" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
@@ -3961,7 +5121,7 @@
         <v>200.0</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C202" s="1">
         <v>1.0</v>
@@ -3972,10 +5132,10 @@
         <v>201.0</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C203" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
@@ -3983,7 +5143,7 @@
         <v>202.0</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C204" s="1">
         <v>1.0</v>
@@ -3994,7 +5154,7 @@
         <v>203.0</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C205" s="1">
         <v>1.0</v>
@@ -4005,10 +5165,10 @@
         <v>204.0</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C206" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -4016,7 +5176,7 @@
         <v>205.0</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="C207" s="1">
         <v>1.0</v>
@@ -4027,10 +5187,2020 @@
         <v>206.0</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="C208" s="1">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>207.0</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C209" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>208.0</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>209.0</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C211" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>211.0</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>213.0</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>214.0</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>215.0</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>216.0</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>217.0</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>219.0</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>220.0</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C222" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>221.0</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>222.0</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>223.0</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>224.0</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>225.0</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>226.0</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>228.0</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>230.0</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C233" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>232.0</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C234" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>233.0</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1">
+        <v>234.0</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C236" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>236.0</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>238.0</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C240" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>239.0</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C241" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>242.0</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C245" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1">
+        <v>244.0</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1">
+        <v>245.0</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1">
+        <v>246.0</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1">
+        <v>247.0</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C249" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1">
+        <v>248.0</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C250" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>249.0</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C251" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C252" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>251.0</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C253" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1">
+        <v>252.0</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1">
+        <v>253.0</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1">
+        <v>254.0</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C256" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1">
+        <v>255.0</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C258" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1">
+        <v>257.0</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C259" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1">
+        <v>258.0</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C260" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1">
+        <v>259.0</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C261" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1">
+        <v>260.0</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1">
+        <v>261.0</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C263" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1">
+        <v>262.0</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C264" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1">
+        <v>263.0</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C265" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1">
+        <v>264.0</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C266" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C267" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1">
+        <v>266.0</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C268" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1">
+        <v>267.0</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C269" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1">
+        <v>268.0</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C270" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>269.0</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C271" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>270.0</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1">
+        <v>271.0</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C273" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>272.0</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>273.0</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C275" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>274.0</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C276" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>275.0</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C277" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>276.0</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C278" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1">
+        <v>277.0</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C279" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>278.0</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>279.0</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C281" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>280.0</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>281.0</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C283" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>282.0</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>283.0</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C285" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>284.0</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C286" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>285.0</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C287" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>286.0</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C288" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>287.0</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C289" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C290" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1">
+        <v>289.0</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C291" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1">
+        <v>290.0</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C292" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1">
+        <v>291.0</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C293" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1">
+        <v>292.0</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C294" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1">
+        <v>293.0</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C295" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1">
+        <v>294.0</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C296" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1">
+        <v>295.0</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C297" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1">
+        <v>296.0</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C298" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1">
+        <v>297.0</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C299" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1">
+        <v>298.0</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C300" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1">
+        <v>299.0</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C301" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C302" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>301.0</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C303" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>302.0</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C304" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>303.0</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C305" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>304.0</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>305.0</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C307" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>307.0</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>308.0</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>309.0</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C311" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>310.0</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>311.0</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C313" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>312.0</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C314" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>313.0</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C315" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>314.0</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C316" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>315.0</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>316.0</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C318" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>317.0</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C319" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>318.0</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C320" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>319.0</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C321" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>320.0</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C322" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>321.0</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C323" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>322.0</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C324" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>323.0</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C325" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1">
+        <v>324.0</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C326" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1">
+        <v>325.0</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C327" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1">
+        <v>326.0</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C328" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1">
+        <v>327.0</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C329" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C330" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1">
+        <v>329.0</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C331" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>330.0</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C332" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>331.0</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C333" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>332.0</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C334" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>333.0</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C335" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>334.0</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C336" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>335.0</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C337" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>336.0</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C338" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>337.0</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C339" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>338.0</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C340" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1">
+        <v>339.0</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C341" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>340.0</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C342" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>341.0</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C343" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>342.0</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C344" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>343.0</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C345" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>344.0</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C346" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>345.0</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C347" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>346.0</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C348" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>347.0</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C349" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>348.0</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C350" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>349.0</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C351" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C352" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>351.0</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C353" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>352.0</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C354" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>353.0</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C355" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>354.0</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C356" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>355.0</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C357" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>356.0</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C358" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>357.0</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C359" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>358.0</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C360" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>359.0</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C361" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1">
+        <v>360.0</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C362" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C363" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>362.0</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C364" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>363.0</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C365" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>364.0</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C366" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>365.0</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C367" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>366.0</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C368" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>367.0</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C369" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>368.0</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C370" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C371" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>370.0</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C372" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1">
+        <v>371.0</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C373" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1">
+        <v>372.0</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C374" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1">
+        <v>373.0</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C375" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1">
+        <v>374.0</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C376" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1">
+        <v>375.0</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C377" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1">
+        <v>376.0</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C378" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>377.0</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C379" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>378.0</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C380" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>379.0</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C381" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>380.0</v>
+      </c>
+      <c r="C382" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>381.0</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C383" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>382.0</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C384" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>383.0</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C385" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1">
+        <v>384.0</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C386" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1">
+        <v>385.0</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C387" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1">
+        <v>386.0</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C388" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1">
+        <v>387.0</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C389" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1">
+        <v>388.0</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C390" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C391" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
